--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1349.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1349.xlsx
@@ -9276,29 +9276,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0</v>
+        <v>0.01738921366858114</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0</v>
+        <v>0.0003597551088681097</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0</v>
+        <v>0.02100066759472265</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0</v>
+        <v>0.0004344703332096606</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0</v>
+        <v>0.06529919249081131</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0004142063748437476</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0</v>
+        <v>0.1106484405207716</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0</v>
+        <v>0.0005102885176765775</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.01738921366858114</v>
+        <v>0.03130058460344604</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0003597551088681097</v>
+        <v>0.001079265326604329</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.03011736000000001</v>
+        <v>0.047728789988006</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0006230801652173916</v>
+        <v>0.001869240495652175</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.09011736000000001</v>
+        <v>0.1209244305385395</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0006108629070758738</v>
+        <v>0.001714899537295572</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.15011736</v>
+        <v>0.1941200710890729</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0005716331790985244</v>
+        <v>0.002076933884057971</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.03130058460344604</v>
+        <v>0.03206405653047473</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001079265326604329</v>
+        <v>0.003175291194410601</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.047728789988006</v>
+        <v>0.05213452916241136</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001645720959127502</v>
+        <v>0.003183230643345755</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1209244305385395</v>
+        <v>0.1337752250563783</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001366149081879947</v>
+        <v>0.003181679477935136</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.1941200710890729</v>
+        <v>0.2094121042177526</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001231985798350018</v>
+        <v>0.003185318014083502</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0285887360397515</v>
+        <v>0.03567310942570776</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002134355916391919</v>
+        <v>0.004762936791615901</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.05022065184885287</v>
+        <v>0.05846262449061897</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002218381045939318</v>
+        <v>0.004774845965018632</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1269436082527909</v>
+        <v>0.1491075201045163</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002061230343611739</v>
+        <v>0.004772519216902704</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.2072010676650554</v>
+        <v>0.2336172265230258</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00217320913208139</v>
+        <v>0.004777977021125253</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.03566789217239384</v>
+        <v>0.04370022026172328</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002845807888522558</v>
+        <v>0.006350582388821201</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.05292973152677517</v>
+        <v>0.06308892703241274</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002957841394585757</v>
+        <v>0.00636646128669151</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1345417478943833</v>
+        <v>0.1594748649124122</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002748307124815651</v>
+        <v>0.006363358955870272</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.2216166333563793</v>
+        <v>0.2514377553133377</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00289761217610852</v>
+        <v>0.006370636028167003</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.01738921366858114</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.03363906014136339</v>
+        <v>0.04020879173395532</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003557259860653198</v>
+        <v>0.007938227986026501</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.05658654109921299</v>
+        <v>0.06759113420540304</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003697301743232197</v>
+        <v>0.007958076608364388</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.1428170311058189</v>
+        <v>0.1693671942707723</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003435383906019564</v>
+        <v>0.007954198694837839</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.2350567444626933</v>
+        <v>0.2673310356406536</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00362201522013565</v>
+        <v>0.007963295035208755</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.03450500823907893</v>
+        <v>0.04426222653783793</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004268711832783837</v>
+        <v>0.009525873583231802</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.05919427925222849</v>
+        <v>0.07054694342720025</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004436762091878636</v>
+        <v>0.009549691930037265</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.1482756537864634</v>
+        <v>0.1780744429703025</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004122460687223477</v>
+        <v>0.009545038433805409</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.2453333826688542</v>
+        <v>0.2812544125569384</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00434641826416278</v>
+        <v>0.009555954042250505</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.04026850475795926</v>
+        <v>0.04992392736880513</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004980163804914476</v>
+        <v>0.0111135191804371</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.06215614467188389</v>
+        <v>0.07383405211541474</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005176222440525076</v>
+        <v>0.01114130725171014</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.1551238118356816</v>
+        <v>0.1852865458017089</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00480953746842739</v>
+        <v>0.01113587817277298</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.2546585296597192</v>
+        <v>0.2947652311141578</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00507082130818991</v>
+        <v>0.01114861304929226</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.04093231799042311</v>
+        <v>0.047257296922291</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005691615777045116</v>
+        <v>0.0127011647776424</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.06437533604424144</v>
+        <v>0.07553015768765692</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005915682789171515</v>
+        <v>0.01273292257338302</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.1625677011528387</v>
+        <v>0.1930934375556975</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005496614249631303</v>
+        <v>0.01272671791174054</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.2641441671201448</v>
+        <v>0.3064208363642765</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005795224352217039</v>
+        <v>0.01274127205633401</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.04549921622888932</v>
+        <v>0.04932573789372954</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006403067749175755</v>
+        <v>0.0142888103748477</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.06725505205536332</v>
+        <v>0.07771295756153712</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006655143137817954</v>
+        <v>0.0143245378950559</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.1661135176373002</v>
+        <v>0.1976850530229744</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006183691030835216</v>
+        <v>0.01431755765070811</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.2740022767349881</v>
+        <v>0.3117785733592599</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006519627396244169</v>
+        <v>0.01433393106337576</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.04697196776577667</v>
+        <v>0.04719265297855484</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007114519721306395</v>
+        <v>0.015876455972053</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.06889849139131181</v>
+        <v>0.07916014915466571</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007394603486464394</v>
+        <v>0.01591615321672878</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.1715674571884312</v>
+        <v>0.2017513269942456</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.006870767812039128</v>
+        <v>0.01590839738967568</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.2826448401891057</v>
+        <v>0.3221957871510732</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.0072440304402713</v>
+        <v>0.01592659007041751</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0423533408935039</v>
+        <v>0.05092144487220092</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007825971693437034</v>
+        <v>0.0174641015692583</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.07170885273814906</v>
+        <v>0.08114942988465304</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008134063835110833</v>
+        <v>0.01750776853840165</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.1779357157055968</v>
+        <v>0.2044821942602171</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007557844593243042</v>
+        <v>0.01749923712864325</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.2909838391673547</v>
+        <v>0.3280298227916813</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007968433484298428</v>
+        <v>0.01751924907745926</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.04464610390448985</v>
+        <v>0.05457551627010178</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008537423665567674</v>
+        <v>0.0190517471664636</v>
       </c>
       <c r="J77" t="n">
-        <v>0.07328933478193729</v>
+        <v>0.08255849716910954</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008873524183757272</v>
+        <v>0.01909938386007453</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1830244890881624</v>
+        <v>0.2072675896115951</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008244921374446955</v>
+        <v>0.01909007686761082</v>
       </c>
       <c r="N77" t="n">
-        <v>0.3007312553545919</v>
+        <v>0.3316380253330498</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008692836528325559</v>
+        <v>0.01911190808450101</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.04785302509115327</v>
+        <v>0.05121826986769153</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009248875637698314</v>
+        <v>0.02063939276366891</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0756431362087388</v>
+        <v>0.08306504842564558</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009612984532403711</v>
+        <v>0.02069099918174741</v>
       </c>
       <c r="L78" t="n">
-        <v>0.186539973235493</v>
+        <v>0.2119974478390855</v>
       </c>
       <c r="M78" t="n">
-        <v>0.008931998155650867</v>
+        <v>0.02068091660657838</v>
       </c>
       <c r="N78" t="n">
-        <v>0.3078990704356742</v>
+        <v>0.3359777398271437</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009417239572352689</v>
+        <v>0.02070456709154276</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.04997687274591298</v>
+        <v>0.05591276430966219</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009960327609828953</v>
+        <v>0.02222703836087421</v>
       </c>
       <c r="J79" t="n">
-        <v>0.07757345570461566</v>
+        <v>0.08474678107187147</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01035244488105015</v>
+        <v>0.02228261450342029</v>
       </c>
       <c r="L79" t="n">
-        <v>0.192788364046954</v>
+        <v>0.2130617037333945</v>
       </c>
       <c r="M79" t="n">
-        <v>0.00961907493685478</v>
+        <v>0.02227175634554595</v>
       </c>
       <c r="N79" t="n">
-        <v>0.3134992660954585</v>
+        <v>0.3410063113259278</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01014164261637982</v>
+        <v>0.02229722609858451</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.04802041516118774</v>
+        <v>0.05363664131773317</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01067177958195959</v>
+        <v>0.0238146839580795</v>
       </c>
       <c r="J80" t="n">
-        <v>0.07948349195563023</v>
+        <v>0.08525816687890475</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01109190522969659</v>
+        <v>0.02387422982509316</v>
       </c>
       <c r="L80" t="n">
-        <v>0.1957758574219104</v>
+        <v>0.2154789332081392</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01030615171805869</v>
+        <v>0.02386259608451352</v>
       </c>
       <c r="N80" t="n">
-        <v>0.3224438240188015</v>
+        <v>0.3478544674236614</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01086604566040695</v>
+        <v>0.02388988510562626</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.05398642062939633</v>
+        <v>0.05334015990937738</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01138323155409023</v>
+        <v>0.02540232955528481</v>
       </c>
       <c r="J81" t="n">
-        <v>0.08087644364784466</v>
+        <v>0.08674873705353295</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01183136557834303</v>
+        <v>0.02546584514676604</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2006086492597277</v>
+        <v>0.2200334300156197</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01099322849926261</v>
+        <v>0.02545343582348109</v>
       </c>
       <c r="N81" t="n">
-        <v>0.3292447258905601</v>
+        <v>0.3518080996027809</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01159044870443408</v>
+        <v>0.02548254411266801</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.04987765744295755</v>
+        <v>0.0540188529679087</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01209468352622087</v>
+        <v>0.02698997515249011</v>
       </c>
       <c r="J82" t="n">
-        <v>0.08225550946732116</v>
+        <v>0.0874043948339446</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01257082592698947</v>
+        <v>0.02705746046843892</v>
       </c>
       <c r="L82" t="n">
-        <v>0.2040929354597709</v>
+        <v>0.2217980108346833</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01168030528046652</v>
+        <v>0.02704427556244866</v>
       </c>
       <c r="N82" t="n">
-        <v>0.3340139533955912</v>
+        <v>0.3536229055170654</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01231485174846121</v>
+        <v>0.02707520311970977</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.05569689389429019</v>
+        <v>0.05466825337664097</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01280613549835151</v>
+        <v>0.0285776207496954</v>
       </c>
       <c r="J83" t="n">
-        <v>0.08382388810012198</v>
+        <v>0.08821827730046453</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01331028627563591</v>
+        <v>0.02864907579011179</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2075349119214052</v>
+        <v>0.2250553133555011</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01236738206167043</v>
+        <v>0.02863511530141622</v>
       </c>
       <c r="N83" t="n">
-        <v>0.3373634882187519</v>
+        <v>0.3588709177078022</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01303925479248834</v>
+        <v>0.02866786212675152</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.050446898275813</v>
+        <v>0.05928389401888808</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01351758747048215</v>
+        <v>0.03016526634690071</v>
       </c>
       <c r="J84" t="n">
-        <v>0.08498477823230932</v>
+        <v>0.08988352153341753</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01404974662428235</v>
+        <v>0.03024069111178468</v>
       </c>
       <c r="L84" t="n">
-        <v>0.209640774543996</v>
+        <v>0.2281879752682435</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01305445884287434</v>
+        <v>0.03022595504038379</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3441053120448984</v>
+        <v>0.3638241687162789</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01376365783651547</v>
+        <v>0.03026052113379327</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.05613043887994482</v>
+        <v>0.05986130777796389</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01422903944261279</v>
+        <v>0.031752911944106</v>
       </c>
       <c r="J85" t="n">
-        <v>0.08604137854994537</v>
+        <v>0.09069326461312838</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01478920697292879</v>
+        <v>0.03183230643345755</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2140167192269083</v>
+        <v>0.2291786342630813</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01374153562407826</v>
+        <v>0.03181679477935136</v>
       </c>
       <c r="N85" t="n">
-        <v>0.3485514065588884</v>
+        <v>0.3670546910837826</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0144880608805426</v>
+        <v>0.03185318014083502</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.05375028399910439</v>
+        <v>0.05839602753718225</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01494049141474343</v>
+        <v>0.03334055754131131</v>
       </c>
       <c r="J86" t="n">
-        <v>0.08669688773909237</v>
+        <v>0.09144064361992191</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01552866732157523</v>
+        <v>0.03342392175513043</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2169689418695075</v>
+        <v>0.2302099280301854</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01442861240528217</v>
+        <v>0.03340763451831893</v>
       </c>
       <c r="N86" t="n">
-        <v>0.3522137534455783</v>
+        <v>0.3723345173516006</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01521246392456973</v>
+        <v>0.03344583914787677</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.05330920192571051</v>
+        <v>0.06088358617985699</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01565194338687407</v>
+        <v>0.03492820313851661</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0877545044858126</v>
+        <v>0.0916187956341229</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01626812767022167</v>
+        <v>0.03501553707680331</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2189036383711586</v>
+        <v>0.2326644942597265</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01511568918648608</v>
+        <v>0.0349984742572865</v>
       </c>
       <c r="N87" t="n">
-        <v>0.3556043343898249</v>
+        <v>0.3758356800610201</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01593686696859686</v>
+        <v>0.03503849815491852</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.05880996095218201</v>
+        <v>0.05531951658930204</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01636339535900471</v>
+        <v>0.03651584873572191</v>
       </c>
       <c r="J88" t="n">
-        <v>0.08841742747616815</v>
+        <v>0.09292085773605618</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01700758801886811</v>
+        <v>0.03660715239847619</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2204270046312271</v>
+        <v>0.2359249706418751</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01580276596768999</v>
+        <v>0.03658931399625406</v>
       </c>
       <c r="N88" t="n">
-        <v>0.3592351310764852</v>
+        <v>0.3765302117533291</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01666127001262399</v>
+        <v>0.03663115716196027</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.05325532937093758</v>
+        <v>0.05769935164883125</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01707484733113535</v>
+        <v>0.03810349433292721</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0893888553962213</v>
+        <v>0.09303996700604653</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01774704836751454</v>
+        <v>0.03819876772014906</v>
       </c>
       <c r="L89" t="n">
-        <v>0.224045236549078</v>
+        <v>0.2370739948668022</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01648984274889391</v>
+        <v>0.03818015373522163</v>
       </c>
       <c r="N89" t="n">
-        <v>0.3643181251904163</v>
+        <v>0.3797901449698141</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01738567305665112</v>
+        <v>0.03822381616900202</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.05664807547439607</v>
+        <v>0.06201862424175845</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01778629930326599</v>
+        <v>0.03969113993013251</v>
       </c>
       <c r="J90" t="n">
-        <v>0.09007198693203433</v>
+        <v>0.09346926052441873</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01848650871616099</v>
+        <v>0.03979038304182194</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2249645300240764</v>
+        <v>0.2372942046246784</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01717691953009782</v>
+        <v>0.0397709934741892</v>
       </c>
       <c r="N90" t="n">
-        <v>0.3671652984164747</v>
+        <v>0.3820875122517629</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01811007610067825</v>
+        <v>0.03981647517604377</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.05899096755497625</v>
+        <v>0.05727286725139751</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01849775127539663</v>
+        <v>0.04127878552733781</v>
       </c>
       <c r="J91" t="n">
-        <v>0.09047002076966937</v>
+        <v>0.09450187537149762</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01922596906480742</v>
+        <v>0.04138199836349482</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2258910809555878</v>
+        <v>0.2378682376056744</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01786399631130173</v>
+        <v>0.04136183321315676</v>
       </c>
       <c r="N91" t="n">
-        <v>0.3665886324395173</v>
+        <v>0.3827943461404626</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01883447914470538</v>
+        <v>0.04140913418308553</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.05428677390509694</v>
+        <v>0.06245761356106232</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01920920324752727</v>
+        <v>0.04286643112454311</v>
       </c>
       <c r="J92" t="n">
-        <v>0.09128615559518866</v>
+        <v>0.09453094862760797</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01996542941345386</v>
+        <v>0.0429736136851677</v>
       </c>
       <c r="L92" t="n">
-        <v>0.2296310852429773</v>
+        <v>0.238678731499961</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01855107309250565</v>
+        <v>0.04295267295212434</v>
       </c>
       <c r="N92" t="n">
-        <v>0.3695001089444012</v>
+        <v>0.3851826791772008</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01955888218873251</v>
+        <v>0.04300179319012727</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.05653826281717687</v>
+        <v>0.06260116920689208</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01992065521965791</v>
+        <v>0.04445407672174841</v>
       </c>
       <c r="J93" t="n">
-        <v>0.09192359009465442</v>
+        <v>0.09545757997601201</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0207048897621003</v>
+        <v>0.04456522900684057</v>
       </c>
       <c r="L93" t="n">
-        <v>0.2303907387856101</v>
+        <v>0.241848861077079</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01923814987370956</v>
+        <v>0.04454351269109191</v>
       </c>
       <c r="N93" t="n">
-        <v>0.3709117096159829</v>
+        <v>0.3841245439032647</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02028328523275964</v>
+        <v>0.04459445219716902</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.05674820258363485</v>
+        <v>0.05860096335155779</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02063210719178855</v>
+        <v>0.0460417223189537</v>
       </c>
       <c r="J94" t="n">
-        <v>0.09218552295412888</v>
+        <v>0.09485101868822229</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02144435011074674</v>
+        <v>0.04615684432851345</v>
       </c>
       <c r="L94" t="n">
-        <v>0.2311762374828514</v>
+        <v>0.2411396527890888</v>
       </c>
       <c r="M94" t="n">
-        <v>0.01992522665491347</v>
+        <v>0.04613435243005947</v>
       </c>
       <c r="N94" t="n">
-        <v>0.3717354161391196</v>
+        <v>0.3882401421781458</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02100768827678677</v>
+        <v>0.04618711120421078</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.05791936149688967</v>
+        <v>0.05657719891682048</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02134355916391919</v>
+        <v>0.04762936791615901</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0919751528596742</v>
+        <v>0.09504358449541878</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02218381045939318</v>
+        <v>0.04774845965018633</v>
       </c>
       <c r="L95" t="n">
-        <v>0.2323937772340664</v>
+        <v>0.241304320539572</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02061230343611739</v>
+        <v>0.04772519216902704</v>
       </c>
       <c r="N95" t="n">
-        <v>0.3761832101986681</v>
+        <v>0.3877002486341806</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02173209132081389</v>
+        <v>0.04777977021125252</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0560545078493601</v>
+        <v>0.06151561685787939</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02205501113604982</v>
+        <v>0.04921701351336431</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0923956784973527</v>
+        <v>0.09467336455955391</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02292327080803962</v>
+        <v>0.04934007497185921</v>
       </c>
       <c r="L96" t="n">
-        <v>0.2331495539386204</v>
+        <v>0.2414145389004344</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0212993802173213</v>
+        <v>0.04931603190799461</v>
       </c>
       <c r="N96" t="n">
-        <v>0.376467073479485</v>
+        <v>0.3864404908401708</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02245649436484103</v>
+        <v>0.04937242921829427</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.05715640993346494</v>
+        <v>0.05941857147405262</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02276646310818047</v>
+        <v>0.05080465911056961</v>
       </c>
       <c r="J97" t="n">
-        <v>0.09315029855322654</v>
+        <v>0.09514728193936883</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02366273115668606</v>
+        <v>0.05093169029353208</v>
       </c>
       <c r="L97" t="n">
-        <v>0.2326497634958785</v>
+        <v>0.2396841123752657</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02198645699852521</v>
+        <v>0.05090687164696218</v>
       </c>
       <c r="N97" t="n">
-        <v>0.3780989876664276</v>
+        <v>0.3841516104321447</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02318089740886816</v>
+        <v>0.05096508822533603</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.060227836041623</v>
+        <v>0.05728841706465826</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0234779150803111</v>
+        <v>0.05239230470777492</v>
       </c>
       <c r="J98" t="n">
-        <v>0.09294221171335784</v>
+        <v>0.09416895359144789</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0244021915053325</v>
+        <v>0.05252330561520496</v>
       </c>
       <c r="L98" t="n">
-        <v>0.234700601805206</v>
+        <v>0.2401221914020471</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02267353377972913</v>
+        <v>0.05249771138592975</v>
       </c>
       <c r="N98" t="n">
-        <v>0.3765909344443525</v>
+        <v>0.3839483470673804</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02390530045289528</v>
+        <v>0.05255774723237778</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.05927155446625303</v>
+        <v>0.05612750792901441</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02418936705244175</v>
+        <v>0.05397995030498021</v>
       </c>
       <c r="J99" t="n">
-        <v>0.09317461666380902</v>
+        <v>0.09434199647237568</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02514165185397894</v>
+        <v>0.05411492093687784</v>
       </c>
       <c r="L99" t="n">
-        <v>0.234808264765968</v>
+        <v>0.2397379264187598</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02336061056093304</v>
+        <v>0.05408855112489732</v>
       </c>
       <c r="N99" t="n">
-        <v>0.3778548954981164</v>
+        <v>0.3857454404031563</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02462970349692242</v>
+        <v>0.05415040623941953</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.05729033349977378</v>
+        <v>0.05693819836643918</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02490081902457238</v>
+        <v>0.0555675959021855</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0924430024496542</v>
+        <v>0.0944700275387366</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02588111220262538</v>
+        <v>0.05570653625855072</v>
       </c>
       <c r="L100" t="n">
-        <v>0.2350789482775298</v>
+        <v>0.2379404678633852</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02404768734213695</v>
+        <v>0.05567939086386488</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3761839882076084</v>
+        <v>0.3826576300967507</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02535410654094955</v>
+        <v>0.05574306524646128</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.06027328362842176</v>
+        <v>0.05872284267625065</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02561227099670302</v>
+        <v>0.05715524149939081</v>
       </c>
       <c r="J101" t="n">
-        <v>0.09234226558052719</v>
+        <v>0.09375666374711505</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02662057255127181</v>
+        <v>0.05729815158022359</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2359188482392566</v>
+        <v>0.2377389661739045</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02473476412334086</v>
+        <v>0.05727023060283245</v>
       </c>
       <c r="N101" t="n">
-        <v>0.375054864099288</v>
+        <v>0.3826996558054422</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02607850958497668</v>
+        <v>0.05733572425350304</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.05518159328945382</v>
+        <v>0.05848379515776692</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02632372296883366</v>
+        <v>0.05874288709659611</v>
       </c>
       <c r="J102" t="n">
-        <v>0.09217817942037171</v>
+        <v>0.09370552205409557</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02736003289991826</v>
+        <v>0.05888976690189647</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2350303969052735</v>
+        <v>0.2364425717882991</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02542184090454478</v>
+        <v>0.05886107034180001</v>
       </c>
       <c r="N102" t="n">
-        <v>0.3740103932018585</v>
+        <v>0.3808862571865091</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02680291262900381</v>
+        <v>0.05892838326054478</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.05502050593188203</v>
+        <v>0.05922341011030609</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0270351749409643</v>
+        <v>0.06033053269380142</v>
       </c>
       <c r="J103" t="n">
-        <v>0.09195655790644361</v>
+        <v>0.09322021941626266</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0280994932485647</v>
+        <v>0.06048138222356935</v>
       </c>
       <c r="L103" t="n">
-        <v>0.2350826744322993</v>
+        <v>0.2368604351445502</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02610891768574869</v>
+        <v>0.06045191008076758</v>
       </c>
       <c r="N103" t="n">
-        <v>0.3730341471445272</v>
+        <v>0.3797321738972295</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02752731567303093</v>
+        <v>0.06052104226758653</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.05679878385673387</v>
+        <v>0.05594404183318624</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02774662691309494</v>
+        <v>0.06191817829100671</v>
       </c>
       <c r="J104" t="n">
-        <v>0.09198321497599879</v>
+        <v>0.09310437279020067</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02883895359721114</v>
+        <v>0.06207299754524223</v>
       </c>
       <c r="L104" t="n">
-        <v>0.2350775838394542</v>
+        <v>0.2348017066806391</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0267959944669526</v>
+        <v>0.06204274981973516</v>
       </c>
       <c r="N104" t="n">
-        <v>0.3736096975565007</v>
+        <v>0.3787521455948822</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02825171871705806</v>
+        <v>0.06211370127462829</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.05452518936503688</v>
+        <v>0.05664804462572549</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02845807888522558</v>
+        <v>0.06350582388821201</v>
       </c>
       <c r="J105" t="n">
-        <v>0.09206396456629312</v>
+        <v>0.09176159913249413</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02957841394585757</v>
+        <v>0.0636646128669151</v>
       </c>
       <c r="L105" t="n">
-        <v>0.2330278448850595</v>
+        <v>0.2331755368345471</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02748307124815651</v>
+        <v>0.06363358955870271</v>
       </c>
       <c r="N105" t="n">
-        <v>0.3709206160669858</v>
+        <v>0.3766609119367453</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0289761217610852</v>
+        <v>0.06370636028167004</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.05520848475781856</v>
+        <v>0.05833777278724193</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02916953085735622</v>
+        <v>0.06509346948541732</v>
       </c>
       <c r="J106" t="n">
-        <v>0.09110462061458258</v>
+        <v>0.09169551539972753</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03031787429450401</v>
+        <v>0.06525622818858798</v>
       </c>
       <c r="L106" t="n">
-        <v>0.2345461773274371</v>
+        <v>0.2330910760442554</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02817014802936043</v>
+        <v>0.06522442929767029</v>
       </c>
       <c r="N106" t="n">
-        <v>0.3674504743051897</v>
+        <v>0.371573212580097</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02970052480511233</v>
+        <v>0.06529901928871178</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.05385743233610646</v>
+        <v>0.05401558061705367</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02988098282948686</v>
+        <v>0.06668111508262262</v>
       </c>
       <c r="J107" t="n">
-        <v>0.09081099705812298</v>
+        <v>0.09170973854848524</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03105733464315046</v>
+        <v>0.06684784351026087</v>
       </c>
       <c r="L107" t="n">
-        <v>0.2333453009249081</v>
+        <v>0.2317574747477454</v>
       </c>
       <c r="M107" t="n">
-        <v>0.02885722481056434</v>
+        <v>0.06681526903663786</v>
       </c>
       <c r="N107" t="n">
-        <v>0.3645828439003188</v>
+        <v>0.3731037871822161</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03042492784913946</v>
+        <v>0.06689167829575354</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.05948079440092809</v>
+        <v>0.05968382241447877</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0305924348016175</v>
+        <v>0.06826876067982791</v>
       </c>
       <c r="J108" t="n">
-        <v>0.09108890783417029</v>
+        <v>0.09070788553535178</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0317967949917969</v>
+        <v>0.06843945883193374</v>
       </c>
       <c r="L108" t="n">
-        <v>0.2324379354357942</v>
+        <v>0.2289838833829982</v>
       </c>
       <c r="M108" t="n">
-        <v>0.02954430159176825</v>
+        <v>0.06840610877560542</v>
       </c>
       <c r="N108" t="n">
-        <v>0.3607012964815802</v>
+        <v>0.3700673754003805</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03114933089316659</v>
+        <v>0.06848433730279528</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.05808733325331096</v>
+        <v>0.05834485247883536</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03130388677374814</v>
+        <v>0.06985640627703321</v>
       </c>
       <c r="J109" t="n">
-        <v>0.09064416687998042</v>
+        <v>0.0897935733169116</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03253625534044333</v>
+        <v>0.07003107415360661</v>
       </c>
       <c r="L109" t="n">
-        <v>0.2318368006184171</v>
+        <v>0.2294794523879952</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03023137837297217</v>
+        <v>0.069996948514573</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3555894036781808</v>
+        <v>0.3686787168918691</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03187373393719371</v>
+        <v>0.07007699630983703</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.05468581119428258</v>
+        <v>0.05900102510944154</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03201533874587878</v>
+        <v>0.07144405187423851</v>
       </c>
       <c r="J110" t="n">
-        <v>0.08998258813280918</v>
+        <v>0.08947041884974916</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03327571568908977</v>
+        <v>0.0716226894752795</v>
       </c>
       <c r="L110" t="n">
-        <v>0.2292546162310981</v>
+        <v>0.2270533322007177</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03091845515417608</v>
+        <v>0.07158778825354056</v>
       </c>
       <c r="N110" t="n">
-        <v>0.3558307371193272</v>
+        <v>0.3669525513139598</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03259813698122085</v>
+        <v>0.07166965531687879</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.05828499052487048</v>
+        <v>0.05565469460561537</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03272679071800941</v>
+        <v>0.07303169747144382</v>
       </c>
       <c r="J111" t="n">
-        <v>0.08970998552991255</v>
+        <v>0.08924203909044892</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03401517603773621</v>
+        <v>0.07321430479695237</v>
       </c>
       <c r="L111" t="n">
-        <v>0.2294041020321586</v>
+        <v>0.225714673259147</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03160553193537999</v>
+        <v>0.07317862799250813</v>
       </c>
       <c r="N111" t="n">
-        <v>0.3532088684342264</v>
+        <v>0.3612036183239313</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03332254002524798</v>
+        <v>0.07326231432392054</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05789363354610218</v>
+        <v>0.05530821526667498</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03343824269014006</v>
+        <v>0.07461934306864912</v>
       </c>
       <c r="J112" t="n">
-        <v>0.08923217300854641</v>
+        <v>0.08911205099559535</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03475463638638265</v>
+        <v>0.07480592011862526</v>
       </c>
       <c r="L112" t="n">
-        <v>0.2270979777799205</v>
+        <v>0.2252726260012643</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0322926087165839</v>
+        <v>0.07476946773147569</v>
       </c>
       <c r="N112" t="n">
-        <v>0.3493073692520851</v>
+        <v>0.3626466575790617</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03404694306927511</v>
+        <v>0.07485497333096229</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05252050255900519</v>
+        <v>0.05796394139193846</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0341496946622707</v>
+        <v>0.07620698866585442</v>
       </c>
       <c r="J113" t="n">
-        <v>0.08845496450596665</v>
+        <v>0.0879840715217729</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03549409673502909</v>
+        <v>0.07639753544029812</v>
       </c>
       <c r="L113" t="n">
-        <v>0.2261489632327049</v>
+        <v>0.2229363408650509</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03297968549778782</v>
+        <v>0.07636030747044327</v>
       </c>
       <c r="N113" t="n">
-        <v>0.3465098112021104</v>
+        <v>0.3574964087366295</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03477134611330224</v>
+        <v>0.07644763233800404</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05217435986460701</v>
+        <v>0.05562182508583202</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03486114663440134</v>
+        <v>0.07779463426305971</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0874841739594292</v>
+        <v>0.08776171762556603</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03623355708367553</v>
+        <v>0.07798915076197101</v>
       </c>
       <c r="L114" t="n">
-        <v>0.2254697781488336</v>
+        <v>0.2230149682884881</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03366676227899174</v>
+        <v>0.07795114720941083</v>
       </c>
       <c r="N114" t="n">
-        <v>0.345899765913509</v>
+        <v>0.3568676114539133</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03549574915732936</v>
+        <v>0.0780402913450458</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.05286396776393519</v>
+        <v>0.0552422801412462</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03557259860653197</v>
+        <v>0.07938227986026501</v>
       </c>
       <c r="J115" t="n">
-        <v>0.08722561530618997</v>
+        <v>0.0875105613325193</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03697301743232197</v>
+        <v>0.07958076608364388</v>
       </c>
       <c r="L115" t="n">
-        <v>0.2254731422866282</v>
+        <v>0.2197053985165515</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03435383906019564</v>
+        <v>0.0795419869483784</v>
       </c>
       <c r="N115" t="n">
-        <v>0.3440608050154878</v>
+        <v>0.3527515668207171</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03622015220135649</v>
+        <v>0.07963295035208755</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05459808855801726</v>
+        <v>0.05381640980304736</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03628405057866262</v>
+        <v>0.08096992545747032</v>
       </c>
       <c r="J116" t="n">
-        <v>0.08688510248350478</v>
+        <v>0.08688447627512469</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0377124777809684</v>
+        <v>0.08117238140531675</v>
       </c>
       <c r="L116" t="n">
-        <v>0.2225717754044099</v>
+        <v>0.2189072833508774</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03504091584139955</v>
+        <v>0.08113282668734596</v>
       </c>
       <c r="N116" t="n">
-        <v>0.3400765001372535</v>
+        <v>0.3536312818306686</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03694455524538363</v>
+        <v>0.0812256093591293</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0533854845478807</v>
+        <v>0.05635188465983554</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03699550255079326</v>
+        <v>0.08255757105467562</v>
       </c>
       <c r="J117" t="n">
-        <v>0.08656844942862957</v>
+        <v>0.08589480314416764</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03845193812961484</v>
+        <v>0.08276399672698964</v>
       </c>
       <c r="L117" t="n">
-        <v>0.2231783972605005</v>
+        <v>0.2164503712134869</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03572799262260347</v>
+        <v>0.08272366642631353</v>
       </c>
       <c r="N117" t="n">
-        <v>0.3428304224866472</v>
+        <v>0.3480473778134347</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03766895828941075</v>
+        <v>0.08281826836617105</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.05223491803455303</v>
+        <v>0.05285637530021081</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03770695452292389</v>
+        <v>0.08414521665188091</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0863814700788203</v>
+        <v>0.08515332641655401</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03919139847826129</v>
+        <v>0.08435561204866251</v>
       </c>
       <c r="L118" t="n">
-        <v>0.2204057276132214</v>
+        <v>0.2140644753251227</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03641506940380738</v>
+        <v>0.08431450616528111</v>
       </c>
       <c r="N118" t="n">
-        <v>0.3411153985544021</v>
+        <v>0.3476478783343369</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03839336133343788</v>
+        <v>0.0844109273732128</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0551551513190618</v>
+        <v>0.05333755231277319</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03841840649505453</v>
+        <v>0.08573286224908622</v>
       </c>
       <c r="J119" t="n">
-        <v>0.08562997837133282</v>
+        <v>0.08387183056918979</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03993085882690773</v>
+        <v>0.0859472273703354</v>
       </c>
       <c r="L119" t="n">
-        <v>0.2199664862208941</v>
+        <v>0.2142794089065277</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03710214618501129</v>
+        <v>0.08590534590424867</v>
       </c>
       <c r="N119" t="n">
-        <v>0.3426645206092259</v>
+        <v>0.3430808069586957</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03911776437746502</v>
+        <v>0.08600358638025454</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.052148522037316</v>
+        <v>0.05280308628612279</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03912985846718518</v>
+        <v>0.08732050784629151</v>
       </c>
       <c r="J120" t="n">
-        <v>0.08501978824342302</v>
+        <v>0.08356210007898074</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04067031917555416</v>
+        <v>0.08753884269200826</v>
       </c>
       <c r="L120" t="n">
-        <v>0.2176733928418401</v>
+        <v>0.2109249851784442</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03778922296621521</v>
+        <v>0.08749618564321625</v>
       </c>
       <c r="N120" t="n">
-        <v>0.3428697192564871</v>
+        <v>0.3386941872518328</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03984216742149214</v>
+        <v>0.08759624538729631</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.05018021659339059</v>
+        <v>0.05226064780885964</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03984131043931581</v>
+        <v>0.08890815344349683</v>
       </c>
       <c r="J121" t="n">
-        <v>0.08555671363234685</v>
+        <v>0.08273591942283284</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04140977952420061</v>
+        <v>0.08913045801368115</v>
       </c>
       <c r="L121" t="n">
-        <v>0.2176391672343811</v>
+        <v>0.2090310173616151</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03847629974741912</v>
+        <v>0.08908702538218381</v>
       </c>
       <c r="N121" t="n">
-        <v>0.3407229251015542</v>
+        <v>0.3374360427790693</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04056657046551928</v>
+        <v>0.08918890439433805</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05624200767294166</v>
+        <v>0.05271790746958378</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04055276241144645</v>
+        <v>0.09049579904070212</v>
       </c>
       <c r="J122" t="n">
-        <v>0.08454656847536013</v>
+        <v>0.08210507307765197</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04214923987284704</v>
+        <v>0.09072207333535402</v>
       </c>
       <c r="L122" t="n">
-        <v>0.2172765291568385</v>
+        <v>0.206827318676783</v>
       </c>
       <c r="M122" t="n">
-        <v>0.03916337652862303</v>
+        <v>0.09067786512115138</v>
       </c>
       <c r="N122" t="n">
-        <v>0.3433160687497963</v>
+        <v>0.3340543971057263</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04129097350954641</v>
+        <v>0.0907815634013798</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05033199455839558</v>
+        <v>0.0471825358568953</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04126421438357709</v>
+        <v>0.09208344463790741</v>
       </c>
       <c r="J123" t="n">
-        <v>0.08529516670971882</v>
+        <v>0.08108134552034396</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04288870022149349</v>
+        <v>0.09231368865702691</v>
       </c>
       <c r="L123" t="n">
-        <v>0.2169981983675337</v>
+        <v>0.2042437023446906</v>
       </c>
       <c r="M123" t="n">
-        <v>0.03985045330982695</v>
+        <v>0.09226870486011894</v>
       </c>
       <c r="N123" t="n">
-        <v>0.3458410808065818</v>
+        <v>0.3295972737971249</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04201537655357353</v>
+        <v>0.09237422240842155</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05244827653217878</v>
+        <v>0.04766220355939423</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04197566635570773</v>
+        <v>0.09367109023511272</v>
       </c>
       <c r="J124" t="n">
-        <v>0.08440832227267883</v>
+        <v>0.07967652122781479</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04362816057013992</v>
+        <v>0.09390530397869978</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2148168946247884</v>
+        <v>0.2039099815860805</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04053753009103086</v>
+        <v>0.09385954459908652</v>
       </c>
       <c r="N124" t="n">
-        <v>0.3435898918772796</v>
+        <v>0.3279126964185863</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04273977959760066</v>
+        <v>0.0939668814154633</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05058895287671752</v>
+        <v>0.04816458116568065</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04268711832783837</v>
+        <v>0.09525873583231802</v>
       </c>
       <c r="J125" t="n">
-        <v>0.08459218130403187</v>
+        <v>0.07980238467697029</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04436762091878636</v>
+        <v>0.09549691930037266</v>
       </c>
       <c r="L125" t="n">
-        <v>0.214645337686924</v>
+        <v>0.2000559696216954</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04122460687223477</v>
+        <v>0.09545038433805408</v>
       </c>
       <c r="N125" t="n">
-        <v>0.3457544325672583</v>
+        <v>0.3214486885354318</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04346418264162779</v>
+        <v>0.09555954042250504</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05075212287443825</v>
+        <v>0.04666451226859157</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04339857029996901</v>
+        <v>0.09684638142952333</v>
       </c>
       <c r="J126" t="n">
-        <v>0.08455555134956791</v>
+        <v>0.07825235838933353</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04510708126743281</v>
+        <v>0.09708853462204554</v>
       </c>
       <c r="L126" t="n">
-        <v>0.2136962473122621</v>
+        <v>0.1987523461649454</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04191168365343869</v>
+        <v>0.09704122407702165</v>
       </c>
       <c r="N126" t="n">
-        <v>0.3457266334818866</v>
+        <v>0.3218020312838473</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04418858568565492</v>
+        <v>0.09715219942954681</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05293588580776731</v>
+        <v>0.05111880555488112</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04411002227209965</v>
+        <v>0.09843402702672861</v>
       </c>
       <c r="J127" t="n">
-        <v>0.08479580582334539</v>
+        <v>0.07744062672345683</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04584654161607924</v>
+        <v>0.09868014994371842</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2134823432591243</v>
+        <v>0.1965852531435443</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04259876043464259</v>
+        <v>0.09863206381598921</v>
       </c>
       <c r="N127" t="n">
-        <v>0.3473984252265332</v>
+        <v>0.3163238182973642</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04491298872968206</v>
+        <v>0.09874485843658855</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05313834095913103</v>
+        <v>0.04453772605690197</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04482147424423029</v>
+        <v>0.1000216726239339</v>
       </c>
       <c r="J128" t="n">
-        <v>0.08520694606121781</v>
+        <v>0.07686892241818821</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04658600196472568</v>
+        <v>0.1002717652653913</v>
       </c>
       <c r="L128" t="n">
-        <v>0.212616345285832</v>
+        <v>0.1946692135483355</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04328583721584651</v>
+        <v>0.1002229035549568</v>
       </c>
       <c r="N128" t="n">
-        <v>0.3499617384065668</v>
+        <v>0.31139519587036</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04563739177370919</v>
+        <v>0.1003375174436303</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05535758761095581</v>
+        <v>0.04893225422448219</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04553292621636093</v>
+        <v>0.1016093182211392</v>
       </c>
       <c r="J129" t="n">
-        <v>0.08578297339903895</v>
+        <v>0.07565411495567056</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04732546231337212</v>
+        <v>0.1018633805870642</v>
       </c>
       <c r="L129" t="n">
-        <v>0.2132109731507067</v>
+        <v>0.1934469050135458</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04397291399705042</v>
+        <v>0.1018137432939244</v>
       </c>
       <c r="N129" t="n">
-        <v>0.3505085036273561</v>
+        <v>0.3090849097506606</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04636179481773631</v>
+        <v>0.1019301764506721</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.051591725045668</v>
+        <v>0.04431337050744985</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04624437818849157</v>
+        <v>0.1031969638183445</v>
       </c>
       <c r="J130" t="n">
-        <v>0.08591788917266233</v>
+        <v>0.07481307381804708</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04806492266201856</v>
+        <v>0.1034549959087371</v>
       </c>
       <c r="L130" t="n">
-        <v>0.2128858551659102</v>
+        <v>0.1911610051734021</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04465999077825434</v>
+        <v>0.1034045830328919</v>
       </c>
       <c r="N130" t="n">
-        <v>0.3544306514942701</v>
+        <v>0.3053617056860917</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04708619786176344</v>
+        <v>0.1035228354577138</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05183885254569398</v>
+        <v>0.04869205535563308</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04695583016062221</v>
+        <v>0.1047846094155498</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0858056947179415</v>
+        <v>0.07376266848746076</v>
       </c>
       <c r="K131" t="n">
-        <v>0.048804383010665</v>
+        <v>0.1050466112304099</v>
       </c>
       <c r="L131" t="n">
-        <v>0.2132490623291996</v>
+        <v>0.1877541916621315</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04534706755945826</v>
+        <v>0.1049954227718595</v>
       </c>
       <c r="N131" t="n">
-        <v>0.356120112612677</v>
+        <v>0.3009943294244793</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04781060090579057</v>
+        <v>0.1051154944647556</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0540970693934601</v>
+        <v>0.04507928921885995</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04766728213275285</v>
+        <v>0.1063722550127551</v>
       </c>
       <c r="J132" t="n">
-        <v>0.08704039137073019</v>
+        <v>0.07331976844605469</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04954384335931144</v>
+        <v>0.1066382265520828</v>
       </c>
       <c r="L132" t="n">
-        <v>0.2136873084413557</v>
+        <v>0.1858691421139609</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04603414434066216</v>
+        <v>0.1065862625108271</v>
       </c>
       <c r="N132" t="n">
-        <v>0.3557688175879457</v>
+        <v>0.2993515267136492</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0485350039498177</v>
+        <v>0.1067081534717973</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05536447487139272</v>
+        <v>0.04148605254695856</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04837873410488349</v>
+        <v>0.1079599006099604</v>
       </c>
       <c r="J133" t="n">
-        <v>0.08711598046688196</v>
+        <v>0.07270124317597187</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05028330370795788</v>
+        <v>0.1082298418737557</v>
       </c>
       <c r="L133" t="n">
-        <v>0.2153871174331959</v>
+        <v>0.1823485341631172</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04672122112186607</v>
+        <v>0.1081771022497946</v>
       </c>
       <c r="N133" t="n">
-        <v>0.356168697025445</v>
+        <v>0.2928020433014271</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04925940699384484</v>
+        <v>0.1083008124788391</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05863916826191821</v>
+        <v>0.04192332578975699</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04909018607701413</v>
+        <v>0.1095475462071657</v>
       </c>
       <c r="J134" t="n">
-        <v>0.08712646334225041</v>
+        <v>0.07182396215935544</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05102276405660432</v>
+        <v>0.1098214571954286</v>
       </c>
       <c r="L134" t="n">
-        <v>0.2144350132355372</v>
+        <v>0.1809350454438275</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04740829790306999</v>
+        <v>0.1097679419887622</v>
       </c>
       <c r="N134" t="n">
-        <v>0.3599116815305436</v>
+        <v>0.2921146249356388</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04998381003787197</v>
+        <v>0.1098934714858808</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05891924884746295</v>
+        <v>0.04340208939708333</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04980163804914477</v>
+        <v>0.111135191804371</v>
       </c>
       <c r="J135" t="n">
-        <v>0.08856584133268919</v>
+        <v>0.07020479487834841</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05176222440525075</v>
+        <v>0.1114130725171014</v>
       </c>
       <c r="L135" t="n">
-        <v>0.2162175197791972</v>
+        <v>0.1780713535903185</v>
       </c>
       <c r="M135" t="n">
-        <v>0.0480953746842739</v>
+        <v>0.1113587817277298</v>
       </c>
       <c r="N135" t="n">
-        <v>0.3629897017086102</v>
+        <v>0.2870580173641102</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05070821308189909</v>
+        <v>0.1114861304929226</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05420281591045328</v>
+        <v>0.04593332381876566</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05051309002127541</v>
+        <v>0.1127228374015763</v>
       </c>
       <c r="J136" t="n">
-        <v>0.08882811577405186</v>
+        <v>0.06956061081509383</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05250168475389719</v>
+        <v>0.1130046878387743</v>
       </c>
       <c r="L136" t="n">
-        <v>0.2160211609949932</v>
+        <v>0.1768001362368173</v>
       </c>
       <c r="M136" t="n">
-        <v>0.04878245146547781</v>
+        <v>0.1129496214666973</v>
       </c>
       <c r="N136" t="n">
-        <v>0.3629946881650133</v>
+        <v>0.2833009663346671</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05143261612592622</v>
+        <v>0.1130787894999643</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05748796873331558</v>
+        <v>0.04052800950463209</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05122454199340604</v>
+        <v>0.1143104829987816</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0890072880021921</v>
+        <v>0.06950827945173481</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05324114510254363</v>
+        <v>0.1145963031604472</v>
       </c>
       <c r="L137" t="n">
-        <v>0.2181324608137423</v>
+        <v>0.1761640710175509</v>
       </c>
       <c r="M137" t="n">
-        <v>0.04946952824668173</v>
+        <v>0.1145404612056649</v>
       </c>
       <c r="N137" t="n">
-        <v>0.3637185715051218</v>
+        <v>0.2819122175951355</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05215701916995336</v>
+        <v>0.1146714485070061</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05477280659847619</v>
+        <v>0.04119712690451069</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05193599396553669</v>
+        <v>0.1158981285959869</v>
       </c>
       <c r="J138" t="n">
-        <v>0.08979735935296349</v>
+        <v>0.06896467027041438</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05398060545119007</v>
+        <v>0.1161879184821201</v>
       </c>
       <c r="L138" t="n">
-        <v>0.2186379431662619</v>
+        <v>0.1744058355667461</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05015660502788564</v>
+        <v>0.1161313009446325</v>
       </c>
       <c r="N138" t="n">
-        <v>0.3666532823343043</v>
+        <v>0.2803605168933407</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05288142221398048</v>
+        <v>0.1162641075140478</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05905542878836151</v>
+        <v>0.04095165646822957</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05264744593766733</v>
+        <v>0.1174857741931922</v>
       </c>
       <c r="J139" t="n">
-        <v>0.09089233116221959</v>
+        <v>0.06854665275327558</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05472006579983651</v>
+        <v>0.1177795338037929</v>
       </c>
       <c r="L139" t="n">
-        <v>0.2196241319833694</v>
+        <v>0.17306810751863</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05084368180908955</v>
+        <v>0.1177221406836</v>
       </c>
       <c r="N139" t="n">
-        <v>0.3699907512579296</v>
+        <v>0.2777146099771091</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05360582525800761</v>
+        <v>0.1178567665210896</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05433393458539787</v>
+        <v>0.0388025786456168</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05335889790979795</v>
+        <v>0.1190734197903975</v>
       </c>
       <c r="J140" t="n">
-        <v>0.09108620476581408</v>
+        <v>0.0675710963824615</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05545952614848295</v>
+        <v>0.1193711491254658</v>
       </c>
       <c r="L140" t="n">
-        <v>0.2211775511958821</v>
+        <v>0.1713935645074295</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05153075859029346</v>
+        <v>0.1193129804225676</v>
       </c>
       <c r="N140" t="n">
-        <v>0.3714229088813664</v>
+        <v>0.2751432425942661</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05433022830203474</v>
+        <v>0.1194494255281313</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05760642327201167</v>
+        <v>0.04175998638559543</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0540703498819286</v>
+        <v>0.1206610653876028</v>
       </c>
       <c r="J141" t="n">
-        <v>0.09127298149960059</v>
+        <v>0.06805487064011517</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05619898649712939</v>
+        <v>0.1209627644471387</v>
       </c>
       <c r="L141" t="n">
-        <v>0.2239847247346173</v>
+        <v>0.1712248841673713</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05221783537149738</v>
+        <v>0.1209038201615352</v>
       </c>
       <c r="N141" t="n">
-        <v>0.3734416858099833</v>
+        <v>0.2767151604926376</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05505463134606187</v>
+        <v>0.1210420845351731</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05687099413062922</v>
+        <v>0.04477058052503141</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05478180185405925</v>
+        <v>0.1222487109848081</v>
       </c>
       <c r="J142" t="n">
-        <v>0.09174666269943263</v>
+        <v>0.06786096164711869</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05693844684577583</v>
+        <v>0.1225543797688116</v>
       </c>
       <c r="L142" t="n">
-        <v>0.2254321765303922</v>
+        <v>0.1711475087101804</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05290491215270129</v>
+        <v>0.1224946599005027</v>
       </c>
       <c r="N142" t="n">
-        <v>0.375039012649149</v>
+        <v>0.2773209051747303</v>
       </c>
       <c r="O142" t="n">
-        <v>0.055779034390089</v>
+        <v>0.1226347435422148</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05712574644367696</v>
+        <v>0.04479730584244475</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05549325382618988</v>
+        <v>0.1238363565820134</v>
       </c>
       <c r="J143" t="n">
-        <v>0.09270124970116395</v>
+        <v>0.06789445452191221</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05767790719442228</v>
+        <v>0.1241459950904845</v>
       </c>
       <c r="L143" t="n">
-        <v>0.2260064305140243</v>
+        <v>0.1722359886884319</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0535919889339052</v>
+        <v>0.1240854996394703</v>
       </c>
       <c r="N143" t="n">
-        <v>0.3775068200042324</v>
+        <v>0.2747492615908562</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05650343743411613</v>
+        <v>0.1242274025492566</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06136877949358119</v>
+        <v>0.0398393554983819</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05620470579832051</v>
+        <v>0.1254240021792187</v>
       </c>
       <c r="J144" t="n">
-        <v>0.09373074384064806</v>
+        <v>0.06795180585121778</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05841736754306872</v>
+        <v>0.1257376104121573</v>
       </c>
       <c r="L144" t="n">
-        <v>0.2269940106163308</v>
+        <v>0.1719846719421037</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05427906571510912</v>
+        <v>0.1256763393784379</v>
       </c>
       <c r="N144" t="n">
-        <v>0.375837038480602</v>
+        <v>0.2766751817231572</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05722784047814327</v>
+        <v>0.1258200615562983</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0565981925627683</v>
+        <v>0.04289592265338932</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05691615777045116</v>
+        <v>0.127011647776424</v>
       </c>
       <c r="J145" t="n">
-        <v>0.09382914645373858</v>
+        <v>0.06813177607163254</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05915682789171515</v>
+        <v>0.1273292257338302</v>
       </c>
       <c r="L145" t="n">
-        <v>0.228181440768129</v>
+        <v>0.1714904225341788</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05496614249631303</v>
+        <v>0.1272671791174054</v>
       </c>
       <c r="N145" t="n">
-        <v>0.3803215986836265</v>
+        <v>0.2779936141591254</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0579522435221704</v>
+        <v>0.1274127205633401</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05881208493366465</v>
+        <v>0.04196620046801347</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0576276097425818</v>
+        <v>0.1285992933736293</v>
       </c>
       <c r="J146" t="n">
-        <v>0.09439045887628919</v>
+        <v>0.06853312561975362</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05989628824036158</v>
+        <v>0.1289208410555031</v>
       </c>
       <c r="L146" t="n">
-        <v>0.2307552449002364</v>
+        <v>0.1729501045276402</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05565321927751694</v>
+        <v>0.128858018856373</v>
       </c>
       <c r="N146" t="n">
-        <v>0.3798524312186747</v>
+        <v>0.2771995074862523</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05867664656619753</v>
+        <v>0.1290053795703818</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06100855588869659</v>
+        <v>0.04404938210280082</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05833906171471244</v>
+        <v>0.1301869389708346</v>
       </c>
       <c r="J147" t="n">
-        <v>0.09420868244415342</v>
+        <v>0.0686546149321782</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06063574858900803</v>
+        <v>0.130512456377176</v>
       </c>
       <c r="L147" t="n">
-        <v>0.23110194694347</v>
+        <v>0.1718605819854713</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05634029605872086</v>
+        <v>0.1304488585953406</v>
       </c>
       <c r="N147" t="n">
-        <v>0.3828214666911152</v>
+        <v>0.2766878102920294</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05940104961022465</v>
+        <v>0.1305980385774236</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06118570471029053</v>
+        <v>0.04014466071829782</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05905051368684307</v>
+        <v>0.1317745845680399</v>
       </c>
       <c r="J148" t="n">
-        <v>0.09545757997601201</v>
+        <v>0.06849500444550338</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06137520893765447</v>
+        <v>0.1321040716988489</v>
       </c>
       <c r="L148" t="n">
-        <v>0.2328080708286474</v>
+        <v>0.173618718970655</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05702737283992477</v>
+        <v>0.1320396983343081</v>
       </c>
       <c r="N148" t="n">
-        <v>0.383820635706317</v>
+        <v>0.2772534711639486</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06012545265425179</v>
+        <v>0.1321906975844653</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06034163068087278</v>
+        <v>0.04325122947505095</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05976196565897372</v>
+        <v>0.1333622301652452</v>
       </c>
       <c r="J149" t="n">
-        <v>0.09582966183437983</v>
+        <v>0.0688530545963263</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06211466928630091</v>
+        <v>0.1336956870205217</v>
       </c>
       <c r="L149" t="n">
-        <v>0.2350601404865858</v>
+        <v>0.1737213795461744</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05771444962112868</v>
+        <v>0.1336305380732757</v>
       </c>
       <c r="N149" t="n">
-        <v>0.3872418688696483</v>
+        <v>0.2799914386895012</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06084985569827892</v>
+        <v>0.1337833565915071</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05647443308286973</v>
+        <v>0.04436828153360661</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06047341763110436</v>
+        <v>0.1349498757624505</v>
       </c>
       <c r="J150" t="n">
-        <v>0.09549072040369644</v>
+        <v>0.06822752582124417</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06285412963494735</v>
+        <v>0.1352873023421946</v>
       </c>
       <c r="L150" t="n">
-        <v>0.2358446798481025</v>
+        <v>0.1729654277750126</v>
       </c>
       <c r="M150" t="n">
-        <v>0.05840152640233259</v>
+        <v>0.1352213778122433</v>
       </c>
       <c r="N150" t="n">
-        <v>0.3882401421781458</v>
+        <v>0.2776966614561792</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06157425874230604</v>
+        <v>0.1353760155985488</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06260116920689208</v>
+        <v>0.04049501005451132</v>
       </c>
       <c r="G151" t="n">
-        <v>0.061184869603235</v>
+        <v>0.1365375213596558</v>
       </c>
       <c r="J151" t="n">
-        <v>0.09595934436441528</v>
+        <v>0.06891717855685404</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0635935899835938</v>
+        <v>0.1368789176638675</v>
       </c>
       <c r="L151" t="n">
-        <v>0.2386482128440148</v>
+        <v>0.1745477277201528</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0590886031835365</v>
+        <v>0.1368122175512108</v>
       </c>
       <c r="N151" t="n">
-        <v>0.3900727393050944</v>
+        <v>0.2786640880514739</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06229866178633317</v>
+        <v>0.1369686746055906</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06267168313362433</v>
+        <v>0.04363060819831152</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06189632157536563</v>
+        <v>0.1381251669568611</v>
       </c>
       <c r="J152" t="n">
-        <v>0.09653376977179573</v>
+        <v>0.06862077323975312</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06433305033224022</v>
+        <v>0.1384705329855404</v>
       </c>
       <c r="L152" t="n">
-        <v>0.2391572634051401</v>
+        <v>0.175365143444578</v>
       </c>
       <c r="M152" t="n">
-        <v>0.05977567996474042</v>
+        <v>0.1384030572901784</v>
       </c>
       <c r="N152" t="n">
-        <v>0.3905289945898476</v>
+        <v>0.2811886670628771</v>
       </c>
       <c r="O152" t="n">
-        <v>0.0630230648303603</v>
+        <v>0.1385613336126323</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0617600454583459</v>
+        <v>0.04477426912555368</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06260777354749628</v>
+        <v>0.1397128125540664</v>
       </c>
       <c r="J153" t="n">
-        <v>0.09691223268109739</v>
+        <v>0.0697370703065385</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06507251068088667</v>
+        <v>0.1400621483072132</v>
       </c>
       <c r="L153" t="n">
-        <v>0.2399583554622955</v>
+        <v>0.1750145390112714</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06046275674594433</v>
+        <v>0.139993897029146</v>
       </c>
       <c r="N153" t="n">
-        <v>0.3919464934788918</v>
+        <v>0.2813653470778806</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06374746787438743</v>
+        <v>0.1401539926196741</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06184769844202746</v>
+        <v>0.0449651316399578</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06331922551962692</v>
+        <v>0.1413004581512717</v>
       </c>
       <c r="J154" t="n">
-        <v>0.09769296914757955</v>
+        <v>0.0690895803290727</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06581197102953311</v>
+        <v>0.1416537636288861</v>
       </c>
       <c r="L154" t="n">
-        <v>0.241848861077079</v>
+        <v>0.1773702913954031</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06114983352714824</v>
+        <v>0.1415847367681136</v>
       </c>
       <c r="N154" t="n">
-        <v>0.3931161281998686</v>
+        <v>0.2834616362487301</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06447187091841455</v>
+        <v>0.1417466516267158</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06093447147240234</v>
+        <v>0.0462884447698232</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06403067749175756</v>
+        <v>0.142888103748477</v>
       </c>
       <c r="J155" t="n">
-        <v>0.09747421522650168</v>
+        <v>0.0697300901875624</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06655143137817954</v>
+        <v>0.143245378950559</v>
       </c>
       <c r="L155" t="n">
-        <v>0.2419237966488312</v>
+        <v>0.1764129495936029</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06183691030835217</v>
+        <v>0.1431755765070811</v>
       </c>
       <c r="N155" t="n">
-        <v>0.3935287909804199</v>
+        <v>0.284395055420171</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06519627396244169</v>
+        <v>0.1433393106337576</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06202019393720384</v>
+        <v>0.04572459745777235</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06474212946388819</v>
+        <v>0.1444757493456823</v>
       </c>
       <c r="J156" t="n">
-        <v>0.09795420697312315</v>
+        <v>0.07055369823625891</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06729089172682598</v>
+        <v>0.1448369942722319</v>
       </c>
       <c r="L156" t="n">
-        <v>0.2410136153285124</v>
+        <v>0.1778140180002825</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06252398708955607</v>
+        <v>0.1447664162460487</v>
       </c>
       <c r="N156" t="n">
-        <v>0.3949753740481877</v>
+        <v>0.2876850312353288</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06592067700646882</v>
+        <v>0.1449319696407993</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05710469522416525</v>
+        <v>0.04424923316807931</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06545358143601883</v>
+        <v>0.1460633949428876</v>
       </c>
       <c r="J157" t="n">
-        <v>0.09863118044270353</v>
+        <v>0.07112298504782281</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06803035207547242</v>
+        <v>0.1464286095939047</v>
       </c>
       <c r="L157" t="n">
-        <v>0.2424109795967293</v>
+        <v>0.1810788302457561</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06321106387075998</v>
+        <v>0.1463572559850163</v>
       </c>
       <c r="N157" t="n">
-        <v>0.3973467696308137</v>
+        <v>0.2887790737425945</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06664508005049595</v>
+        <v>0.1465246286478411</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05918780472101993</v>
+        <v>0.0448379953650181</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06616503340814948</v>
+        <v>0.1476510405400929</v>
       </c>
       <c r="J158" t="n">
-        <v>0.09870337169050208</v>
+        <v>0.07200053119491477</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06876981242411886</v>
+        <v>0.1480202249155776</v>
       </c>
       <c r="L158" t="n">
-        <v>0.2431142176731141</v>
+        <v>0.1841127199603372</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06389814065196391</v>
+        <v>0.1479480957239838</v>
       </c>
       <c r="N158" t="n">
-        <v>0.4000338699559398</v>
+        <v>0.2923246929903601</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06736948309452309</v>
+        <v>0.1481172876548828</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06026935181550117</v>
+        <v>0.04846652751286286</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06687648538028011</v>
+        <v>0.1492386861372982</v>
       </c>
       <c r="J159" t="n">
-        <v>0.09876901677177838</v>
+        <v>0.07364891725019546</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06950927277276531</v>
+        <v>0.1496118402372505</v>
       </c>
       <c r="L159" t="n">
-        <v>0.2446216577772984</v>
+        <v>0.1867210207743396</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06458521743316781</v>
+        <v>0.1495389354629514</v>
       </c>
       <c r="N159" t="n">
-        <v>0.4022275672512075</v>
+        <v>0.2992693990270163</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06809388613855022</v>
+        <v>0.1497099466619246</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06134916589534224</v>
+        <v>0.04711047307588757</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06758793735241075</v>
+        <v>0.1508263317345035</v>
       </c>
       <c r="J160" t="n">
-        <v>0.09962635174179177</v>
+        <v>0.07373072378632549</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07024873312141174</v>
+        <v>0.1512034555589234</v>
       </c>
       <c r="L160" t="n">
-        <v>0.2453316281289143</v>
+        <v>0.1882090663180771</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06527229421437172</v>
+        <v>0.1511297752019189</v>
       </c>
       <c r="N160" t="n">
-        <v>0.401018753744259</v>
+        <v>0.3004607019009548</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06881828918257735</v>
+        <v>0.1513026056689663</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06242707634827649</v>
+        <v>0.04474547551836634</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0682993893245414</v>
+        <v>0.1524139773317088</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0997736126558017</v>
+        <v>0.07510853137596554</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07098819347005818</v>
+        <v>0.1527950708805962</v>
       </c>
       <c r="L161" t="n">
-        <v>0.2466424569475936</v>
+        <v>0.1900821902218634</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06595937099557564</v>
+        <v>0.1527206149408865</v>
       </c>
       <c r="N161" t="n">
-        <v>0.4044983216627361</v>
+        <v>0.3061461116605672</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06954269222660447</v>
+        <v>0.1528952646760081</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05850291256203724</v>
+        <v>0.04934717830457322</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06901084129667204</v>
+        <v>0.1540016229289141</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1001090355690676</v>
+        <v>0.07604492059177628</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07172765381870462</v>
+        <v>0.1543866862022691</v>
       </c>
       <c r="L162" t="n">
-        <v>0.2473524724529681</v>
+        <v>0.1929457261160122</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06664644777677954</v>
+        <v>0.1543114546798541</v>
       </c>
       <c r="N162" t="n">
-        <v>0.4054571632342805</v>
+        <v>0.3094731383542447</v>
       </c>
       <c r="O162" t="n">
-        <v>0.0702670952706316</v>
+        <v>0.1544879236830498</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06357650392435776</v>
+        <v>0.04789122489878225</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06972229326880268</v>
+        <v>0.1555892685261194</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1001308565368489</v>
+        <v>0.07690247200641837</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07246711416735106</v>
+        <v>0.155978301523942</v>
       </c>
       <c r="L163" t="n">
-        <v>0.2464600028646698</v>
+        <v>0.1945050076308373</v>
       </c>
       <c r="M163" t="n">
-        <v>0.06733352455798347</v>
+        <v>0.1559022944188217</v>
       </c>
       <c r="N163" t="n">
-        <v>0.4057861706865339</v>
+        <v>0.3127892920303787</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07099149831465873</v>
+        <v>0.1560805826900916</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05964767982297138</v>
+        <v>0.04636155637665511</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07043374524093331</v>
+        <v>0.1571769141233247</v>
       </c>
       <c r="J164" t="n">
-        <v>0.100537311614405</v>
+        <v>0.07784599843563128</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07320657451599751</v>
+        <v>0.1575699168456149</v>
       </c>
       <c r="L164" t="n">
-        <v>0.2496633764023306</v>
+        <v>0.1956744500652976</v>
       </c>
       <c r="M164" t="n">
-        <v>0.06802060133918737</v>
+        <v>0.1574931341577892</v>
       </c>
       <c r="N164" t="n">
-        <v>0.4080762362471386</v>
+        <v>0.315245829598683</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07171590135868586</v>
+        <v>0.1576732416971333</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06071626964561141</v>
+        <v>0.04780785910640942</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07114519721306395</v>
+        <v>0.15876455972053</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1015266368569955</v>
+        <v>0.07833245724311377</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07394603486464395</v>
+        <v>0.1591615321672878</v>
       </c>
       <c r="L165" t="n">
-        <v>0.2481609212855823</v>
+        <v>0.1984106988602864</v>
       </c>
       <c r="M165" t="n">
-        <v>0.06870767812039129</v>
+        <v>0.1590839738967568</v>
       </c>
       <c r="N165" t="n">
-        <v>0.410218252143736</v>
+        <v>0.3197441455138058</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07244030440271298</v>
+        <v>0.1592659007041751</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05778210278001118</v>
+        <v>0.04924357216300111</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07185664918519459</v>
+        <v>0.1603522053177353</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1012970683198796</v>
+        <v>0.07940239439510074</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07468549521329038</v>
+        <v>0.1607531474889607</v>
       </c>
       <c r="L166" t="n">
-        <v>0.2489509657340569</v>
+        <v>0.1994052745466346</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0693947549015952</v>
+        <v>0.1606748136357244</v>
       </c>
       <c r="N166" t="n">
-        <v>0.411103110603968</v>
+        <v>0.322374863417104</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07316470744674013</v>
+        <v>0.1608585597112168</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05984500861390397</v>
+        <v>0.04966946820905131</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07256810115732523</v>
+        <v>0.1619398509149406</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1012468420583168</v>
+        <v>0.08015699694845163</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0754249555619368</v>
+        <v>0.1623447628106335</v>
       </c>
       <c r="L167" t="n">
-        <v>0.2502318379673862</v>
+        <v>0.2014611802265138</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07008183168279911</v>
+        <v>0.1622656533746919</v>
       </c>
       <c r="N167" t="n">
-        <v>0.4139217038554766</v>
+        <v>0.3253428207488047</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07388911049076725</v>
+        <v>0.1624512187182586</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.06390481653502311</v>
+        <v>0.04908631990718114</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07327955312945586</v>
+        <v>0.1635274965121459</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1022741941275666</v>
+        <v>0.07989745196002618</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07616441591058325</v>
+        <v>0.1639363781323064</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2518018662052021</v>
+        <v>0.2031814190020959</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07076890846400304</v>
+        <v>0.1638564931136595</v>
       </c>
       <c r="N168" t="n">
-        <v>0.4166649241259036</v>
+        <v>0.3259528549491342</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07461351353479438</v>
+        <v>0.1640438777253003</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0599613559311019</v>
+        <v>0.05049489992001174</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07399100510158652</v>
+        <v>0.1651151421093512</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1017773605828883</v>
+        <v>0.08052494648668387</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07690387625922969</v>
+        <v>0.1655279934539793</v>
       </c>
       <c r="L169" t="n">
-        <v>0.2526593786671365</v>
+        <v>0.2042689939755526</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07145598524520694</v>
+        <v>0.1654473328526271</v>
       </c>
       <c r="N169" t="n">
-        <v>0.4161236636428906</v>
+        <v>0.3299098034583196</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07533791657882151</v>
+        <v>0.1656365367323421</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.06101445618987367</v>
+        <v>0.05089598091016424</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07470245707371716</v>
+        <v>0.1667027877065566</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1020545774795415</v>
+        <v>0.08194066758528437</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07764333660787613</v>
+        <v>0.1671196087756522</v>
       </c>
       <c r="L170" t="n">
-        <v>0.2536027035728212</v>
+        <v>0.2070269082490556</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07214306202641085</v>
+        <v>0.1670381725915946</v>
       </c>
       <c r="N170" t="n">
-        <v>0.4168888146340796</v>
+        <v>0.3310185037165876</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07606231962284864</v>
+        <v>0.1672291957393839</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.06206394669907168</v>
+        <v>0.05329033554025975</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07541390904584779</v>
+        <v>0.1682904333037618</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1021040808727855</v>
+        <v>0.08194580231268717</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07838279695652257</v>
+        <v>0.168711224097325</v>
       </c>
       <c r="L171" t="n">
-        <v>0.2538301691418883</v>
+        <v>0.2077581649247768</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07283013880761477</v>
+        <v>0.1686290123305622</v>
       </c>
       <c r="N171" t="n">
-        <v>0.4197512693271123</v>
+        <v>0.335583793164165</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07678672266687576</v>
+        <v>0.1688218547464256</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0621096568464293</v>
+        <v>0.05067873647291943</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07612536101797843</v>
+        <v>0.1698780789009671</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1021241068178798</v>
+        <v>0.08274153772575191</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07912225730516902</v>
+        <v>0.1703028394189979</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2555401035939695</v>
+        <v>0.2088657671048877</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07351721558881867</v>
+        <v>0.1702198520695298</v>
       </c>
       <c r="N172" t="n">
-        <v>0.4205019199496307</v>
+        <v>0.3366105092412786</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07751112571090291</v>
+        <v>0.1704145137534673</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.06215141601967981</v>
+        <v>0.05506195637076437</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07683681299010907</v>
+        <v>0.1714657244981724</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1026128913700837</v>
+        <v>0.08372906088133819</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07986171765381546</v>
+        <v>0.1718944547406708</v>
       </c>
       <c r="L173" t="n">
-        <v>0.2551308351486966</v>
+        <v>0.2112527178915601</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07420429237002259</v>
+        <v>0.1718106918084973</v>
       </c>
       <c r="N173" t="n">
-        <v>0.4222316587292766</v>
+        <v>0.3385034893881552</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07823552875493003</v>
+        <v>0.1720071727605091</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.05818905360655652</v>
+        <v>0.04944076789641574</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07754826496223971</v>
+        <v>0.1730533700953777</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1021686705846568</v>
+        <v>0.08370955883630551</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0806011780024619</v>
+        <v>0.1734860700623437</v>
       </c>
       <c r="L174" t="n">
-        <v>0.2571006920257018</v>
+        <v>0.2128220203869658</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0748913691512265</v>
+        <v>0.1734015315474649</v>
       </c>
       <c r="N174" t="n">
-        <v>0.4198313778936918</v>
+        <v>0.3395675710450214</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07895993179895716</v>
+        <v>0.1735998317675508</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.06322239899479275</v>
+        <v>0.05081594371249466</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07825971693437035</v>
+        <v>0.174641015692583</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1026896805168585</v>
+        <v>0.08428421864751356</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08134063835110833</v>
+        <v>0.1750776853840165</v>
       </c>
       <c r="L175" t="n">
-        <v>0.2572480024446169</v>
+        <v>0.2141766776932766</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07557844593243042</v>
+        <v>0.1749923712864325</v>
       </c>
       <c r="N175" t="n">
-        <v>0.4208919696705181</v>
+        <v>0.3453075916521044</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07968433484298429</v>
+        <v>0.1751924907745926</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.05925128157212178</v>
+        <v>0.05019886964606972</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07897116890650098</v>
+        <v>0.1762286612897883</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1028708083057779</v>
+        <v>0.08476315234574622</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08208009869975477</v>
+        <v>0.1766693007056894</v>
       </c>
       <c r="L176" t="n">
-        <v>0.2568710946250735</v>
+        <v>0.2157455162619707</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07626552271363433</v>
+        <v>0.1765832110254001</v>
       </c>
       <c r="N176" t="n">
-        <v>0.4239043262873974</v>
+        <v>0.347858243951887</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08040873788701142</v>
+        <v>0.1767851497816343</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.06027553072627696</v>
+        <v>0.05360320101041133</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07968262087863162</v>
+        <v>0.1778163068869937</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1024079712002383</v>
+        <v>0.08527560772657741</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08281955904840121</v>
+        <v>0.1782609160273623</v>
       </c>
       <c r="L177" t="n">
-        <v>0.2568682967867039</v>
+        <v>0.2162994411040347</v>
       </c>
       <c r="M177" t="n">
-        <v>0.07695259949483824</v>
+        <v>0.1781740507643676</v>
       </c>
       <c r="N177" t="n">
-        <v>0.4211593399719715</v>
+        <v>0.3471441417079272</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08113314093103856</v>
+        <v>0.1783778087886761</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0592949758449916</v>
+        <v>0.05501627133762185</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08039407285076228</v>
+        <v>0.1794039524841989</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1029030789902638</v>
+        <v>0.08640588024193899</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08355901939704764</v>
+        <v>0.1798525313490352</v>
       </c>
       <c r="L178" t="n">
-        <v>0.2575379371491396</v>
+        <v>0.2192962748828906</v>
       </c>
       <c r="M178" t="n">
-        <v>0.07763967627604215</v>
+        <v>0.1797648905033352</v>
       </c>
       <c r="N178" t="n">
-        <v>0.422247902951882</v>
+        <v>0.3518073370813762</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08185754397506569</v>
+        <v>0.1799704677957178</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.05930944631599898</v>
+        <v>0.05542480764663721</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0811055248228929</v>
+        <v>0.1809915980814042</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1020580731333691</v>
+        <v>0.0872335783486291</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08429847974569409</v>
+        <v>0.181444146670708</v>
       </c>
       <c r="L179" t="n">
-        <v>0.2589783439320128</v>
+        <v>0.2198844295998842</v>
       </c>
       <c r="M179" t="n">
-        <v>0.07832675305724607</v>
+        <v>0.1813557302423028</v>
       </c>
       <c r="N179" t="n">
-        <v>0.4238321069953012</v>
+        <v>0.3529647313810677</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08258194701909281</v>
+        <v>0.1815631268027596</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.05931877152703242</v>
+        <v>0.05181553695639336</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08181697679502353</v>
+        <v>0.1825792436786095</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1022748950870692</v>
+        <v>0.08773831050344583</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08503794009434053</v>
+        <v>0.1830357619923809</v>
       </c>
       <c r="L180" t="n">
-        <v>0.2581878453549552</v>
+        <v>0.2213123172563611</v>
       </c>
       <c r="M180" t="n">
-        <v>0.07901382983844998</v>
+        <v>0.1829465699812703</v>
       </c>
       <c r="N180" t="n">
-        <v>0.4199862050147622</v>
+        <v>0.3548332259158358</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08330635006311994</v>
+        <v>0.1831557858098014</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.05832278086582525</v>
+        <v>0.05717518628582619</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08252842876715419</v>
+        <v>0.1841668892758148</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1022554863088787</v>
+        <v>0.08839968516318725</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08577740044298697</v>
+        <v>0.1846273773140538</v>
       </c>
       <c r="L181" t="n">
-        <v>0.2589647696375987</v>
+        <v>0.2234283498536675</v>
       </c>
       <c r="M181" t="n">
-        <v>0.0797009066196539</v>
+        <v>0.1845374097202379</v>
       </c>
       <c r="N181" t="n">
-        <v>0.4208218997081883</v>
+        <v>0.3601297219945145</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08403075310714707</v>
+        <v>0.1847484448168431</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.06231684124497663</v>
+        <v>0.05849048265387162</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08323988073928483</v>
+        <v>0.1857545348730201</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1018017882563126</v>
+        <v>0.08889731078465149</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0865168607916334</v>
+        <v>0.1862189926357267</v>
       </c>
       <c r="L182" t="n">
-        <v>0.2606074449995753</v>
+        <v>0.2253809393931489</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0803879834008578</v>
+        <v>0.1861282494592054</v>
       </c>
       <c r="N182" t="n">
-        <v>0.4193508994489226</v>
+        <v>0.3591711209259379</v>
       </c>
       <c r="O182" t="n">
-        <v>0.0847551561511742</v>
+        <v>0.1863411038238849</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.06429101640681278</v>
+        <v>0.05274815307946558</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08395133271141546</v>
+        <v>0.1873421804702254</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1014157423868856</v>
+        <v>0.08941079582463671</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08725632114027984</v>
+        <v>0.1878106079573996</v>
       </c>
       <c r="L183" t="n">
-        <v>0.2614141996605168</v>
+        <v>0.2265184978761513</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08107506018206172</v>
+        <v>0.187719089198173</v>
       </c>
       <c r="N183" t="n">
-        <v>0.4206849126103087</v>
+        <v>0.3626743240189399</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08547955919520132</v>
+        <v>0.1879337628309266</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.05824586769972141</v>
+        <v>0.05793505348392899</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0846627846835461</v>
+        <v>0.1889298260674307</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1009992901581127</v>
+        <v>0.08941974873994094</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08799578148892628</v>
+        <v>0.1894022232790724</v>
       </c>
       <c r="L184" t="n">
-        <v>0.2621833618400552</v>
+        <v>0.2261894373040202</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08176213696326563</v>
+        <v>0.1893099289371406</v>
       </c>
       <c r="N184" t="n">
-        <v>0.4176356475656898</v>
+        <v>0.3649562325823545</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08620396223922845</v>
+        <v>0.1895264218379683</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.05818238872066203</v>
+        <v>0.0550849534605736</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08537423665567674</v>
+        <v>0.190517471664636</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1003543730275085</v>
+        <v>0.08985109647177839</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08873524183757273</v>
+        <v>0.1909938386007453</v>
       </c>
       <c r="L185" t="n">
-        <v>0.2615132597578221</v>
+        <v>0.2259733329915265</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08244921374446955</v>
+        <v>0.1909007686761082</v>
       </c>
       <c r="N185" t="n">
-        <v>0.4174148126884097</v>
+        <v>0.3645031709570459</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08692836528325558</v>
+        <v>0.1911190808450101</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.05810157306659412</v>
+        <v>0.05923169645844112</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08608568862780738</v>
+        <v>0.1921051172618413</v>
       </c>
       <c r="J186" t="n">
-        <v>0.100382932452588</v>
+        <v>0.09027637057596744</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08947470218621917</v>
+        <v>0.1925854539224182</v>
       </c>
       <c r="L186" t="n">
-        <v>0.2612022216334497</v>
+        <v>0.2285433325408382</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08313629052567345</v>
+        <v>0.1924916084150757</v>
       </c>
       <c r="N186" t="n">
-        <v>0.4149341163518117</v>
+        <v>0.3666210128601443</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08765276832728272</v>
+        <v>0.1927117398520519</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.05800441433447717</v>
+        <v>0.05337523363116513</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08679714059993802</v>
+        <v>0.1936927628590467</v>
       </c>
       <c r="J187" t="n">
-        <v>0.09968690989086593</v>
+        <v>0.0898967463909793</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09021416253486561</v>
+        <v>0.1941770692440911</v>
       </c>
       <c r="L187" t="n">
-        <v>0.2607485756865697</v>
+        <v>0.2289009267834126</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08382336730687738</v>
+        <v>0.1940824481540433</v>
       </c>
       <c r="N187" t="n">
-        <v>0.4124052669292393</v>
+        <v>0.3650189221898331</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08837717137130985</v>
+        <v>0.1943043988590936</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.06389190612127071</v>
+        <v>0.05951551613237926</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08750859257206865</v>
+        <v>0.1952804084562519</v>
       </c>
       <c r="J188" t="n">
-        <v>0.09986824679985717</v>
+        <v>0.09031214887317562</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09095362288351205</v>
+        <v>0.195768684565764</v>
       </c>
       <c r="L188" t="n">
-        <v>0.2633506501368141</v>
+        <v>0.229745925868434</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08451044408808128</v>
+        <v>0.1956732878930109</v>
       </c>
       <c r="N188" t="n">
-        <v>0.4105399727940356</v>
+        <v>0.3686965931316841</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08910157441533699</v>
+        <v>0.1958970578661353</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.05876504202393422</v>
+        <v>0.05965249511571716</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08822004454419929</v>
+        <v>0.1968680540534572</v>
       </c>
       <c r="J189" t="n">
-        <v>0.09952888463707643</v>
+        <v>0.09022250297891818</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09169308323215848</v>
+        <v>0.1973602998874368</v>
       </c>
       <c r="L189" t="n">
-        <v>0.2628067732038148</v>
+        <v>0.2301781399450867</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08519752086928518</v>
+        <v>0.1972641276319784</v>
       </c>
       <c r="N189" t="n">
-        <v>0.4118499423195447</v>
+        <v>0.3660537198712695</v>
       </c>
       <c r="O189" t="n">
-        <v>0.08982597745936412</v>
+        <v>0.1974897168731771</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0576248156394272</v>
+        <v>0.05778612173481243</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08893149651632995</v>
+        <v>0.1984556996506625</v>
       </c>
       <c r="J190" t="n">
-        <v>0.09857076486003868</v>
+        <v>0.09042773366456863</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09243254358080492</v>
+        <v>0.1989519152091097</v>
       </c>
       <c r="L190" t="n">
-        <v>0.2636152731072037</v>
+        <v>0.2286973791625548</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08588459765048911</v>
+        <v>0.198854967370946</v>
       </c>
       <c r="N190" t="n">
-        <v>0.4086468838791094</v>
+        <v>0.369789996594161</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09055038050339125</v>
+        <v>0.1990823758802188</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.06247222056470919</v>
+        <v>0.05591634714329868</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08964294848846058</v>
+        <v>0.2000433452478678</v>
       </c>
       <c r="J191" t="n">
-        <v>0.09789582892625864</v>
+        <v>0.09112776588648858</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09317200392945135</v>
+        <v>0.2005435305307826</v>
       </c>
       <c r="L191" t="n">
-        <v>0.2619744780666124</v>
+        <v>0.2307034536700225</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08657167443169302</v>
+        <v>0.2004458071099136</v>
       </c>
       <c r="N191" t="n">
-        <v>0.4067425058460736</v>
+        <v>0.3705051174859302</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09127478354741837</v>
+        <v>0.2006750348872606</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.06330825039673965</v>
+        <v>0.05604312249480958</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09035440046059122</v>
+        <v>0.2016309908450731</v>
       </c>
       <c r="J192" t="n">
-        <v>0.09810601829325119</v>
+        <v>0.09092252460103986</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09391146427809779</v>
+        <v>0.2021351458524555</v>
       </c>
       <c r="L192" t="n">
-        <v>0.2627710723834319</v>
+        <v>0.2318961736166741</v>
       </c>
       <c r="M192" t="n">
-        <v>0.08725875121289695</v>
+        <v>0.2020366468488811</v>
       </c>
       <c r="N192" t="n">
-        <v>0.4059485165937803</v>
+        <v>0.3692987767321493</v>
       </c>
       <c r="O192" t="n">
-        <v>0.0919991865914455</v>
+        <v>0.2022676938943024</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.05813389873247807</v>
+        <v>0.05916639894297872</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09106585243272186</v>
+        <v>0.2032186364422784</v>
       </c>
       <c r="J193" t="n">
-        <v>0.09730327441853112</v>
+        <v>0.09151193476458408</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09465092462674424</v>
+        <v>0.2037267611741283</v>
       </c>
       <c r="L193" t="n">
-        <v>0.2624630571021205</v>
+        <v>0.2303753491516937</v>
       </c>
       <c r="M193" t="n">
-        <v>0.08794582799410085</v>
+        <v>0.2036274865878487</v>
       </c>
       <c r="N193" t="n">
-        <v>0.4002766244955735</v>
+        <v>0.3691706685183899</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09272358963547263</v>
+        <v>0.2038603529013441</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.05795015916888398</v>
+        <v>0.05628612764143973</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0917773044048525</v>
+        <v>0.2048062820394837</v>
       </c>
       <c r="J194" t="n">
-        <v>0.09708953875961329</v>
+        <v>0.09129592133348299</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09539038497539068</v>
+        <v>0.2053183764958012</v>
       </c>
       <c r="L194" t="n">
-        <v>0.2608221749721067</v>
+        <v>0.2314407904242655</v>
       </c>
       <c r="M194" t="n">
-        <v>0.08863290477530476</v>
+        <v>0.2052183263268163</v>
       </c>
       <c r="N194" t="n">
-        <v>0.398538537924796</v>
+        <v>0.372220487030224</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09344799267949976</v>
+        <v>0.2054530119083859</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.05775802530291689</v>
+        <v>0.05540225974382622</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09248875637698313</v>
+        <v>0.206393927636689</v>
       </c>
       <c r="J195" t="n">
-        <v>0.09586675277401244</v>
+        <v>0.09127440926409819</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09612984532403712</v>
+        <v>0.2069099918174741</v>
       </c>
       <c r="L195" t="n">
-        <v>0.2610653827933598</v>
+        <v>0.232692307583574</v>
       </c>
       <c r="M195" t="n">
-        <v>0.08931998155650868</v>
+        <v>0.2068091660657838</v>
       </c>
       <c r="N195" t="n">
-        <v>0.3984459652547919</v>
+        <v>0.3725479264532232</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09417239572352688</v>
+        <v>0.2070456709154276</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.06255849073153628</v>
+        <v>0.05651474640377184</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09320020834911377</v>
+        <v>0.2079815732338944</v>
       </c>
       <c r="J196" t="n">
-        <v>0.09513685791924348</v>
+        <v>0.09214732351279148</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09686930567268356</v>
+        <v>0.208501607139147</v>
       </c>
       <c r="L196" t="n">
-        <v>0.2603096373658489</v>
+        <v>0.2323297107788032</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09000705833771258</v>
+        <v>0.2084000058047514</v>
       </c>
       <c r="N196" t="n">
-        <v>0.3965106148589041</v>
+        <v>0.3738526809729596</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09489679876755401</v>
+        <v>0.2086383299224694</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.05935254905170166</v>
+        <v>0.05862353877491019</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09391166032124441</v>
+        <v>0.2095692188310997</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0951017956528212</v>
+        <v>0.09221458903592447</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09760876602132999</v>
+        <v>0.2100932224608199</v>
       </c>
       <c r="L197" t="n">
-        <v>0.2580718954895431</v>
+        <v>0.2331528101591373</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09069413511891651</v>
+        <v>0.209990845543719</v>
       </c>
       <c r="N197" t="n">
-        <v>0.3905441951104764</v>
+        <v>0.3733344447750048</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09562120181158114</v>
+        <v>0.2102309889295111</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0581411938603725</v>
+        <v>0.05472858801087493</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09462311229337506</v>
+        <v>0.2111568644283049</v>
       </c>
       <c r="J198" t="n">
-        <v>0.09466350743226049</v>
+        <v>0.09207613078985893</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09834822636997644</v>
+        <v>0.2116848377824927</v>
       </c>
       <c r="L198" t="n">
-        <v>0.258369113964412</v>
+        <v>0.2332614158737606</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09138121190012041</v>
+        <v>0.2115816852826865</v>
       </c>
       <c r="N198" t="n">
-        <v>0.388958414382852</v>
+        <v>0.3759929120449308</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09634560485560828</v>
+        <v>0.2118236479365528</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.06092541875450837</v>
+        <v>0.05682984526529965</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0953345642655057</v>
+        <v>0.2127445100255103</v>
       </c>
       <c r="J199" t="n">
-        <v>0.09442393471507601</v>
+        <v>0.09183187373095647</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09908768671862288</v>
+        <v>0.2132764531041656</v>
       </c>
       <c r="L199" t="n">
-        <v>0.2555182495904242</v>
+        <v>0.2328553380718572</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09206828868132433</v>
+        <v>0.2131725250216541</v>
       </c>
       <c r="N199" t="n">
-        <v>0.3870649810493745</v>
+        <v>0.3747277769683097</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09707000789963541</v>
+        <v>0.2134163069435946</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.05770621733106872</v>
+        <v>0.05592726169181798</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09604601623763633</v>
+        <v>0.2143321556227155</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0931850189587827</v>
+        <v>0.09248174281557889</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09982714706726932</v>
+        <v>0.2148680684258385</v>
       </c>
       <c r="L200" t="n">
-        <v>0.2542362591675494</v>
+        <v>0.2344343869026115</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09275536546252824</v>
+        <v>0.2147633647606217</v>
       </c>
       <c r="N200" t="n">
-        <v>0.3843756034833875</v>
+        <v>0.3766387337307127</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09779441094366254</v>
+        <v>0.2150089659506364</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.05848458318701304</v>
+        <v>0.06002078844406356</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09675746820976698</v>
+        <v>0.2159198012199209</v>
       </c>
       <c r="J201" t="n">
-        <v>0.09324870162089541</v>
+        <v>0.09242566300008781</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1005666074159158</v>
+        <v>0.2164596837475114</v>
       </c>
       <c r="L201" t="n">
-        <v>0.2538400994957564</v>
+        <v>0.2341983725152075</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09344244224373215</v>
+        <v>0.2163542044995893</v>
       </c>
       <c r="N201" t="n">
-        <v>0.381601990058234</v>
+        <v>0.3750254765177122</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09851881398768968</v>
+        <v>0.2166016249576781</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.05826150991930086</v>
+        <v>0.06111037667567</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09746892018189762</v>
+        <v>0.2175074468171261</v>
       </c>
       <c r="J202" t="n">
-        <v>0.0925169241589289</v>
+        <v>0.09296355924084493</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1013060677645622</v>
+        <v>0.2180512990691842</v>
       </c>
       <c r="L202" t="n">
-        <v>0.2525467273750145</v>
+        <v>0.2355471050588296</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09412951902493606</v>
+        <v>0.2179450442385568</v>
       </c>
       <c r="N202" t="n">
-        <v>0.3797558491472577</v>
+        <v>0.3786876995148798</v>
       </c>
       <c r="O202" t="n">
-        <v>0.0992432170317168</v>
+        <v>0.2181942839647199</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.06003799112489168</v>
+        <v>0.0551959775402709</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09818037215402825</v>
+        <v>0.2190950924143314</v>
       </c>
       <c r="J203" t="n">
-        <v>0.09149162803039798</v>
+        <v>0.09329535649421192</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1020455281132086</v>
+        <v>0.2196429143908571</v>
       </c>
       <c r="L203" t="n">
-        <v>0.249773099605293</v>
+        <v>0.235280394682662</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09481659580613998</v>
+        <v>0.2195358839775244</v>
       </c>
       <c r="N203" t="n">
-        <v>0.3779488891238023</v>
+        <v>0.3773250969077874</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09996762007574393</v>
+        <v>0.2197869429717616</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.054815020400745</v>
+        <v>0.06027754219149994</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09889182412615889</v>
+        <v>0.2206827380115367</v>
       </c>
       <c r="J204" t="n">
-        <v>0.09147475469281752</v>
+        <v>0.09262097971655056</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1027849884618551</v>
+        <v>0.22123452971253</v>
       </c>
       <c r="L204" t="n">
-        <v>0.2481361729865609</v>
+        <v>0.2348980515358889</v>
       </c>
       <c r="M204" t="n">
-        <v>0.09550367258734389</v>
+        <v>0.2211267237164919</v>
       </c>
       <c r="N204" t="n">
-        <v>0.3740928183612106</v>
+        <v>0.3782373628820068</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1006920231197711</v>
+        <v>0.2213796019788034</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.05759359134382029</v>
+        <v>0.05635502178299071</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09960327609828953</v>
+        <v>0.222270383608742</v>
       </c>
       <c r="J205" t="n">
-        <v>0.09086824560370232</v>
+        <v>0.09334035386422246</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1035244488105015</v>
+        <v>0.2228261450342029</v>
       </c>
       <c r="L205" t="n">
-        <v>0.2468529043187875</v>
+        <v>0.2357998857676944</v>
       </c>
       <c r="M205" t="n">
-        <v>0.0961907493685478</v>
+        <v>0.2227175634554595</v>
       </c>
       <c r="N205" t="n">
-        <v>0.3715993452328266</v>
+        <v>0.3766241916231097</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1014164261637982</v>
+        <v>0.2229722609858451</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0573746975510771</v>
+        <v>0.05642836746837683</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1003147280704202</v>
+        <v>0.2238580292059474</v>
       </c>
       <c r="J206" t="n">
-        <v>0.09067404222056721</v>
+        <v>0.09315340389358934</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1042639091591479</v>
+        <v>0.2244177603558758</v>
       </c>
       <c r="L206" t="n">
-        <v>0.244640250401942</v>
+        <v>0.2353857075272628</v>
       </c>
       <c r="M206" t="n">
-        <v>0.09687782614975171</v>
+        <v>0.2243084031944271</v>
       </c>
       <c r="N206" t="n">
-        <v>0.3721801781119936</v>
+        <v>0.3803852773166684</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1021408292078253</v>
+        <v>0.2245649199928869</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.05615933261947491</v>
+        <v>0.06049753040129192</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1010261800425508</v>
+        <v>0.2254456748031526</v>
       </c>
       <c r="J207" t="n">
-        <v>0.08959408600092703</v>
+        <v>0.0932600547610129</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1050033695077944</v>
+        <v>0.2260093756775486</v>
       </c>
       <c r="L207" t="n">
-        <v>0.2437151680359934</v>
+        <v>0.2371553269637783</v>
       </c>
       <c r="M207" t="n">
-        <v>0.09756490293095563</v>
+        <v>0.2258992429333946</v>
       </c>
       <c r="N207" t="n">
-        <v>0.3689470253720551</v>
+        <v>0.3781203141482544</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1028652322518524</v>
+        <v>0.2261575789999286</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0559484901459732</v>
+        <v>0.05556246173536963</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1017376320146814</v>
+        <v>0.227033320400358</v>
       </c>
       <c r="J208" t="n">
-        <v>0.08893031840229654</v>
+        <v>0.09316023142285487</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1057428298564408</v>
+        <v>0.2276009909992215</v>
       </c>
       <c r="L208" t="n">
-        <v>0.2399946140209111</v>
+        <v>0.2365085542264252</v>
       </c>
       <c r="M208" t="n">
-        <v>0.09825197971215954</v>
+        <v>0.2274900826723622</v>
       </c>
       <c r="N208" t="n">
-        <v>0.3668115953863543</v>
+        <v>0.3800289963034395</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1035896352958796</v>
+        <v>0.2277502380069704</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.05674316372753151</v>
+        <v>0.05562311262424356</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1024490839868121</v>
+        <v>0.2286209659975632</v>
       </c>
       <c r="J209" t="n">
-        <v>0.08918468088219067</v>
+        <v>0.09345385883547688</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1064822902050873</v>
+        <v>0.2291926063208944</v>
       </c>
       <c r="L209" t="n">
-        <v>0.2376955451566641</v>
+        <v>0.2378451994643877</v>
       </c>
       <c r="M209" t="n">
-        <v>0.09893905649336346</v>
+        <v>0.2290809224113298</v>
       </c>
       <c r="N209" t="n">
-        <v>0.3631855965282347</v>
+        <v>0.3799110179677957</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1043140383399067</v>
+        <v>0.2293428970140121</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0555443469611093</v>
+        <v>0.05667943422154736</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1031605359589427</v>
+        <v>0.2302086115947686</v>
       </c>
       <c r="J210" t="n">
-        <v>0.08834947497344456</v>
+        <v>0.09354086195524064</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1072217505537337</v>
+        <v>0.2307842216425672</v>
       </c>
       <c r="L210" t="n">
-        <v>0.2373349182432218</v>
+        <v>0.23776507282685</v>
       </c>
       <c r="M210" t="n">
-        <v>0.09962613327456736</v>
+        <v>0.2306717621502974</v>
       </c>
       <c r="N210" t="n">
-        <v>0.3624807371710401</v>
+        <v>0.3798660733268945</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1050384413839338</v>
+        <v>0.2309355560210539</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0593530334436661</v>
+        <v>0.05873137768091462</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1038719879310734</v>
+        <v>0.2317962571919738</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0876128879014865</v>
+        <v>0.09392116573850789</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1079612109023801</v>
+        <v>0.2323758369642401</v>
       </c>
       <c r="L211" t="n">
-        <v>0.2361296900805532</v>
+        <v>0.2362679844629962</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1003132100557713</v>
+        <v>0.2322626018892649</v>
       </c>
       <c r="N211" t="n">
-        <v>0.3628087256881135</v>
+        <v>0.3810938565663084</v>
       </c>
       <c r="O211" t="n">
-        <v>0.105762844427961</v>
+        <v>0.2325282150280956</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.05917021677216142</v>
+        <v>0.05777889415597899</v>
       </c>
       <c r="G212" t="n">
-        <v>0.104583439903204</v>
+        <v>0.2333839027891791</v>
       </c>
       <c r="J212" t="n">
-        <v>0.08757486302770964</v>
+        <v>0.09349469514164027</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1087006712510266</v>
+        <v>0.233967452285913</v>
       </c>
       <c r="L212" t="n">
-        <v>0.2328968174686274</v>
+        <v>0.2364537445220107</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1010002868369752</v>
+        <v>0.2338534416282325</v>
       </c>
       <c r="N212" t="n">
-        <v>0.3595797580582299</v>
+        <v>0.3828940618716087</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1064872474719881</v>
+        <v>0.2341208740351374</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.05699689054355472</v>
+        <v>0.05782193480037408</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1052948918753347</v>
+        <v>0.2349715483863845</v>
       </c>
       <c r="J213" t="n">
-        <v>0.08723539489156762</v>
+        <v>0.09336137512099948</v>
       </c>
       <c r="K213" t="n">
-        <v>0.109440131599673</v>
+        <v>0.2355590676075859</v>
       </c>
       <c r="L213" t="n">
-        <v>0.2308532572074138</v>
+        <v>0.2365221631530775</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1016873636181791</v>
+        <v>0.2354442813672001</v>
       </c>
       <c r="N213" t="n">
-        <v>0.3581103934919072</v>
+        <v>0.3802663834283674</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1072116505160152</v>
+        <v>0.2357135330421791</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.05883404835480553</v>
+        <v>0.06186045076773353</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1060063438474653</v>
+        <v>0.2365591939835897</v>
       </c>
       <c r="J214" t="n">
-        <v>0.08689447803251413</v>
+        <v>0.09382113063294725</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1101795919483195</v>
+        <v>0.2371506829292588</v>
       </c>
       <c r="L214" t="n">
-        <v>0.2296159660968814</v>
+        <v>0.238673050505381</v>
       </c>
       <c r="M214" t="n">
-        <v>0.102374440399383</v>
+        <v>0.2370351211061676</v>
       </c>
       <c r="N214" t="n">
-        <v>0.3562475501815313</v>
+        <v>0.3821105154221565</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1079360535600423</v>
+        <v>0.2373061920492209</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.05468094577463904</v>
+        <v>0.06189439321169093</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1067177958195959</v>
+        <v>0.238146839580795</v>
       </c>
       <c r="J215" t="n">
-        <v>0.08615210699000284</v>
+        <v>0.09437388663384524</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1109190522969659</v>
+        <v>0.2387422982509317</v>
       </c>
       <c r="L215" t="n">
-        <v>0.2292019009369996</v>
+        <v>0.2389062167281056</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1030615171805869</v>
+        <v>0.2386259608451352</v>
       </c>
       <c r="N215" t="n">
-        <v>0.3535914928284992</v>
+        <v>0.3834261520385474</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1086604566040695</v>
+        <v>0.2388988510562626</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.05852946073178762</v>
+        <v>0.06192371328587995</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1074292477917266</v>
+        <v>0.2397344851780003</v>
       </c>
       <c r="J216" t="n">
-        <v>0.08610827630348727</v>
+        <v>0.09371956808005516</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1116585126456123</v>
+        <v>0.2403339135726045</v>
       </c>
       <c r="L216" t="n">
-        <v>0.2275280185277374</v>
+        <v>0.236821471970435</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1037485939617909</v>
+        <v>0.2402168005841027</v>
       </c>
       <c r="N216" t="n">
-        <v>0.3524424861342075</v>
+        <v>0.3832129874631123</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1093848596480966</v>
+        <v>0.2404915100633044</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.05737843294705816</v>
+        <v>0.06094836214393416</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1081406997638572</v>
+        <v>0.2413221307752057</v>
       </c>
       <c r="J217" t="n">
-        <v>0.08546298051242116</v>
+        <v>0.09425809992793874</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1123979729942588</v>
+        <v>0.2419255288942774</v>
       </c>
       <c r="L217" t="n">
-        <v>0.2276112756690639</v>
+        <v>0.2386186263815539</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1044356707429948</v>
+        <v>0.2418076403230703</v>
       </c>
       <c r="N217" t="n">
-        <v>0.3520007948000536</v>
+        <v>0.3832707158814231</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1101092626921237</v>
+        <v>0.2420841690703461</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.05222787078615586</v>
+        <v>0.05696829093948724</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1088521517359878</v>
+        <v>0.2429097763724109</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0853162141562582</v>
+        <v>0.09418940713385759</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1131374333429052</v>
+        <v>0.2435171442159503</v>
       </c>
       <c r="L218" t="n">
-        <v>0.2261686291609486</v>
+        <v>0.2370974901106461</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1051227475241987</v>
+        <v>0.2433984800620379</v>
       </c>
       <c r="N218" t="n">
-        <v>0.349366683527434</v>
+        <v>0.3834990314790515</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1108336657361509</v>
+        <v>0.2436768280773879</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.05407778261478587</v>
+        <v>0.06198345082617278</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1095636037081185</v>
+        <v>0.2444974219696163</v>
       </c>
       <c r="J219" t="n">
-        <v>0.08466797177445198</v>
+        <v>0.09381341465417342</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1138768936915517</v>
+        <v>0.2451087595376232</v>
       </c>
       <c r="L219" t="n">
-        <v>0.2247170358033604</v>
+        <v>0.2373578733068963</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1058098243054026</v>
+        <v>0.2449893198010055</v>
       </c>
       <c r="N219" t="n">
-        <v>0.351140417017746</v>
+        <v>0.3814976284415693</v>
       </c>
       <c r="O219" t="n">
-        <v>0.111558068780178</v>
+        <v>0.2452694870844296</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.05292817679865341</v>
+        <v>0.05699379295762441</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1102750556802491</v>
+        <v>0.2460850675668216</v>
       </c>
       <c r="J220" t="n">
-        <v>0.08411824790645614</v>
+        <v>0.09423004744524802</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1146163540401981</v>
+        <v>0.2467003748592961</v>
       </c>
       <c r="L220" t="n">
-        <v>0.2247721546305204</v>
+        <v>0.2377995861194883</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1064969010866065</v>
+        <v>0.246580159539973</v>
       </c>
       <c r="N220" t="n">
-        <v>0.3461222599723862</v>
+        <v>0.3820662009545483</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1122824718242051</v>
+        <v>0.2468621460914714</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.05177906170346366</v>
+        <v>0.05899926848747576</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1109865076523798</v>
+        <v>0.2476727131640268</v>
       </c>
       <c r="J221" t="n">
-        <v>0.08336703709172438</v>
+        <v>0.094339230463443</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1153558143888446</v>
+        <v>0.2482919901809689</v>
       </c>
       <c r="L221" t="n">
-        <v>0.224217612439952</v>
+        <v>0.2395224386976066</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1071839778678104</v>
+        <v>0.2481709992789406</v>
       </c>
       <c r="N221" t="n">
-        <v>0.3452124770927517</v>
+        <v>0.3822044432035605</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1130068748682323</v>
+        <v>0.2484548050985131</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.0576304456949218</v>
+        <v>0.05798866912471172</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1116979596245104</v>
+        <v>0.2492603587612321</v>
       </c>
       <c r="J222" t="n">
-        <v>0.08321433386971028</v>
+        <v>0.0940318347355838</v>
       </c>
       <c r="K222" t="n">
-        <v>0.116095274737491</v>
+        <v>0.2498836055026418</v>
       </c>
       <c r="L222" t="n">
-        <v>0.2220695446389988</v>
+        <v>0.237099851948277</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1078710546490143</v>
+        <v>0.2497618390179082</v>
       </c>
       <c r="N222" t="n">
-        <v>0.3467113330802392</v>
+        <v>0.3842820725009818</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1137312779122594</v>
+        <v>0.2500474641055549</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.05248233713873303</v>
+        <v>0.05985658544395299</v>
       </c>
       <c r="G223" t="n">
-        <v>0.112409411596641</v>
+        <v>0.2508480043584374</v>
       </c>
       <c r="J223" t="n">
-        <v>0.08266013277986756</v>
+        <v>0.09405273641823916</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1168347350861374</v>
+        <v>0.2514752208243147</v>
       </c>
       <c r="L223" t="n">
-        <v>0.2223281382881467</v>
+        <v>0.2376349772270608</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1085581314302182</v>
+        <v>0.2513526787568758</v>
       </c>
       <c r="N223" t="n">
-        <v>0.3452190926362461</v>
+        <v>0.380277755199409</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1144556809562865</v>
+        <v>0.2516401231125966</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.05533474440060253</v>
+        <v>0.05958911461902057</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1131208635687717</v>
+        <v>0.2524356499556428</v>
       </c>
       <c r="J224" t="n">
-        <v>0.08210442836164986</v>
+        <v>0.09386376662375451</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1175741954347839</v>
+        <v>0.2530668361459875</v>
       </c>
       <c r="L224" t="n">
-        <v>0.2234935804478813</v>
+        <v>0.2372400786615472</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1092452082114222</v>
+        <v>0.2529435184958433</v>
       </c>
       <c r="N224" t="n">
-        <v>0.3425360204621689</v>
+        <v>0.378916178191172</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1151800840003137</v>
+        <v>0.2532327821196384</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.05218767584623545</v>
+        <v>0.05620148418139176</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1138323155409023</v>
+        <v>0.254023295552848</v>
       </c>
       <c r="J225" t="n">
-        <v>0.08134721515451077</v>
+        <v>0.09258831970977091</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1183136557834303</v>
+        <v>0.2546584514676604</v>
       </c>
       <c r="L225" t="n">
-        <v>0.2212660581786885</v>
+        <v>0.2343743409872202</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1099322849926261</v>
+        <v>0.2545343582348109</v>
       </c>
       <c r="N225" t="n">
-        <v>0.3412623812594048</v>
+        <v>0.3762926771005241</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1159044870443408</v>
+        <v>0.2548254411266802</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.05404113984133703</v>
+        <v>0.05670892166254382</v>
       </c>
       <c r="G226" t="n">
-        <v>0.114543767513033</v>
+        <v>0.2556109411500533</v>
       </c>
       <c r="J226" t="n">
-        <v>0.08128848769790395</v>
+        <v>0.09244979003392953</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1190531161320767</v>
+        <v>0.2562500667893333</v>
       </c>
       <c r="L226" t="n">
-        <v>0.2213457585410538</v>
+        <v>0.2343969489395629</v>
       </c>
       <c r="M226" t="n">
-        <v>0.11061936177383</v>
+        <v>0.2561251979737785</v>
       </c>
       <c r="N226" t="n">
-        <v>0.3392984397293505</v>
+        <v>0.3735025875517193</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1166288900883679</v>
+        <v>0.2564181001337219</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.05489514475161245</v>
+        <v>0.05912665459395404</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1152552194851636</v>
+        <v>0.2571985867472587</v>
       </c>
       <c r="J227" t="n">
-        <v>0.08122824053128314</v>
+        <v>0.09127157195387145</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1197925764807232</v>
+        <v>0.2578416821110062</v>
       </c>
       <c r="L227" t="n">
-        <v>0.2203328685954631</v>
+        <v>0.2311670872540595</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1113064385550339</v>
+        <v>0.257716037712746</v>
       </c>
       <c r="N227" t="n">
-        <v>0.3375444605734032</v>
+        <v>0.372341245169011</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1173532931323951</v>
+        <v>0.2580107591407637</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.05474969894276686</v>
+        <v>0.05946991050709968</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1159666714572942</v>
+        <v>0.258786232344464</v>
       </c>
       <c r="J228" t="n">
-        <v>0.07996646819410189</v>
+        <v>0.09037705982723787</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1205320368293696</v>
+        <v>0.2594332974326791</v>
       </c>
       <c r="L228" t="n">
-        <v>0.220627575402402</v>
+        <v>0.2291439406661931</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1119935153362378</v>
+        <v>0.2593068774517136</v>
       </c>
       <c r="N228" t="n">
-        <v>0.3381007084929594</v>
+        <v>0.367803985576653</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1180776961764222</v>
+        <v>0.2596034181478054</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0556048107805055</v>
+        <v>0.05575391693345803</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1166781234294249</v>
+        <v>0.2603738779416693</v>
       </c>
       <c r="J229" t="n">
-        <v>0.08010316522581384</v>
+        <v>0.08898964801166989</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1212714971780161</v>
+        <v>0.2610249127543519</v>
       </c>
       <c r="L229" t="n">
-        <v>0.2205300660223563</v>
+        <v>0.2266866939114476</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1126805921174417</v>
+        <v>0.2608977171906812</v>
       </c>
       <c r="N229" t="n">
-        <v>0.3355674481894165</v>
+        <v>0.3617861443988987</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1188020992204493</v>
+        <v>0.2611960771548471</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0534604886305335</v>
+        <v>0.05199390140450637</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1173895754015555</v>
+        <v>0.2619615235388745</v>
       </c>
       <c r="J230" t="n">
-        <v>0.0797383261658727</v>
+        <v>0.08783273086480864</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1220109575266625</v>
+        <v>0.2626165280760248</v>
       </c>
       <c r="L230" t="n">
-        <v>0.2205405275158117</v>
+        <v>0.2241545317253066</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1133676688986456</v>
+        <v>0.2624885569296487</v>
       </c>
       <c r="N230" t="n">
-        <v>0.3335449443641711</v>
+        <v>0.356483057260002</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1195265022644764</v>
+        <v>0.2627887361618889</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.05331674085855609</v>
+        <v>0.05720509145172198</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1181010273736861</v>
+        <v>0.2635491691360798</v>
       </c>
       <c r="J231" t="n">
-        <v>0.07937194555373217</v>
+        <v>0.08702970274429528</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1227504178753089</v>
+        <v>0.2642081433976977</v>
       </c>
       <c r="L231" t="n">
-        <v>0.219159146943254</v>
+        <v>0.2195066388432537</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1140547456798495</v>
+        <v>0.2640793966686163</v>
       </c>
       <c r="N231" t="n">
-        <v>0.3331334617186202</v>
+        <v>0.3519900597842164</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1202509053085036</v>
+        <v>0.2643813951689307</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.05517357583027843</v>
+        <v>0.05240271460658213</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1188124793458168</v>
+        <v>0.2651368147332852</v>
       </c>
       <c r="J232" t="n">
-        <v>0.07830401792884575</v>
+        <v>0.08590395800777087</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1234898782239554</v>
+        <v>0.2657997587193706</v>
       </c>
       <c r="L232" t="n">
-        <v>0.2185861113651687</v>
+        <v>0.2176022000007723</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1147418224610534</v>
+        <v>0.2656702364075839</v>
       </c>
       <c r="N232" t="n">
-        <v>0.3311332649541608</v>
+        <v>0.3500024875957956</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1209753083525307</v>
+        <v>0.2659740541759724</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.05303100191140571</v>
+        <v>0.04960199840056409</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1195239313179474</v>
+        <v>0.2667244603304905</v>
       </c>
       <c r="J233" t="n">
-        <v>0.07793453783066717</v>
+        <v>0.08477889101287661</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1242293385726018</v>
+        <v>0.2673913740410435</v>
       </c>
       <c r="L233" t="n">
-        <v>0.2177216078420417</v>
+        <v>0.2144003999333465</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1154288992422574</v>
+        <v>0.2672610761465514</v>
       </c>
       <c r="N233" t="n">
-        <v>0.3315446187721897</v>
+        <v>0.3428156763189932</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1216997113965578</v>
+        <v>0.2675667131830142</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.05588902746764314</v>
+        <v>0.05081817036514517</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1202353832900781</v>
+        <v>0.2683121059276957</v>
       </c>
       <c r="J234" t="n">
-        <v>0.07746349979865011</v>
+        <v>0.0836778961172536</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1249687989212483</v>
+        <v>0.2689829893627163</v>
       </c>
       <c r="L234" t="n">
-        <v>0.2193658234343587</v>
+        <v>0.2115604233764594</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1161159760234613</v>
+        <v>0.268851915885519</v>
       </c>
       <c r="N234" t="n">
-        <v>0.328167787874104</v>
+        <v>0.3375249615780628</v>
       </c>
       <c r="O234" t="n">
-        <v>0.122424114440585</v>
+        <v>0.2691593721900559</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.05474766086469589</v>
+        <v>0.05206645803180261</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1209468352622087</v>
+        <v>0.2698997515249011</v>
       </c>
       <c r="J235" t="n">
-        <v>0.07749089837224818</v>
+        <v>0.08232436767854293</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1257082592698947</v>
+        <v>0.2705746046843892</v>
       </c>
       <c r="L235" t="n">
-        <v>0.2176189452026054</v>
+        <v>0.207541455065595</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1168030528046652</v>
+        <v>0.2704427556244866</v>
       </c>
       <c r="N235" t="n">
-        <v>0.3264030369613005</v>
+        <v>0.3355256789972582</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1231485174846121</v>
+        <v>0.2707520311970977</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.04960691046826914</v>
+        <v>0.05136208893201373</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1216582872343394</v>
+        <v>0.2714873971221063</v>
       </c>
       <c r="J236" t="n">
-        <v>0.07701672809091503</v>
+        <v>0.08114170005438584</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1264477196185411</v>
+        <v>0.2721662200060621</v>
       </c>
       <c r="L236" t="n">
-        <v>0.2168811602072675</v>
+        <v>0.2050026797362367</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1174901295858691</v>
+        <v>0.2720335953634541</v>
       </c>
       <c r="N236" t="n">
-        <v>0.3249506307351761</v>
+        <v>0.3278131642008329</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1238729205286392</v>
+        <v>0.2723446902041394</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.05346678464406808</v>
+        <v>0.04971640117257529</v>
       </c>
       <c r="G237" t="n">
-        <v>0.12236973920647</v>
+        <v>0.2730750427193117</v>
       </c>
       <c r="J237" t="n">
-        <v>0.07634098349410431</v>
+        <v>0.07954962317476513</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1271871799671876</v>
+        <v>0.273757835327735</v>
       </c>
       <c r="L237" t="n">
-        <v>0.2173526555088308</v>
+        <v>0.2022929861617845</v>
       </c>
       <c r="M237" t="n">
-        <v>0.118177206367073</v>
+        <v>0.2736244351024217</v>
       </c>
       <c r="N237" t="n">
-        <v>0.3250108338971279</v>
+        <v>0.3272699003060958</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1245973235726663</v>
+        <v>0.2739373492111811</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0493272917577979</v>
+        <v>0.05208510620350779</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1230811911786006</v>
+        <v>0.274662688316517</v>
       </c>
       <c r="J238" t="n">
-        <v>0.07606365912126964</v>
+        <v>0.07858481772422524</v>
       </c>
       <c r="K238" t="n">
-        <v>0.127926640315834</v>
+        <v>0.2753494506494079</v>
       </c>
       <c r="L238" t="n">
-        <v>0.2179336181677809</v>
+        <v>0.2001496556264396</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1188642831482769</v>
+        <v>0.2752152748413892</v>
       </c>
       <c r="N238" t="n">
-        <v>0.3245839111485525</v>
+        <v>0.3205435699525467</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1253217266166935</v>
+        <v>0.2755300082182229</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.0521884401751638</v>
+        <v>0.05045148642015328</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1237926431507313</v>
+        <v>0.2762503339137222</v>
       </c>
       <c r="J239" t="n">
-        <v>0.07528474951186473</v>
+        <v>0.07821645311778605</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1286661006644804</v>
+        <v>0.2769410659710807</v>
       </c>
       <c r="L239" t="n">
-        <v>0.2178242352446037</v>
+        <v>0.1974973147143519</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1195513599294808</v>
+        <v>0.2768061145803569</v>
       </c>
       <c r="N239" t="n">
-        <v>0.3218701271908471</v>
+        <v>0.3182027488412434</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1260461296607206</v>
+        <v>0.2771226672252646</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.05105023826187094</v>
+        <v>0.05081550574792501</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1245040951228619</v>
+        <v>0.2778379795109275</v>
       </c>
       <c r="J240" t="n">
-        <v>0.07510424920534323</v>
+        <v>0.07664447393334659</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1294055610131269</v>
+        <v>0.2785326812927535</v>
       </c>
       <c r="L240" t="n">
-        <v>0.2157246937997847</v>
+        <v>0.1962358232146885</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1202384367106848</v>
+        <v>0.2783969543193244</v>
       </c>
       <c r="N240" t="n">
-        <v>0.3231697467254087</v>
+        <v>0.314047211118557</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1267705327047477</v>
+        <v>0.2787153262323064</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.05391269438362453</v>
+        <v>0.04717712811223623</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1252155470949926</v>
+        <v>0.2794256251081328</v>
       </c>
       <c r="J241" t="n">
-        <v>0.07382215274115871</v>
+        <v>0.07566882474880626</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1301450213617733</v>
+        <v>0.2801242966144264</v>
       </c>
       <c r="L241" t="n">
-        <v>0.2170351808938097</v>
+        <v>0.1921650409166162</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1209255134918887</v>
+        <v>0.279987794058292</v>
       </c>
       <c r="N241" t="n">
-        <v>0.321483034453634</v>
+        <v>0.310376730930858</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1274949357487749</v>
+        <v>0.2803079852393481</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.05377581690612973</v>
+        <v>0.04453631743850014</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1259269990671232</v>
+        <v>0.2810132707053382</v>
       </c>
       <c r="J242" t="n">
-        <v>0.07413845465876488</v>
+        <v>0.07488945014206411</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1308844817104198</v>
+        <v>0.2817159119360994</v>
       </c>
       <c r="L242" t="n">
-        <v>0.2148558835871645</v>
+        <v>0.1909848276093019</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1216125902730926</v>
+        <v>0.2815786337972595</v>
       </c>
       <c r="N242" t="n">
-        <v>0.3185102550769199</v>
+        <v>0.3059910824245171</v>
       </c>
       <c r="O242" t="n">
-        <v>0.128219338792802</v>
+        <v>0.2819006442463899</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.04863961419509176</v>
+        <v>0.04589303765213007</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1266384510392538</v>
+        <v>0.2826009163025434</v>
       </c>
       <c r="J243" t="n">
-        <v>0.07365314949761539</v>
+        <v>0.07400629469101946</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1316239420590662</v>
+        <v>0.2833075272577722</v>
       </c>
       <c r="L243" t="n">
-        <v>0.2151869889403349</v>
+        <v>0.1887950430819125</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1222996670542965</v>
+        <v>0.2831694735362271</v>
       </c>
       <c r="N243" t="n">
-        <v>0.3174516732966636</v>
+        <v>0.3034900397459053</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1289437418368291</v>
+        <v>0.2834933032534317</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.05150409461621579</v>
+        <v>0.0442472526785392</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1273499030113845</v>
+        <v>0.2841885618997488</v>
       </c>
       <c r="J244" t="n">
-        <v>0.07316623179716386</v>
+        <v>0.07321930297357149</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1323634024077126</v>
+        <v>0.2848991425794451</v>
       </c>
       <c r="L244" t="n">
-        <v>0.2145286840138064</v>
+        <v>0.1858955471236148</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1229867438355004</v>
+        <v>0.2847603132751947</v>
       </c>
       <c r="N244" t="n">
-        <v>0.3156075538142618</v>
+        <v>0.2965733770413932</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1296681448808562</v>
+        <v>0.2850859622604734</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.05436926653520702</v>
+        <v>0.04159892644314077</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1280613549835151</v>
+        <v>0.285776207496954</v>
       </c>
       <c r="J245" t="n">
-        <v>0.07217769609686396</v>
+        <v>0.07172841956761936</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1331028627563591</v>
+        <v>0.286490757901118</v>
       </c>
       <c r="L245" t="n">
-        <v>0.2161811558680648</v>
+        <v>0.1835861995235755</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1236738206167043</v>
+        <v>0.2863511530141623</v>
       </c>
       <c r="N245" t="n">
-        <v>0.3165781613311116</v>
+        <v>0.2924408684573519</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1303925479248834</v>
+        <v>0.2866786212675151</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0522351383177706</v>
+        <v>0.04494802287134803</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1287728069556457</v>
+        <v>0.2873638530941593</v>
       </c>
       <c r="J246" t="n">
-        <v>0.07168753693616935</v>
+        <v>0.07083358905106228</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1338423231050055</v>
+        <v>0.2880823732227908</v>
       </c>
       <c r="L246" t="n">
-        <v>0.2156445915635959</v>
+        <v>0.1804668600709618</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1243608973979082</v>
+        <v>0.2879419927531298</v>
       </c>
       <c r="N246" t="n">
-        <v>0.3153637605486095</v>
+        <v>0.2883922881401518</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1311169509689105</v>
+        <v>0.2882712802745569</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.04810171832961174</v>
+        <v>0.04429450588857424</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1294842589277764</v>
+        <v>0.2889514986913647</v>
       </c>
       <c r="J247" t="n">
-        <v>0.07129574885453364</v>
+        <v>0.07043475600179951</v>
       </c>
       <c r="K247" t="n">
-        <v>0.134581783453652</v>
+        <v>0.2896739885444637</v>
       </c>
       <c r="L247" t="n">
-        <v>0.2150191781608853</v>
+        <v>0.1765373885549404</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1250479741791121</v>
+        <v>0.2895328324920974</v>
       </c>
       <c r="N247" t="n">
-        <v>0.3133646161681529</v>
+        <v>0.2854274102361637</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1318413540129376</v>
+        <v>0.2898639392815986</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.04996901493643564</v>
+        <v>0.04463833942023258</v>
       </c>
       <c r="G248" t="n">
-        <v>0.130195710899907</v>
+        <v>0.2905391442885699</v>
       </c>
       <c r="J248" t="n">
-        <v>0.07080232639141051</v>
+        <v>0.06883186499773017</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1353212438022984</v>
+        <v>0.2912656038661366</v>
       </c>
       <c r="L248" t="n">
-        <v>0.2139051027204187</v>
+        <v>0.1761976447646781</v>
       </c>
       <c r="M248" t="n">
-        <v>0.125735050960316</v>
+        <v>0.2911236722310649</v>
       </c>
       <c r="N248" t="n">
-        <v>0.3125809928911386</v>
+        <v>0.2803460088917587</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1325657570569648</v>
+        <v>0.2914565982886404</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.05083703650394747</v>
+        <v>0.04097948739173637</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1309071628720377</v>
+        <v>0.2921267898857753</v>
       </c>
       <c r="J249" t="n">
-        <v>0.07070726408625361</v>
+        <v>0.06822486061675355</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1360607041509448</v>
+        <v>0.2928572191878095</v>
       </c>
       <c r="L249" t="n">
-        <v>0.215102552302682</v>
+        <v>0.1714474884893417</v>
       </c>
       <c r="M249" t="n">
-        <v>0.12642212774152</v>
+        <v>0.2927145119700325</v>
       </c>
       <c r="N249" t="n">
-        <v>0.3132131554189634</v>
+        <v>0.2765478582533071</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1332901601009919</v>
+        <v>0.2930492572956822</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.0497057913978524</v>
+        <v>0.0413179137284988</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1316186148441683</v>
+        <v>0.2937144354829805</v>
       </c>
       <c r="J250" t="n">
-        <v>0.06941055647851657</v>
+        <v>0.0674136874367688</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1368001644995913</v>
+        <v>0.2944488345094824</v>
       </c>
       <c r="L250" t="n">
-        <v>0.2145117139681608</v>
+        <v>0.1702867795180984</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1271092045227239</v>
+        <v>0.2943053517090001</v>
       </c>
       <c r="N250" t="n">
-        <v>0.3108613684530244</v>
+        <v>0.2741327324671799</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1340145631450191</v>
+        <v>0.2946419163027239</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.04857528798385567</v>
+        <v>0.0396535823559331</v>
       </c>
       <c r="G251" t="n">
-        <v>0.132330066816299</v>
+        <v>0.2953020810801859</v>
       </c>
       <c r="J251" t="n">
-        <v>0.06941219810765305</v>
+        <v>0.06659829003567513</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1375396248482377</v>
+        <v>0.2960404498311552</v>
       </c>
       <c r="L251" t="n">
-        <v>0.2137327747773408</v>
+        <v>0.1665153776401148</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1277962813039278</v>
+        <v>0.2958961914479676</v>
       </c>
       <c r="N251" t="n">
-        <v>0.3092258966947185</v>
+        <v>0.267400405679748</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1347389661890462</v>
+        <v>0.2962345753097657</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.05144553462766242</v>
+        <v>0.03898645719945257</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1330415187884296</v>
+        <v>0.2968897266773912</v>
       </c>
       <c r="J252" t="n">
-        <v>0.06891218351311669</v>
+        <v>0.06467861299137176</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1382790851968842</v>
+        <v>0.2976320651528281</v>
       </c>
       <c r="L252" t="n">
-        <v>0.2147659217907079</v>
+        <v>0.1645331426445576</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1284833580851317</v>
+        <v>0.2974870311869353</v>
       </c>
       <c r="N252" t="n">
-        <v>0.3085070048454424</v>
+        <v>0.2662506520373818</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1354633692330733</v>
+        <v>0.2978272343168074</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.04831653969497784</v>
+        <v>0.03631650218447037</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1337529707605602</v>
+        <v>0.2984773722745965</v>
       </c>
       <c r="J253" t="n">
-        <v>0.06801050723436115</v>
+        <v>0.06425460088175788</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1390185455455306</v>
+        <v>0.299223680474501</v>
       </c>
       <c r="L253" t="n">
-        <v>0.2135113420687476</v>
+        <v>0.1624399343205941</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1291704348663356</v>
+        <v>0.2990778709259028</v>
       </c>
       <c r="N253" t="n">
-        <v>0.3066049576065932</v>
+        <v>0.2609832456864523</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1361877722771004</v>
+        <v>0.2994198933238492</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.05018831155150716</v>
+        <v>0.03864368123639983</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1344644227326909</v>
+        <v>0.3000650178718017</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0681071638108401</v>
+        <v>0.06292619828473273</v>
       </c>
       <c r="K254" t="n">
-        <v>0.139758005894177</v>
+        <v>0.3008152957961738</v>
       </c>
       <c r="L254" t="n">
-        <v>0.2142692226719458</v>
+        <v>0.1592356124573907</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1298575116475395</v>
+        <v>0.3006687106648704</v>
       </c>
       <c r="N254" t="n">
-        <v>0.307920019679568</v>
+        <v>0.2576979607733303</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1369121753211276</v>
+        <v>0.3010125523308909</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.0510608585629555</v>
+        <v>0.03796795828065409</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1351758747048215</v>
+        <v>0.3016526634690071</v>
       </c>
       <c r="J255" t="n">
-        <v>0.06700214778200715</v>
+        <v>0.06219334977819546</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1404974662428235</v>
+        <v>0.3024069111178467</v>
       </c>
       <c r="L255" t="n">
-        <v>0.2129397506607881</v>
+        <v>0.1565200368441147</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1305445884287434</v>
+        <v>0.3022595504038379</v>
       </c>
       <c r="N255" t="n">
-        <v>0.3045524557657632</v>
+        <v>0.2534945714443865</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1376365783651547</v>
+        <v>0.3026052113379327</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0479341890950281</v>
+        <v>0.0352892972426465</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1358873266769521</v>
+        <v>0.3032403090662124</v>
       </c>
       <c r="J256" t="n">
-        <v>0.06699545368731595</v>
+        <v>0.06115599994004529</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1412369265914699</v>
+        <v>0.3039985264395196</v>
       </c>
       <c r="L256" t="n">
-        <v>0.2144231130957602</v>
+        <v>0.1552930672699327</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1312316652099474</v>
+        <v>0.3038503901428055</v>
       </c>
       <c r="N256" t="n">
-        <v>0.3063025305665764</v>
+        <v>0.2473728518459919</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1383609814091818</v>
+        <v>0.3041978703449744</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.04680831151343011</v>
+        <v>0.0336076620477902</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1365987786490828</v>
+        <v>0.3048279546634177</v>
       </c>
       <c r="J257" t="n">
-        <v>0.06648707606622017</v>
+        <v>0.06031409334818143</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1419763869401164</v>
+        <v>0.3055901417611925</v>
       </c>
       <c r="L257" t="n">
-        <v>0.2140194970373479</v>
+        <v>0.1516545635240116</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1319187419911513</v>
+        <v>0.3054412298817731</v>
       </c>
       <c r="N257" t="n">
-        <v>0.303770508783404</v>
+        <v>0.2454325761245169</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1390853844532089</v>
+        <v>0.3057905293520162</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.05068323418386673</v>
+        <v>0.03892301662149851</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1373102306212134</v>
+        <v>0.306415600260623</v>
       </c>
       <c r="J258" t="n">
-        <v>0.06627700945817344</v>
+        <v>0.05846757458050308</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1427158472887628</v>
+        <v>0.3071817570828654</v>
       </c>
       <c r="L258" t="n">
-        <v>0.2118290895460369</v>
+        <v>0.1494043853955184</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1326058187723552</v>
+        <v>0.3070320696207406</v>
       </c>
       <c r="N258" t="n">
-        <v>0.3012566551176432</v>
+        <v>0.2394735184263322</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1398097874972361</v>
+        <v>0.3073831883590579</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.05255896547204318</v>
+        <v>0.03523532488918461</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1380216825933441</v>
+        <v>0.3080032458578282</v>
       </c>
       <c r="J259" t="n">
-        <v>0.06546524840262943</v>
+        <v>0.05821638821490946</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1434553076374092</v>
+        <v>0.3087733724045383</v>
       </c>
       <c r="L259" t="n">
-        <v>0.2118520776823129</v>
+        <v>0.1455423926736198</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1332928955535591</v>
+        <v>0.3086229093597082</v>
       </c>
       <c r="N259" t="n">
-        <v>0.3028612342706908</v>
+        <v>0.2364954528978091</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1405341905412632</v>
+        <v>0.3089758473660997</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0514355137436646</v>
+        <v>0.03254455077626179</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1387331345654747</v>
+        <v>0.3095908914550335</v>
       </c>
       <c r="J260" t="n">
-        <v>0.06485178743904178</v>
+        <v>0.05646047882929976</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1441947679860557</v>
+        <v>0.3103649877262111</v>
       </c>
       <c r="L260" t="n">
-        <v>0.2123886485066618</v>
+        <v>0.1429684451474826</v>
       </c>
       <c r="M260" t="n">
-        <v>0.133979972334763</v>
+        <v>0.3102137490986758</v>
       </c>
       <c r="N260" t="n">
-        <v>0.3022845109439439</v>
+        <v>0.2303981536853179</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1412585935852903</v>
+        <v>0.3105685063731414</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0513128873644362</v>
+        <v>0.03685065820814323</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1394445865376054</v>
+        <v>0.3111785370522389</v>
       </c>
       <c r="J261" t="n">
-        <v>0.06383662110686414</v>
+        <v>0.05609979100157318</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1449342283347021</v>
+        <v>0.311956603047884</v>
       </c>
       <c r="L261" t="n">
-        <v>0.2126389890795689</v>
+        <v>0.1411824026062739</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1346670491159669</v>
+        <v>0.3118045888376433</v>
       </c>
       <c r="N261" t="n">
-        <v>0.298026749838799</v>
+        <v>0.2281813949352295</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1419829966293175</v>
+        <v>0.3121611653801832</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.04619109470006315</v>
+        <v>0.03015361111024224</v>
       </c>
       <c r="G262" t="n">
-        <v>0.140156038509736</v>
+        <v>0.3127661826494442</v>
       </c>
       <c r="J262" t="n">
-        <v>0.06411974394555013</v>
+        <v>0.05513426930962895</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1456736886833486</v>
+        <v>0.3135482183695569</v>
       </c>
       <c r="L262" t="n">
-        <v>0.2117032864615203</v>
+        <v>0.1372841248391604</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1353541258971708</v>
+        <v>0.3133954285766109</v>
       </c>
       <c r="N262" t="n">
-        <v>0.2985882156566537</v>
+        <v>0.2209449507939146</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1427073996733446</v>
+        <v>0.3137538243872249</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.05207014411625066</v>
+        <v>0.03345337340797201</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1408674904818666</v>
+        <v>0.3143538282466494</v>
       </c>
       <c r="J263" t="n">
-        <v>0.06370115049455347</v>
+        <v>0.05326385833136624</v>
       </c>
       <c r="K263" t="n">
-        <v>0.146413149031995</v>
+        <v>0.3151398336912298</v>
       </c>
       <c r="L263" t="n">
-        <v>0.2139817277130016</v>
+        <v>0.1345734716353089</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1360412026783747</v>
+        <v>0.3149862683155785</v>
       </c>
       <c r="N263" t="n">
-        <v>0.3001691730989043</v>
+        <v>0.2183885954077441</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1434318027173717</v>
+        <v>0.3153464833942667</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.04895004397870389</v>
+        <v>0.0297499090267458</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1415789424539973</v>
+        <v>0.3159414738438548</v>
       </c>
       <c r="J264" t="n">
-        <v>0.06258083529332774</v>
+        <v>0.05248850264468426</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1471526093806415</v>
+        <v>0.3167314490129027</v>
       </c>
       <c r="L264" t="n">
-        <v>0.2135744998944986</v>
+        <v>0.1327503027838865</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1367282794595787</v>
+        <v>0.316577108054546</v>
       </c>
       <c r="N264" t="n">
-        <v>0.296069886866948</v>
+        <v>0.2141121029230886</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1441562057613988</v>
+        <v>0.3169391424013084</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1349.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1349.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.5773817382593005</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.02898202278096855</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.02898202278096855</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.04637123644954969</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.08149618460344604</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03130058460344604</v>
+        <v>0.047728789988006</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001079265326604329</v>
+        <v>0.001645720959127502</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,29 +9250,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.01738921366858114</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0.0003597551088681097</v>
+        <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.02100066759472265</v>
+        <v>0</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0.0004344703332096606</v>
+        <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.06529919249081131</v>
+        <v>0</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0004142063748437476</v>
+        <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.1106484405207716</v>
+        <v>0.1009424369663179</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0005102885176765775</v>
+        <v>0.000406770611944538</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.03130058460344604</v>
+        <v>0.0190915159952024</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001079265326604329</v>
+        <v>0.0003949730301906003</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.047728789988006</v>
+        <v>0.0190915159952024</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001869240495652175</v>
+        <v>0.0003949730301906003</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.1209244305385395</v>
+        <v>0.07255465832312369</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001714899537295572</v>
+        <v>0.000545271677028605</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.1941200710890729</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.002076933884057971</v>
+        <v>0.001303751961360699</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.03206405653047473</v>
+        <v>0.03894450604559252</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003175291194410601</v>
+        <v>0.001042590322406616</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.05213452916241136</v>
+        <v>0.03894450604559252</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003183230643345755</v>
+        <v>0.001042590322406616</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1337752250563783</v>
+        <v>0.1209244305385395</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003181679477935136</v>
+        <v>0.001514643547301681</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.2094121042177526</v>
+        <v>0.2061676165603735</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003185318014083502</v>
+        <v>0.001944307879112702</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.03567310942570776</v>
+        <v>0.047728789988006</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004762936791615901</v>
+        <v>0.001645720959127502</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.05846262449061897</v>
+        <v>0.047728789988006</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004774845965018632</v>
+        <v>0.001645720959127502</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1491075201045163</v>
+        <v>0.1340342489333604</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004772519216902704</v>
+        <v>0.002919641088808867</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.2336172265230258</v>
+        <v>0.2204123678276119</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004777977021125253</v>
+        <v>0.002916461818669053</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.04370022026172328</v>
+        <v>0.04831487903358396</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006350582388821201</v>
+        <v>0.002085180644813233</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.06308892703241274</v>
+        <v>0.04831487903358396</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00636646128669151</v>
+        <v>0.002085180644813233</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1594748649124122</v>
+        <v>0.1463001354191063</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006363358955870272</v>
+        <v>0.003892854785078489</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.2514377553133377</v>
+        <v>0.2366549227057672</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006370636028167003</v>
+        <v>0.003888615758225404</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0003597551088681097</v>
+        <v>0.0003949730301906003</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01738921366858114</v>
+        <v>0.0190915159952024</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.04020879173395532</v>
+        <v>0.04899762335185093</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007938227986026501</v>
+        <v>0.002606475806016541</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.06759113420540304</v>
+        <v>0.04899762335185093</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.007958076608364388</v>
+        <v>0.002606475806016541</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.1693671942707723</v>
+        <v>0.1554501911957146</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.007954198694837839</v>
+        <v>0.004866068481348111</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.2673310356406536</v>
+        <v>0.252529635355316</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.007963295035208755</v>
+        <v>0.004860769697781755</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.04426222653783793</v>
+        <v>0.04966694455562264</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009525873583231802</v>
+        <v>0.003127770967219849</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.07054694342720025</v>
+        <v>0.04966694455562264</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009549691930037265</v>
+        <v>0.003127770967219849</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.1780744429703025</v>
+        <v>0.1627022494539782</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009545038433805409</v>
+        <v>0.005839282177617733</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.2812544125569384</v>
+        <v>0.2656708599367343</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009555954042250505</v>
+        <v>0.005832923637338105</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.04992392736880513</v>
+        <v>0.05032297523025427</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.0111135191804371</v>
+        <v>0.003649066128423157</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.07383405211541474</v>
+        <v>0.05032297523025427</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01114130725171014</v>
+        <v>0.003649066128423157</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.1852865458017089</v>
+        <v>0.1723741433846897</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01113587817277298</v>
+        <v>0.006812495873887355</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.2947652311141578</v>
+        <v>0.2806129506104985</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01114861304929226</v>
+        <v>0.006805077576894456</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.047257296922291</v>
+        <v>0.05096584796110094</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.0127011647776424</v>
+        <v>0.004170361289626465</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.07553015768765692</v>
+        <v>0.05096584796110094</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01273292257338302</v>
+        <v>0.004170361289626465</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.1930934375556975</v>
+        <v>0.1788837061786413</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01272671791174054</v>
+        <v>0.007785709570156977</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.3064208363642765</v>
+        <v>0.2939902615370852</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01274127205633401</v>
+        <v>0.007777231516450807</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.04932573789372954</v>
+        <v>0.05159569533351785</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.0142888103748477</v>
+        <v>0.004691656450829773</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.07771295756153712</v>
+        <v>0.05159569533351785</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.0143245378950559</v>
+        <v>0.004691656450829773</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.1976850530229744</v>
+        <v>0.186948771026626</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01431755765070811</v>
+        <v>0.0087589232664266</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.3117785733592599</v>
+        <v>0.3052371468769703</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01433393106337576</v>
+        <v>0.008749385456007159</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.04719265297855484</v>
+        <v>0.05221264993286014</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.015876455972053</v>
+        <v>0.005212951612033082</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.07916014915466571</v>
+        <v>0.05221264993286014</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01591615321672878</v>
+        <v>0.005212951612033082</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.2017513269942456</v>
+        <v>0.193687171119436</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01590839738967568</v>
+        <v>0.009732136962696222</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.3221957871510732</v>
+        <v>0.3139879607906305</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01592659007041751</v>
+        <v>0.00972153939556351</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.05092144487220092</v>
+        <v>0.05281684434448296</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.0174641015692583</v>
+        <v>0.005734246773236389</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.08114942988465304</v>
+        <v>0.05281684434448296</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01750776853840165</v>
+        <v>0.005734246773236389</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.2044821942602171</v>
+        <v>0.1975167396478638</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01749923712864325</v>
+        <v>0.01070535065896584</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.3280298227916813</v>
+        <v>0.3230770574385417</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01751924907745926</v>
+        <v>0.01069369333511986</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.05457551627010178</v>
+        <v>0.05340841115374149</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0190517471664636</v>
+        <v>0.006255541934439697</v>
       </c>
       <c r="J77" t="n">
-        <v>0.08255849716910954</v>
+        <v>0.05340841115374149</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01909938386007453</v>
+        <v>0.006255541934439697</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2072675896115951</v>
+        <v>0.2049553098027022</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01909007686761082</v>
+        <v>0.01167856435523547</v>
       </c>
       <c r="N77" t="n">
-        <v>0.3316380253330498</v>
+        <v>0.3341387909811805</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01911190808450101</v>
+        <v>0.01166584727467621</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.05121826986769153</v>
+        <v>0.0539874829459909</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02063939276366891</v>
+        <v>0.006776837095643006</v>
       </c>
       <c r="J78" t="n">
-        <v>0.08306504842564558</v>
+        <v>0.0539874829459909</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02069099918174741</v>
+        <v>0.006776837095643006</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2119974478390855</v>
+        <v>0.2096207147747437</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02068091660657838</v>
+        <v>0.01265177805150509</v>
       </c>
       <c r="N78" t="n">
-        <v>0.3359777398271437</v>
+        <v>0.3386075155790232</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02070456709154276</v>
+        <v>0.01263800121423256</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.05591276430966219</v>
+        <v>0.05455419230658631</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02222703836087421</v>
+        <v>0.007298132256846314</v>
       </c>
       <c r="J79" t="n">
-        <v>0.08474678107187147</v>
+        <v>0.05455419230658631</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02228261450342029</v>
+        <v>0.007298132256846314</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2130617037333945</v>
+        <v>0.2143307877547807</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02227175634554595</v>
+        <v>0.01362499174777471</v>
       </c>
       <c r="N79" t="n">
-        <v>0.3410063113259278</v>
+        <v>0.348817585392546</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02229722609858451</v>
+        <v>0.01361015515378891</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.05363664131773317</v>
+        <v>0.0551086718208829</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0238146839580795</v>
+        <v>0.007819427418049621</v>
       </c>
       <c r="J80" t="n">
-        <v>0.08525816687890475</v>
+        <v>0.0551086718208829</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02387422982509316</v>
+        <v>0.007819427418049621</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2154789332081392</v>
+        <v>0.2185033619336057</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02386259608451352</v>
+        <v>0.01459820544404433</v>
       </c>
       <c r="N80" t="n">
-        <v>0.3478544674236614</v>
+        <v>0.3517033545822253</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02388988510562626</v>
+        <v>0.01458230909334527</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.05334015990937738</v>
+        <v>0.05565105407423583</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02540232955528481</v>
+        <v>0.00834072257925293</v>
       </c>
       <c r="J81" t="n">
-        <v>0.08674873705353295</v>
+        <v>0.05565105407423583</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02546584514676604</v>
+        <v>0.00834072257925293</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2200334300156197</v>
+        <v>0.2220562705020116</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02545343582348109</v>
+        <v>0.01557141914031395</v>
       </c>
       <c r="N81" t="n">
-        <v>0.3518080996027809</v>
+        <v>0.3585991773085374</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02548254411266801</v>
+        <v>0.01555446303290161</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0540188529679087</v>
+        <v>0.05618147165200027</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02698997515249011</v>
+        <v>0.008862017740456238</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0874043948339446</v>
+        <v>0.05618147165200027</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02705746046843892</v>
+        <v>0.008862017740456238</v>
       </c>
       <c r="L82" t="n">
-        <v>0.2217980108346833</v>
+        <v>0.2264073466507905</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02704427556244866</v>
+        <v>0.01654463283658358</v>
       </c>
       <c r="N82" t="n">
-        <v>0.3536229055170654</v>
+        <v>0.3626394077319584</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02707520311970977</v>
+        <v>0.01652661697245797</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.05466825337664097</v>
+        <v>0.05670005713953136</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0285776207496954</v>
+        <v>0.009383312901659545</v>
       </c>
       <c r="J83" t="n">
-        <v>0.08821827730046453</v>
+        <v>0.05670005713953136</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02864907579011179</v>
+        <v>0.009383312901659545</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2250553133555011</v>
+        <v>0.2293744235707352</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02863511530141622</v>
+        <v>0.0175178465328532</v>
       </c>
       <c r="N83" t="n">
-        <v>0.3588709177078022</v>
+        <v>0.3692584000129651</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02866786212675152</v>
+        <v>0.01749877091201432</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.05928389401888808</v>
+        <v>0.05720694312218426</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03016526634690071</v>
+        <v>0.009904608062862854</v>
       </c>
       <c r="J84" t="n">
-        <v>0.08988352153341753</v>
+        <v>0.05720694312218426</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03024069111178468</v>
+        <v>0.009904608062862854</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2281879752682435</v>
+        <v>0.2317753344526382</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03022595504038379</v>
+        <v>0.01849106022912282</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3638241687162789</v>
+        <v>0.3711905083120333</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03026052113379327</v>
+        <v>0.01847092485157067</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.05986130777796389</v>
+        <v>0.05770226218531413</v>
       </c>
       <c r="G85" t="n">
-        <v>0.031752911944106</v>
+        <v>0.01042590322406616</v>
       </c>
       <c r="J85" t="n">
-        <v>0.09069326461312838</v>
+        <v>0.05770226218531413</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03183230643345755</v>
+        <v>0.01042590322406616</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2291786342630813</v>
+        <v>0.2329279124872919</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03181679477935136</v>
+        <v>0.01946427392539244</v>
       </c>
       <c r="N85" t="n">
-        <v>0.3670546910837826</v>
+        <v>0.3751700867896396</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03185318014083502</v>
+        <v>0.01944307879112702</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.05839602753718225</v>
+        <v>0.05818614691427615</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03334055754131131</v>
+        <v>0.01094719838526947</v>
       </c>
       <c r="J86" t="n">
-        <v>0.09144064361992191</v>
+        <v>0.05818614691427615</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03342392175513043</v>
+        <v>0.01094719838526947</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2302099280301854</v>
+        <v>0.2341499908654891</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03340763451831893</v>
+        <v>0.02043748762166207</v>
       </c>
       <c r="N86" t="n">
-        <v>0.3723345173516006</v>
+        <v>0.3782314896062604</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03344583914787677</v>
+        <v>0.02041523273068337</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.06088358617985699</v>
+        <v>0.05865872989442546</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03492820313851661</v>
+        <v>0.01146849354647278</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0916187956341229</v>
+        <v>0.05865872989442546</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03501553707680331</v>
+        <v>0.01146849354647278</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2326644942597265</v>
+        <v>0.2366594027780222</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0349984742572865</v>
+        <v>0.02141070131793169</v>
       </c>
       <c r="N87" t="n">
-        <v>0.3758356800610201</v>
+        <v>0.3800090709223716</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03503849815491852</v>
+        <v>0.02138738667023972</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.05531951658930204</v>
+        <v>0.05912014371111722</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03651584873572191</v>
+        <v>0.01198978870767609</v>
       </c>
       <c r="J88" t="n">
-        <v>0.09292085773605618</v>
+        <v>0.05912014371111722</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03660715239847619</v>
+        <v>0.01198978870767609</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2359249706418751</v>
+        <v>0.2371739814156837</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03658931399625406</v>
+        <v>0.02238391501420131</v>
       </c>
       <c r="N88" t="n">
-        <v>0.3765302117533291</v>
+        <v>0.3824371848984501</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03663115716196027</v>
+        <v>0.02235954060979607</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.05769935164883125</v>
+        <v>0.05957052094970661</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03810349433292721</v>
+        <v>0.01251108386887939</v>
       </c>
       <c r="J89" t="n">
-        <v>0.09303996700604653</v>
+        <v>0.05957052094970661</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03819876772014906</v>
+        <v>0.01251108386887939</v>
       </c>
       <c r="L89" t="n">
-        <v>0.2370739948668022</v>
+        <v>0.2387115599692662</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03818015373522163</v>
+        <v>0.02335712871047093</v>
       </c>
       <c r="N89" t="n">
-        <v>0.3797901449698141</v>
+        <v>0.3859501856949717</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03822381616900202</v>
+        <v>0.02333169454935242</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.06201862424175845</v>
+        <v>0.06000999419554875</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03969113993013251</v>
+        <v>0.0130323790300827</v>
       </c>
       <c r="J90" t="n">
-        <v>0.09346926052441873</v>
+        <v>0.06000999419554875</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03979038304182194</v>
+        <v>0.0130323790300827</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2372942046246784</v>
+        <v>0.2385899716295622</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0397709934741892</v>
+        <v>0.02433034240674056</v>
       </c>
       <c r="N90" t="n">
-        <v>0.3820875122517629</v>
+        <v>0.3851824274724129</v>
       </c>
       <c r="O90" t="n">
-        <v>0.03981647517604377</v>
+        <v>0.02430384848890877</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.05727286725139751</v>
+        <v>0.06043869603399883</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04127878552733781</v>
+        <v>0.01355367419128601</v>
       </c>
       <c r="J91" t="n">
-        <v>0.09450187537149762</v>
+        <v>0.06043869603399883</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04138199836349482</v>
+        <v>0.01355367419128601</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2378682376056744</v>
+        <v>0.2403270495873644</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04136183321315676</v>
+        <v>0.02530355610301018</v>
       </c>
       <c r="N91" t="n">
-        <v>0.3827943461404626</v>
+        <v>0.38736826439125</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04140913418308553</v>
+        <v>0.02527600242846513</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.06245761356106232</v>
+        <v>0.06085675905041202</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04286643112454311</v>
+        <v>0.01407496935248932</v>
       </c>
       <c r="J92" t="n">
-        <v>0.09453094862760797</v>
+        <v>0.06085675905041202</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0429736136851677</v>
+        <v>0.01407496935248932</v>
       </c>
       <c r="L92" t="n">
-        <v>0.238678731499961</v>
+        <v>0.241848861077079</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04295267295212434</v>
+        <v>0.0262767697992798</v>
       </c>
       <c r="N92" t="n">
-        <v>0.3851826791772008</v>
+        <v>0.3882401421781458</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04300179319012727</v>
+        <v>0.02624815636802148</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.06260116920689208</v>
+        <v>0.06126431583014341</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04445407672174841</v>
+        <v>0.01459626451369263</v>
       </c>
       <c r="J93" t="n">
-        <v>0.09545757997601201</v>
+        <v>0.06126431583014341</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04456522900684057</v>
+        <v>0.01459626451369263</v>
       </c>
       <c r="L93" t="n">
-        <v>0.241848861077079</v>
+        <v>0.240148537158657</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04454351269109191</v>
+        <v>0.02724998349554942</v>
       </c>
       <c r="N93" t="n">
-        <v>0.3841245439032647</v>
+        <v>0.3849393024108357</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04459445219716902</v>
+        <v>0.02722031030757783</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.05860096335155779</v>
+        <v>0.06166149895854825</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0460417223189537</v>
+        <v>0.01511755967489593</v>
       </c>
       <c r="J94" t="n">
-        <v>0.09485101868822229</v>
+        <v>0.06166149895854825</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04615684432851345</v>
+        <v>0.01511755967489593</v>
       </c>
       <c r="L94" t="n">
-        <v>0.2411396527890888</v>
+        <v>0.2408910079145568</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04613435243005947</v>
+        <v>0.02822319719181904</v>
       </c>
       <c r="N94" t="n">
-        <v>0.3882401421781458</v>
+        <v>0.3863756876740135</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04618711120421078</v>
+        <v>0.02819246424713417</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.05657719891682048</v>
+        <v>0.06204844102098166</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04762936791615901</v>
+        <v>0.01563885483609924</v>
       </c>
       <c r="J95" t="n">
-        <v>0.09504358449541878</v>
+        <v>0.06204844102098166</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04774845965018633</v>
+        <v>0.01563885483609924</v>
       </c>
       <c r="L95" t="n">
-        <v>0.241304320539572</v>
+        <v>0.2397086855614971</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04772519216902704</v>
+        <v>0.02919641088808866</v>
       </c>
       <c r="N95" t="n">
-        <v>0.3877002486341806</v>
+        <v>0.3872149623711138</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04777977021125252</v>
+        <v>0.02916461818669053</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.06151561685787939</v>
+        <v>0.06242527460279877</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04921701351336431</v>
+        <v>0.01616014999730255</v>
       </c>
       <c r="J96" t="n">
-        <v>0.09467336455955391</v>
+        <v>0.06242527460279877</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04934007497185921</v>
+        <v>0.01616014999730255</v>
       </c>
       <c r="L96" t="n">
-        <v>0.2414145389004344</v>
+        <v>0.2392111052345869</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04931603190799461</v>
+        <v>0.03016962458435829</v>
       </c>
       <c r="N96" t="n">
-        <v>0.3864404908401708</v>
+        <v>0.3847628350728412</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04937242921829427</v>
+        <v>0.03013677212624688</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.05941857147405262</v>
+        <v>0.06279213228935479</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05080465911056961</v>
+        <v>0.01668144515850586</v>
       </c>
       <c r="J97" t="n">
-        <v>0.09514728193936883</v>
+        <v>0.06279213228935479</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05093169029353208</v>
+        <v>0.01668144515850586</v>
       </c>
       <c r="L97" t="n">
-        <v>0.2396841123752657</v>
+        <v>0.2406077097034855</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05090687164696218</v>
+        <v>0.03114283828062791</v>
       </c>
       <c r="N97" t="n">
-        <v>0.3841516104321447</v>
+        <v>0.3857250143499004</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05096508822533603</v>
+        <v>0.03110892606580323</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.05728841706465826</v>
+        <v>0.06314914666600485</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05239230470777492</v>
+        <v>0.01720274031970917</v>
       </c>
       <c r="J98" t="n">
-        <v>0.09416895359144789</v>
+        <v>0.06314914666600485</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05252330561520496</v>
+        <v>0.01720274031970917</v>
       </c>
       <c r="L98" t="n">
-        <v>0.2401221914020471</v>
+        <v>0.2400079417378526</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05249771138592975</v>
+        <v>0.03211605197689753</v>
       </c>
       <c r="N98" t="n">
-        <v>0.3839483470673804</v>
+        <v>0.3845072087729964</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05255774723237778</v>
+        <v>0.03208108000535958</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.05612750792901441</v>
+        <v>0.06349645031810411</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05397995030498021</v>
+        <v>0.01772403548091248</v>
       </c>
       <c r="J99" t="n">
-        <v>0.09434199647237568</v>
+        <v>0.06349645031810411</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05411492093687784</v>
+        <v>0.01772403548091248</v>
       </c>
       <c r="L99" t="n">
-        <v>0.2397379264187598</v>
+        <v>0.2378212441073476</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05408855112489732</v>
+        <v>0.03308926567316715</v>
       </c>
       <c r="N99" t="n">
-        <v>0.3857454404031563</v>
+        <v>0.3857151269128333</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05415040623941953</v>
+        <v>0.03305323394491593</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.05693819836643918</v>
+        <v>0.06383417583100774</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0555675959021855</v>
+        <v>0.01824533064211578</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0944700275387366</v>
+        <v>0.06383417583100774</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05570653625855072</v>
+        <v>0.01824533064211578</v>
       </c>
       <c r="L100" t="n">
-        <v>0.2379404678633852</v>
+        <v>0.2372570595816298</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05567939086386488</v>
+        <v>0.03406247936943678</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3826576300967507</v>
+        <v>0.3847544773401163</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05574306524646128</v>
+        <v>0.03402538788447228</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.05872284267625065</v>
+        <v>0.0641624557900709</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05715524149939081</v>
+        <v>0.01876662580331909</v>
       </c>
       <c r="J101" t="n">
-        <v>0.09375666374711505</v>
+        <v>0.0641624557900709</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05729815158022359</v>
+        <v>0.01876662580331909</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2377389661739045</v>
+        <v>0.2361248309303587</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05727023060283245</v>
+        <v>0.0350356930657064</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3826996558054422</v>
+        <v>0.3829309686255498</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05733572425350304</v>
+        <v>0.03499754182402864</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.05848379515776692</v>
+        <v>0.06448142278064874</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05874288709659611</v>
+        <v>0.0192879209645224</v>
       </c>
       <c r="J102" t="n">
-        <v>0.09370552205409557</v>
+        <v>0.06448142278064874</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05888976690189647</v>
+        <v>0.0192879209645224</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2364425717882991</v>
+        <v>0.2365340009231938</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05886107034180001</v>
+        <v>0.03600890676197602</v>
       </c>
       <c r="N102" t="n">
-        <v>0.3808862571865091</v>
+        <v>0.3820503093398384</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05892838326054478</v>
+        <v>0.03596969576358498</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.05922341011030609</v>
+        <v>0.06479120938809643</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06033053269380142</v>
+        <v>0.01980921612572571</v>
       </c>
       <c r="J103" t="n">
-        <v>0.09322021941626266</v>
+        <v>0.06479120938809643</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06048138222356935</v>
+        <v>0.01980921612572571</v>
       </c>
       <c r="L103" t="n">
-        <v>0.2368604351445502</v>
+        <v>0.2367940123297944</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06045191008076758</v>
+        <v>0.03698212045824564</v>
       </c>
       <c r="N103" t="n">
-        <v>0.3797321738972295</v>
+        <v>0.381418208053687</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06052104226758653</v>
+        <v>0.03694184970314134</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.05594404183318624</v>
+        <v>0.0650919481977691</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06191817829100671</v>
+        <v>0.02033051128692902</v>
       </c>
       <c r="J104" t="n">
-        <v>0.09310437279020067</v>
+        <v>0.0650919481977691</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06207299754524223</v>
+        <v>0.02033051128692902</v>
       </c>
       <c r="L104" t="n">
-        <v>0.2348017066806391</v>
+        <v>0.2352143079198201</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06204274981973516</v>
+        <v>0.03795533415451526</v>
       </c>
       <c r="N104" t="n">
-        <v>0.3787521455948822</v>
+        <v>0.3825403733378002</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06211370127462829</v>
+        <v>0.03791400364269768</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.05664804462572549</v>
+        <v>0.06538377179502196</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06350582388821201</v>
+        <v>0.02085180644813233</v>
       </c>
       <c r="J105" t="n">
-        <v>0.09176159913249413</v>
+        <v>0.06538377179502196</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0636646128669151</v>
+        <v>0.02085180644813233</v>
       </c>
       <c r="L105" t="n">
-        <v>0.2331755368345471</v>
+        <v>0.2339043304629304</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06363358955870271</v>
+        <v>0.03892854785078489</v>
       </c>
       <c r="N105" t="n">
-        <v>0.3766609119367453</v>
+        <v>0.3810225137628826</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06370636028167004</v>
+        <v>0.03888615758225404</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.05833777278724193</v>
+        <v>0.06566681276521012</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06509346948541732</v>
+        <v>0.02137310160933563</v>
       </c>
       <c r="J106" t="n">
-        <v>0.09169551539972753</v>
+        <v>0.06566681276521012</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06525622818858798</v>
+        <v>0.02137310160933563</v>
       </c>
       <c r="L106" t="n">
-        <v>0.2330910760442554</v>
+        <v>0.2320735227287845</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06522442929767029</v>
+        <v>0.03990176154705451</v>
       </c>
       <c r="N106" t="n">
-        <v>0.371573212580097</v>
+        <v>0.380170337899639</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06529901928871178</v>
+        <v>0.03985831152181039</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.05401558061705367</v>
+        <v>0.06594120369368876</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06668111508262262</v>
+        <v>0.02189439677053894</v>
       </c>
       <c r="J107" t="n">
-        <v>0.09170973854848524</v>
+        <v>0.06594120369368876</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06684784351026087</v>
+        <v>0.02189439677053894</v>
       </c>
       <c r="L107" t="n">
-        <v>0.2317574747477454</v>
+        <v>0.231731327487042</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06681526903663786</v>
+        <v>0.04087497524332413</v>
       </c>
       <c r="N107" t="n">
-        <v>0.3731037871822161</v>
+        <v>0.3769895543187738</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06689167829575354</v>
+        <v>0.04083046546136674</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.05968382241447877</v>
+        <v>0.06620707716581306</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06826876067982791</v>
+        <v>0.02241569193174225</v>
       </c>
       <c r="J108" t="n">
-        <v>0.09070788553535178</v>
+        <v>0.06620707716581306</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06843945883193374</v>
+        <v>0.02241569193174225</v>
       </c>
       <c r="L108" t="n">
-        <v>0.2289838833829982</v>
+        <v>0.2319871875073624</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06840610877560542</v>
+        <v>0.04184818893959376</v>
       </c>
       <c r="N108" t="n">
-        <v>0.3700673754003805</v>
+        <v>0.3762858715909922</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06848433730279528</v>
+        <v>0.04180261940092309</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.05834485247883536</v>
+        <v>0.06646456576693813</v>
       </c>
       <c r="G109" t="n">
-        <v>0.06985640627703321</v>
+        <v>0.02293698709294556</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0897935733169116</v>
+        <v>0.06646456576693813</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07003107415360661</v>
+        <v>0.02293698709294556</v>
       </c>
       <c r="L109" t="n">
-        <v>0.2294794523879952</v>
+        <v>0.229550545559405</v>
       </c>
       <c r="M109" t="n">
-        <v>0.069996948514573</v>
+        <v>0.04282140263586337</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3686787168918691</v>
+        <v>0.3785649982869984</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07007699630983703</v>
+        <v>0.04277477334047944</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.05900102510944154</v>
+        <v>0.06671380208241919</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07144405187423851</v>
+        <v>0.02345828225414887</v>
       </c>
       <c r="J110" t="n">
-        <v>0.08947041884974916</v>
+        <v>0.06671380208241919</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0716226894752795</v>
+        <v>0.02345828225414887</v>
       </c>
       <c r="L110" t="n">
-        <v>0.2270533322007177</v>
+        <v>0.2303308444128293</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07158778825354056</v>
+        <v>0.043794616332133</v>
       </c>
       <c r="N110" t="n">
-        <v>0.3669525513139598</v>
+        <v>0.3767326429774973</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07166965531687879</v>
+        <v>0.04374692728003579</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.05565469460561537</v>
+        <v>0.06695491869761135</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07303169747144382</v>
+        <v>0.02397957741535217</v>
       </c>
       <c r="J111" t="n">
-        <v>0.08924203909044892</v>
+        <v>0.06695491869761135</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07321430479695237</v>
+        <v>0.02397957741535217</v>
       </c>
       <c r="L111" t="n">
-        <v>0.225714673259147</v>
+        <v>0.2289375268372948</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07317862799250813</v>
+        <v>0.04476783002840262</v>
       </c>
       <c r="N111" t="n">
-        <v>0.3612036183239313</v>
+        <v>0.3733945142331935</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07326231432392054</v>
+        <v>0.04471908121959214</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05530821526667498</v>
+        <v>0.0671880481978698</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07461934306864912</v>
+        <v>0.02450087257655548</v>
       </c>
       <c r="J112" t="n">
-        <v>0.08911205099559535</v>
+        <v>0.0671880481978698</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07480592011862526</v>
+        <v>0.02450087257655548</v>
       </c>
       <c r="L112" t="n">
-        <v>0.2252726260012643</v>
+        <v>0.2267800356024608</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07476946773147569</v>
+        <v>0.04574104372467224</v>
       </c>
       <c r="N112" t="n">
-        <v>0.3626466575790617</v>
+        <v>0.3726563206247918</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07485497333096229</v>
+        <v>0.0456912351591485</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05796394139193846</v>
+        <v>0.06741332316854966</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07620698866585442</v>
+        <v>0.02502216773775879</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0879840715217729</v>
+        <v>0.06741332316854966</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07639753544029812</v>
+        <v>0.02502216773775879</v>
       </c>
       <c r="L113" t="n">
-        <v>0.2229363408650509</v>
+        <v>0.2253678134779869</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07636030747044327</v>
+        <v>0.04671425742094187</v>
       </c>
       <c r="N113" t="n">
-        <v>0.3574964087366295</v>
+        <v>0.3728237707229966</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07644763233800404</v>
+        <v>0.04666338909870484</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05562182508583202</v>
+        <v>0.06763087619500614</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07779463426305971</v>
+        <v>0.0255434628989621</v>
       </c>
       <c r="J114" t="n">
-        <v>0.08776171762556603</v>
+        <v>0.06763087619500614</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07798915076197101</v>
+        <v>0.0255434628989621</v>
       </c>
       <c r="L114" t="n">
-        <v>0.2230149682884881</v>
+        <v>0.2251103032335325</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07795114720941083</v>
+        <v>0.04768747111721149</v>
       </c>
       <c r="N114" t="n">
-        <v>0.3568676114539133</v>
+        <v>0.3707025730985128</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0780402913450458</v>
+        <v>0.0476355430382612</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0552422801412462</v>
+        <v>0.06784083986259436</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07938227986026501</v>
+        <v>0.0260647580601654</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0875105613325193</v>
+        <v>0.06784083986259436</v>
       </c>
       <c r="K115" t="n">
-        <v>0.07958076608364388</v>
+        <v>0.0260647580601654</v>
       </c>
       <c r="L115" t="n">
-        <v>0.2197053985165515</v>
+        <v>0.225516947638757</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0795419869483784</v>
+        <v>0.04866068481348111</v>
       </c>
       <c r="N115" t="n">
-        <v>0.3527515668207171</v>
+        <v>0.369598436322045</v>
       </c>
       <c r="O115" t="n">
-        <v>0.07963295035208755</v>
+        <v>0.04860769697781755</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05381640980304736</v>
+        <v>0.06804334675666948</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08096992545747032</v>
+        <v>0.02658605322136871</v>
       </c>
       <c r="J116" t="n">
-        <v>0.08688447627512469</v>
+        <v>0.06804334675666948</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08117238140531675</v>
+        <v>0.02658605322136871</v>
       </c>
       <c r="L116" t="n">
-        <v>0.2189072833508774</v>
+        <v>0.22479718946332</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08113282668734596</v>
+        <v>0.04963389850975073</v>
       </c>
       <c r="N116" t="n">
-        <v>0.3536312818306686</v>
+        <v>0.370417068964298</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0812256093591293</v>
+        <v>0.0495798509173739</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05635188465983554</v>
+        <v>0.06823852946258671</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08255757105467562</v>
+        <v>0.02710734838257202</v>
       </c>
       <c r="J117" t="n">
-        <v>0.08589480314416764</v>
+        <v>0.06823852946258671</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08276399672698964</v>
+        <v>0.02710734838257202</v>
       </c>
       <c r="L117" t="n">
-        <v>0.2164503712134869</v>
+        <v>0.2251604714768807</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08272366642631353</v>
+        <v>0.05060711220602036</v>
       </c>
       <c r="N117" t="n">
-        <v>0.3480473778134347</v>
+        <v>0.3679641795959764</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08281826836617105</v>
+        <v>0.05055200485693025</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.05285637530021081</v>
+        <v>0.06842652056570117</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08414521665188091</v>
+        <v>0.02762864354377533</v>
       </c>
       <c r="J118" t="n">
-        <v>0.08515332641655401</v>
+        <v>0.06842652056570117</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08435561204866251</v>
+        <v>0.02762864354377533</v>
       </c>
       <c r="L118" t="n">
-        <v>0.2140644753251227</v>
+        <v>0.2238162364490987</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08431450616528111</v>
+        <v>0.05158032590228998</v>
       </c>
       <c r="N118" t="n">
-        <v>0.3476478783343369</v>
+        <v>0.3686454767877848</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0844109273732128</v>
+        <v>0.0515241587964866</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05333755231277319</v>
+        <v>0.068607452651368</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08573286224908622</v>
+        <v>0.02814993870497864</v>
       </c>
       <c r="J119" t="n">
-        <v>0.08387183056918979</v>
+        <v>0.068607452651368</v>
       </c>
       <c r="K119" t="n">
-        <v>0.0859472273703354</v>
+        <v>0.02814993870497864</v>
       </c>
       <c r="L119" t="n">
-        <v>0.2142794089065277</v>
+        <v>0.2224739271496333</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08590534590424867</v>
+        <v>0.05255353959855959</v>
       </c>
       <c r="N119" t="n">
-        <v>0.3430808069586957</v>
+        <v>0.369466669110428</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08600358638025454</v>
+        <v>0.05249631273604295</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.05280308628612279</v>
+        <v>0.06878145830494235</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08732050784629151</v>
+        <v>0.02867123386618195</v>
       </c>
       <c r="J120" t="n">
-        <v>0.08356210007898074</v>
+        <v>0.06878145830494235</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08753884269200826</v>
+        <v>0.02867123386618195</v>
       </c>
       <c r="L120" t="n">
-        <v>0.2109249851784442</v>
+        <v>0.2240429863481442</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08749618564321625</v>
+        <v>0.05352675329482923</v>
       </c>
       <c r="N120" t="n">
-        <v>0.3386941872518328</v>
+        <v>0.3681334651346106</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08759624538729631</v>
+        <v>0.0534684666755993</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.05226064780885964</v>
+        <v>0.06894867011177948</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08890815344349683</v>
+        <v>0.02919252902738526</v>
       </c>
       <c r="J121" t="n">
-        <v>0.08273591942283284</v>
+        <v>0.06894867011177948</v>
       </c>
       <c r="K121" t="n">
-        <v>0.08913045801368115</v>
+        <v>0.02919252902738526</v>
       </c>
       <c r="L121" t="n">
-        <v>0.2090310173616151</v>
+        <v>0.2222328568142906</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08908702538218381</v>
+        <v>0.05449996699109884</v>
       </c>
       <c r="N121" t="n">
-        <v>0.3374360427790693</v>
+        <v>0.3680515734310373</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08918890439433805</v>
+        <v>0.05444062061515565</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05271790746958378</v>
+        <v>0.06910922065723445</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09049579904070212</v>
+        <v>0.02971382418858856</v>
       </c>
       <c r="J122" t="n">
-        <v>0.08210507307765197</v>
+        <v>0.06910922065723445</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09072207333535402</v>
+        <v>0.02971382418858856</v>
       </c>
       <c r="L122" t="n">
-        <v>0.206827318676783</v>
+        <v>0.2223299203328781</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09067786512115138</v>
+        <v>0.05547318068736846</v>
       </c>
       <c r="N122" t="n">
-        <v>0.3340543971057263</v>
+        <v>0.3654063252825587</v>
       </c>
       <c r="O122" t="n">
-        <v>0.0907815634013798</v>
+        <v>0.055412774554712</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0471825358568953</v>
+        <v>0.06926324252666244</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09208344463790741</v>
+        <v>0.03023511934979187</v>
       </c>
       <c r="J123" t="n">
-        <v>0.08108134552034396</v>
+        <v>0.06926324252666244</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09231368865702691</v>
+        <v>0.03023511934979187</v>
       </c>
       <c r="L123" t="n">
-        <v>0.2042437023446906</v>
+        <v>0.2240581594154085</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09226870486011894</v>
+        <v>0.05644639438363808</v>
       </c>
       <c r="N123" t="n">
-        <v>0.3295972737971249</v>
+        <v>0.3661591512330319</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09237422240842155</v>
+        <v>0.05638492849426835</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04766220355939423</v>
+        <v>0.06941086830541861</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09367109023511272</v>
+        <v>0.03075641451099518</v>
       </c>
       <c r="J124" t="n">
-        <v>0.07967652122781479</v>
+        <v>0.06941086830541861</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09390530397869978</v>
+        <v>0.03075641451099518</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2039099815860805</v>
+        <v>0.2228089077995104</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09385954459908652</v>
+        <v>0.0574196080799077</v>
       </c>
       <c r="N124" t="n">
-        <v>0.3279126964185863</v>
+        <v>0.3643097578695308</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0939668814154633</v>
+        <v>0.05735708243382471</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04816458116568065</v>
+        <v>0.06955223057885816</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09525873583231802</v>
+        <v>0.03127770967219849</v>
       </c>
       <c r="J125" t="n">
-        <v>0.07980238467697029</v>
+        <v>0.06955223057885816</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09549691930037266</v>
+        <v>0.03127770967219849</v>
       </c>
       <c r="L125" t="n">
-        <v>0.2000559696216954</v>
+        <v>0.2219801291325965</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09545038433805408</v>
+        <v>0.05839282177617733</v>
       </c>
       <c r="N125" t="n">
-        <v>0.3214486885354318</v>
+        <v>0.3657590557327503</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09555954042250504</v>
+        <v>0.05832923637338106</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04666451226859157</v>
+        <v>0.06968746193233619</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09684638142952333</v>
+        <v>0.03179900483340179</v>
       </c>
       <c r="J126" t="n">
-        <v>0.07825235838933353</v>
+        <v>0.06968746193233619</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09708853462204554</v>
+        <v>0.03179900483340179</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1987523461649454</v>
+        <v>0.2237697870620797</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09704122407702165</v>
+        <v>0.05936603547244695</v>
       </c>
       <c r="N126" t="n">
-        <v>0.3218020312838473</v>
+        <v>0.3649079553633853</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09715219942954681</v>
+        <v>0.05930139031293741</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05111880555488112</v>
+        <v>0.0698166949512079</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09843402702672861</v>
+        <v>0.0323202999946051</v>
       </c>
       <c r="J127" t="n">
-        <v>0.07744062672345683</v>
+        <v>0.0698166949512079</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09868014994371842</v>
+        <v>0.0323202999946051</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1965852531435443</v>
+        <v>0.2235758452353729</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09863206381598921</v>
+        <v>0.06033924916871657</v>
       </c>
       <c r="N127" t="n">
-        <v>0.3163238182973642</v>
+        <v>0.3636573673021308</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09874485843658855</v>
+        <v>0.06027354425249376</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04453772605690197</v>
+        <v>0.06994006222082842</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1000216726239339</v>
+        <v>0.03284159515580841</v>
       </c>
       <c r="J128" t="n">
-        <v>0.07686892241818821</v>
+        <v>0.06994006222082842</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1002717652653913</v>
+        <v>0.03284159515580841</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1946692135483355</v>
+        <v>0.222596267299889</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1002229035549568</v>
+        <v>0.0613124628649862</v>
       </c>
       <c r="N128" t="n">
-        <v>0.31139519587036</v>
+        <v>0.3618082020896815</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1003375174436303</v>
+        <v>0.06124569819205011</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04893225422448219</v>
+        <v>0.07005769632655291</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1016093182211392</v>
+        <v>0.03336289031701172</v>
       </c>
       <c r="J129" t="n">
-        <v>0.07565411495567056</v>
+        <v>0.07005769632655291</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1018633805870642</v>
+        <v>0.03336289031701172</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1934469050135458</v>
+        <v>0.2241290169030409</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1018137432939244</v>
+        <v>0.06228567656125582</v>
       </c>
       <c r="N129" t="n">
-        <v>0.3090849097506606</v>
+        <v>0.3608613702667325</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1019301764506721</v>
+        <v>0.06221785213160646</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04431337050744985</v>
+        <v>0.0701697298537366</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1031969638183445</v>
+        <v>0.03388418547821503</v>
       </c>
       <c r="J130" t="n">
-        <v>0.07481307381804708</v>
+        <v>0.0701697298537366</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1034549959087371</v>
+        <v>0.03388418547821503</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1911610051734021</v>
+        <v>0.2243720576922415</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1034045830328919</v>
+        <v>0.06325889025752544</v>
       </c>
       <c r="N130" t="n">
-        <v>0.3053617056860917</v>
+        <v>0.3610177823739787</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1035228354577138</v>
+        <v>0.0631900060711628</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04869205535563308</v>
+        <v>0.07027629538773457</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1047846094155498</v>
+        <v>0.03440548063941834</v>
       </c>
       <c r="J131" t="n">
-        <v>0.07376266848746076</v>
+        <v>0.07027629538773457</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1050466112304099</v>
+        <v>0.03440548063941834</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1877541916621315</v>
+        <v>0.2233233533149035</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1049954227718595</v>
+        <v>0.06423210395379507</v>
       </c>
       <c r="N131" t="n">
-        <v>0.3009943294244793</v>
+        <v>0.358878348952115</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1051154944647556</v>
+        <v>0.06416216001071916</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04507928921885995</v>
+        <v>0.07037752551390199</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1063722550127551</v>
+        <v>0.03492677580062165</v>
       </c>
       <c r="J132" t="n">
-        <v>0.07331976844605469</v>
+        <v>0.07037752551390199</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1066382265520828</v>
+        <v>0.03492677580062165</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1858691421139609</v>
+        <v>0.22288086741844</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1065862625108271</v>
+        <v>0.0652053176500647</v>
       </c>
       <c r="N132" t="n">
-        <v>0.2993515267136492</v>
+        <v>0.3602439805418361</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1067081534717973</v>
+        <v>0.06513431395027551</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04148605254695856</v>
+        <v>0.07047355281759402</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1079599006099604</v>
+        <v>0.03544807096182495</v>
       </c>
       <c r="J133" t="n">
-        <v>0.07270124317597187</v>
+        <v>0.07047355281759402</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1082298418737557</v>
+        <v>0.03544807096182495</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1823485341631172</v>
+        <v>0.2251425636502638</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1081771022497946</v>
+        <v>0.06617853134633431</v>
       </c>
       <c r="N133" t="n">
-        <v>0.2928020433014271</v>
+        <v>0.3569155876838371</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1083008124788391</v>
+        <v>0.06610646788983186</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04192332578975699</v>
+        <v>0.07056450988416585</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1095475462071657</v>
+        <v>0.03596936612302826</v>
       </c>
       <c r="J134" t="n">
-        <v>0.07182396215935544</v>
+        <v>0.07056450988416585</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1098214571954286</v>
+        <v>0.03596936612302826</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1809350454438275</v>
+        <v>0.2245064056577877</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1097679419887622</v>
+        <v>0.06715174504260393</v>
       </c>
       <c r="N134" t="n">
-        <v>0.2921146249356388</v>
+        <v>0.358094080918813</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1098934714858808</v>
+        <v>0.06707862182938822</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04340208939708333</v>
+        <v>0.0706505292989726</v>
       </c>
       <c r="G135" t="n">
-        <v>0.111135191804371</v>
+        <v>0.03649066128423157</v>
       </c>
       <c r="J135" t="n">
-        <v>0.07020479487834841</v>
+        <v>0.0706505292989726</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1114130725171014</v>
+        <v>0.03649066128423157</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1780713535903185</v>
+        <v>0.2255703570884247</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1113587817277298</v>
+        <v>0.06812495873887356</v>
       </c>
       <c r="N135" t="n">
-        <v>0.2870580173641102</v>
+        <v>0.3556803707874585</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1114861304929226</v>
+        <v>0.06805077576894457</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04593332381876566</v>
+        <v>0.07073174364736949</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1127228374015763</v>
+        <v>0.03701195644543488</v>
       </c>
       <c r="J136" t="n">
-        <v>0.06956061081509383</v>
+        <v>0.07073174364736949</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1130046878387743</v>
+        <v>0.03701195644543488</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1768001362368173</v>
+        <v>0.2243323815895877</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1129496214666973</v>
+        <v>0.06909817243514318</v>
       </c>
       <c r="N136" t="n">
-        <v>0.2833009663346671</v>
+        <v>0.3561753678304685</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1130787894999643</v>
+        <v>0.06902292970850092</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04052800950463209</v>
+        <v>0.07080828551471161</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1143104829987816</v>
+        <v>0.03753325160663818</v>
       </c>
       <c r="J137" t="n">
-        <v>0.06950827945173481</v>
+        <v>0.07080828551471161</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1145963031604472</v>
+        <v>0.03753325160663818</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1761640710175509</v>
+        <v>0.2258904428086894</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1145404612056649</v>
+        <v>0.0700713861314128</v>
       </c>
       <c r="N137" t="n">
-        <v>0.2819122175951355</v>
+        <v>0.357379982588538</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1146714485070061</v>
+        <v>0.06999508364805727</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04119712690451069</v>
+        <v>0.07088028748635414</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1158981285959869</v>
+        <v>0.03805454676784149</v>
       </c>
       <c r="J138" t="n">
-        <v>0.06896467027041438</v>
+        <v>0.07088028748635414</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1161879184821201</v>
+        <v>0.03805454676784149</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1744058355667461</v>
+        <v>0.224142504393143</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1161313009446325</v>
+        <v>0.07104459982768241</v>
       </c>
       <c r="N138" t="n">
-        <v>0.2803605168933407</v>
+        <v>0.3574951256023621</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1162641075140478</v>
+        <v>0.07096723758761363</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04095165646822957</v>
+        <v>0.07094788214765228</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1174857741931922</v>
+        <v>0.0385758419290448</v>
       </c>
       <c r="J139" t="n">
-        <v>0.06854665275327558</v>
+        <v>0.07094788214765228</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1177795338037929</v>
+        <v>0.0385758419290448</v>
       </c>
       <c r="L139" t="n">
-        <v>0.17306810751863</v>
+        <v>0.224386529990361</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1177221406836</v>
+        <v>0.07201781352395203</v>
       </c>
       <c r="N139" t="n">
-        <v>0.2777146099771091</v>
+        <v>0.3570217074126353</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1178567665210896</v>
+        <v>0.07193939152716997</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0388025786456168</v>
+        <v>0.07101120208396115</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1190734197903975</v>
+        <v>0.03909713709024811</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0675710963824615</v>
+        <v>0.07101120208396115</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1193711491254658</v>
+        <v>0.03909713709024811</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1713935645074295</v>
+        <v>0.2239204832477566</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1193129804225676</v>
+        <v>0.07299102722022166</v>
       </c>
       <c r="N140" t="n">
-        <v>0.2751432425942661</v>
+        <v>0.3547606385600527</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1194494255281313</v>
+        <v>0.07291154546672632</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04175998638559543</v>
+        <v>0.0710703798806359</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1206610653876028</v>
+        <v>0.03961843225145142</v>
       </c>
       <c r="J141" t="n">
-        <v>0.06805487064011517</v>
+        <v>0.0710703798806359</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1209627644471387</v>
+        <v>0.03961843225145142</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1712248841673713</v>
+        <v>0.2259423278127425</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1209038201615352</v>
+        <v>0.07396424091649129</v>
       </c>
       <c r="N141" t="n">
-        <v>0.2767151604926376</v>
+        <v>0.3544128295853092</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1210420845351731</v>
+        <v>0.07388369940628267</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04477058052503141</v>
+        <v>0.07112554812303169</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1222487109848081</v>
+        <v>0.04013972741265472</v>
       </c>
       <c r="J142" t="n">
-        <v>0.06786096164711869</v>
+        <v>0.07112554812303169</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1225543797688116</v>
+        <v>0.04013972741265472</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1711475087101804</v>
+        <v>0.2257500273327316</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1224946599005027</v>
+        <v>0.07493745461276091</v>
       </c>
       <c r="N142" t="n">
-        <v>0.2773209051747303</v>
+        <v>0.3537791910290999</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1226347435422148</v>
+        <v>0.07485585334583902</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04479730584244475</v>
+        <v>0.07117683939650374</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1238363565820134</v>
+        <v>0.04066102257385804</v>
       </c>
       <c r="J143" t="n">
-        <v>0.06789445452191221</v>
+        <v>0.07117683939650374</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1241459950904845</v>
+        <v>0.04066102257385804</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1722359886884319</v>
+        <v>0.2266415454551369</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1240854996394703</v>
+        <v>0.07591066830903052</v>
       </c>
       <c r="N143" t="n">
-        <v>0.2747492615908562</v>
+        <v>0.3535606334321195</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1242274025492566</v>
+        <v>0.07582800728539536</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0398393554983819</v>
+        <v>0.07122438628640712</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1254240021792187</v>
+        <v>0.04118231773506134</v>
       </c>
       <c r="J144" t="n">
-        <v>0.06795180585121778</v>
+        <v>0.07122438628640712</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1257376104121573</v>
+        <v>0.04118231773506134</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1719846719421037</v>
+        <v>0.2262148458273711</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1256763393784379</v>
+        <v>0.07688388200530015</v>
       </c>
       <c r="N144" t="n">
-        <v>0.2766751817231572</v>
+        <v>0.3529580673350628</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1258200615562983</v>
+        <v>0.07680016122495172</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04289592265338932</v>
+        <v>0.07126832137809708</v>
       </c>
       <c r="G145" t="n">
-        <v>0.127011647776424</v>
+        <v>0.04170361289626465</v>
       </c>
       <c r="J145" t="n">
-        <v>0.06813177607163254</v>
+        <v>0.07126832137809708</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1273292257338302</v>
+        <v>0.04170361289626465</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1714904225341788</v>
+        <v>0.2247678920968472</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1272671791174054</v>
+        <v>0.07785709570156978</v>
       </c>
       <c r="N145" t="n">
-        <v>0.2779936141591254</v>
+        <v>0.3528724032786247</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1274127205633401</v>
+        <v>0.07777231516450808</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04196620046801347</v>
+        <v>0.07130877725692869</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1285992933736293</v>
+        <v>0.04222490805746796</v>
       </c>
       <c r="J146" t="n">
-        <v>0.06853312561975362</v>
+        <v>0.07130877725692869</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1289208410555031</v>
+        <v>0.04222490805746796</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1729501045276402</v>
+        <v>0.2249986479109781</v>
       </c>
       <c r="M146" t="n">
-        <v>0.128858018856373</v>
+        <v>0.0788303093978394</v>
       </c>
       <c r="N146" t="n">
-        <v>0.2771995074862523</v>
+        <v>0.3502045518035006</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1290053795703818</v>
+        <v>0.07874446910406444</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04404938210280082</v>
+        <v>0.07134588650825717</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1301869389708346</v>
+        <v>0.04274620321867127</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0686546149321782</v>
+        <v>0.07134588650825717</v>
       </c>
       <c r="K147" t="n">
-        <v>0.130512456377176</v>
+        <v>0.04274620321867127</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1718605819854713</v>
+        <v>0.2249049389224734</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1304488585953406</v>
+        <v>0.07980352309410903</v>
       </c>
       <c r="N147" t="n">
-        <v>0.2766878102920294</v>
+        <v>0.3530553455034898</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1305980385774236</v>
+        <v>0.07971662304362077</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04014466071829782</v>
+        <v>0.07137978171743765</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1317745845680399</v>
+        <v>0.04326749837987458</v>
       </c>
       <c r="J148" t="n">
-        <v>0.06849500444550338</v>
+        <v>0.07137978171743765</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1321040716988489</v>
+        <v>0.04326749837987458</v>
       </c>
       <c r="L148" t="n">
-        <v>0.173618718970655</v>
+        <v>0.2248823753400926</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1320396983343081</v>
+        <v>0.08077673679037864</v>
       </c>
       <c r="N148" t="n">
-        <v>0.2772534711639486</v>
+        <v>0.3509242633452372</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1321906975844653</v>
+        <v>0.08068877698317713</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04325122947505095</v>
+        <v>0.07141059546982534</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1333622301652452</v>
+        <v>0.04378879354107788</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0688530545963263</v>
+        <v>0.07141059546982534</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1336956870205217</v>
+        <v>0.04378879354107788</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1737213795461744</v>
+        <v>0.2264303567809624</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1336305380732757</v>
+        <v>0.08174995048664827</v>
       </c>
       <c r="N149" t="n">
-        <v>0.2799914386895012</v>
+        <v>0.3501101802019848</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1337833565915071</v>
+        <v>0.08166093092273348</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04436828153360661</v>
+        <v>0.07143846035077531</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1349498757624505</v>
+        <v>0.04431008870228119</v>
       </c>
       <c r="J150" t="n">
-        <v>0.06822752582124417</v>
+        <v>0.07143846035077531</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1352873023421946</v>
+        <v>0.04431008870228119</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1729654277750126</v>
+        <v>0.2244498718995225</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1352213778122433</v>
+        <v>0.08272316418291789</v>
       </c>
       <c r="N150" t="n">
-        <v>0.2776966614561792</v>
+        <v>0.3485120632720124</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1353760155985488</v>
+        <v>0.08263308486228983</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04049501005451132</v>
+        <v>0.07146350894564278</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1365375213596558</v>
+        <v>0.04483138386348449</v>
       </c>
       <c r="J151" t="n">
-        <v>0.06891717855685404</v>
+        <v>0.07146350894564278</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1368789176638675</v>
+        <v>0.04483138386348449</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1745477277201528</v>
+        <v>0.2253419093502119</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1368122175512108</v>
+        <v>0.08369637787918752</v>
       </c>
       <c r="N151" t="n">
-        <v>0.2786640880514739</v>
+        <v>0.3493288797536011</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1369686746055906</v>
+        <v>0.08360523880184619</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04363060819831152</v>
+        <v>0.07148587383978292</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1381251669568611</v>
+        <v>0.04535267902468781</v>
       </c>
       <c r="J152" t="n">
-        <v>0.06862077323975312</v>
+        <v>0.07148587383978292</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1384705329855404</v>
+        <v>0.04535267902468781</v>
       </c>
       <c r="L152" t="n">
-        <v>0.175365143444578</v>
+        <v>0.2263074577874704</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1384030572901784</v>
+        <v>0.08466959157545713</v>
       </c>
       <c r="N152" t="n">
-        <v>0.2811886670628771</v>
+        <v>0.348259596845031</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1385613336126323</v>
+        <v>0.08457739274140252</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04477426912555368</v>
+        <v>0.07150568761855083</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1397128125540664</v>
+        <v>0.04587397418589111</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0697370703065385</v>
+        <v>0.07150568761855083</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1400621483072132</v>
+        <v>0.04587397418589111</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1750145390112714</v>
+        <v>0.2248475058657371</v>
       </c>
       <c r="M153" t="n">
-        <v>0.139993897029146</v>
+        <v>0.08564280527172674</v>
       </c>
       <c r="N153" t="n">
-        <v>0.2813653470778806</v>
+        <v>0.350203181744583</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1401539926196741</v>
+        <v>0.08554954668095888</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0449651316399578</v>
+        <v>0.07152308286730175</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1413004581512717</v>
+        <v>0.04639526934709443</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0690895803290727</v>
+        <v>0.07152308286730175</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1416537636288861</v>
+        <v>0.04639526934709443</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1773702913954031</v>
+        <v>0.2258630422394516</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1415847367681136</v>
+        <v>0.08661601896799637</v>
       </c>
       <c r="N154" t="n">
-        <v>0.2834616362487301</v>
+        <v>0.348458601650537</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1417466516267158</v>
+        <v>0.08652170062051523</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0462884447698232</v>
+        <v>0.07153819217139076</v>
       </c>
       <c r="G155" t="n">
-        <v>0.142888103748477</v>
+        <v>0.04691656450829773</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0697300901875624</v>
+        <v>0.07153819217139076</v>
       </c>
       <c r="K155" t="n">
-        <v>0.143245378950559</v>
+        <v>0.04691656450829773</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1764129495936029</v>
+        <v>0.2251550555630531</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1431755765070811</v>
+        <v>0.08758923266426599</v>
       </c>
       <c r="N155" t="n">
-        <v>0.284395055420171</v>
+        <v>0.347024823761174</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1433393106337576</v>
+        <v>0.08749385456007158</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04572459745777235</v>
+        <v>0.07155114811617309</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1444757493456823</v>
+        <v>0.04743785966950104</v>
       </c>
       <c r="J156" t="n">
-        <v>0.07055369823625891</v>
+        <v>0.07155114811617309</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1448369942722319</v>
+        <v>0.04743785966950104</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1778140180002825</v>
+        <v>0.224124534490981</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1447664162460487</v>
+        <v>0.08856244636053562</v>
       </c>
       <c r="N156" t="n">
-        <v>0.2876850312353288</v>
+        <v>0.3471008152747744</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1449319696407993</v>
+        <v>0.08846600849962794</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04424923316807931</v>
+        <v>0.07156208328700385</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1460633949428876</v>
+        <v>0.04795915483070435</v>
       </c>
       <c r="J157" t="n">
-        <v>0.07112298504782281</v>
+        <v>0.07156208328700385</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1464286095939047</v>
+        <v>0.04795915483070435</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1810788302457561</v>
+        <v>0.2231724676776748</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1463572559850163</v>
+        <v>0.08953566005680524</v>
       </c>
       <c r="N157" t="n">
-        <v>0.2887790737425945</v>
+        <v>0.3471855433896184</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1465246286478411</v>
+        <v>0.08943816243918429</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0448379953650181</v>
+        <v>0.07157113026923823</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1476510405400929</v>
+        <v>0.04848044999190766</v>
       </c>
       <c r="J158" t="n">
-        <v>0.07200053119491477</v>
+        <v>0.07157113026923823</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1480202249155776</v>
+        <v>0.04848044999190766</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1841127199603372</v>
+        <v>0.2237998437775738</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1479480957239838</v>
+        <v>0.09050887375307486</v>
       </c>
       <c r="N158" t="n">
-        <v>0.2923246929903601</v>
+        <v>0.3479779753039868</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1481172876548828</v>
+        <v>0.09041031637874064</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04846652751286286</v>
+        <v>0.07157842164823135</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1492386861372982</v>
+        <v>0.04900174515311097</v>
       </c>
       <c r="J159" t="n">
-        <v>0.07364891725019546</v>
+        <v>0.07157842164823135</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1496118402372505</v>
+        <v>0.04900174515311097</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1867210207743396</v>
+        <v>0.2242076514451174</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1495389354629514</v>
+        <v>0.09148208744934448</v>
       </c>
       <c r="N159" t="n">
-        <v>0.2992693990270163</v>
+        <v>0.3469770782161599</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1497099466619246</v>
+        <v>0.09138247031829699</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04711047307588757</v>
+        <v>0.07158409000933838</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1508263317345035</v>
+        <v>0.04952304031431427</v>
       </c>
       <c r="J160" t="n">
-        <v>0.07373072378632549</v>
+        <v>0.07158409000933838</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1512034555589234</v>
+        <v>0.04952304031431427</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1882090663180771</v>
+        <v>0.223996879334745</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1511297752019189</v>
+        <v>0.09245530114561411</v>
       </c>
       <c r="N160" t="n">
-        <v>0.3004607019009548</v>
+        <v>0.3460818193244184</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1513026056689663</v>
+        <v>0.09235462425785335</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04474547551836634</v>
+        <v>0.07158826793791452</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1524139773317088</v>
+        <v>0.05004433547551758</v>
       </c>
       <c r="J161" t="n">
-        <v>0.07510853137596554</v>
+        <v>0.07158826793791452</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1527950708805962</v>
+        <v>0.05004433547551758</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1900821902218634</v>
+        <v>0.2221685161008959</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1527206149408865</v>
+        <v>0.09342851484188373</v>
       </c>
       <c r="N161" t="n">
-        <v>0.3061461116605672</v>
+        <v>0.3452911658270424</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1528952646760081</v>
+        <v>0.09332677819740968</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04934717830457322</v>
+        <v>0.07159108801931489</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1540016229289141</v>
+        <v>0.05056563063672088</v>
       </c>
       <c r="J162" t="n">
-        <v>0.07604492059177628</v>
+        <v>0.07159108801931489</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1543866862022691</v>
+        <v>0.05056563063672088</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1929457261160122</v>
+        <v>0.2236235503980096</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1543114546798541</v>
+        <v>0.09440172853815336</v>
       </c>
       <c r="N162" t="n">
-        <v>0.3094731383542447</v>
+        <v>0.3452040849223127</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1544879236830498</v>
+        <v>0.09429893213696604</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04789122489878225</v>
+        <v>0.07159268283889468</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1555892685261194</v>
+        <v>0.0510869257979242</v>
       </c>
       <c r="J163" t="n">
-        <v>0.07690247200641837</v>
+        <v>0.07159268283889468</v>
       </c>
       <c r="K163" t="n">
-        <v>0.155978301523942</v>
+        <v>0.0510869257979242</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1945050076308373</v>
+        <v>0.2226629708805254</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1559022944188217</v>
+        <v>0.09537494223442297</v>
       </c>
       <c r="N163" t="n">
-        <v>0.3127892920303787</v>
+        <v>0.3473195438085098</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1560805826900916</v>
+        <v>0.09527108607652239</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04636155637665511</v>
+        <v>0.07159318498200899</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1571769141233247</v>
+        <v>0.05160822095912751</v>
       </c>
       <c r="J164" t="n">
-        <v>0.07784599843563128</v>
+        <v>0.07159318498200899</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1575699168456149</v>
+        <v>0.05160822095912751</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1956744500652976</v>
+        <v>0.2214877662028828</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1574931341577892</v>
+        <v>0.0963481559306926</v>
       </c>
       <c r="N164" t="n">
-        <v>0.315245829598683</v>
+        <v>0.3447365096839138</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1576732416971333</v>
+        <v>0.09624324001607874</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04780785910640942</v>
+        <v>0.07159318498200901</v>
       </c>
       <c r="G165" t="n">
-        <v>0.15876455972053</v>
+        <v>0.05160822095912751</v>
       </c>
       <c r="J165" t="n">
-        <v>0.07833245724311377</v>
+        <v>0.07159318498200901</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1591615321672878</v>
+        <v>0.05160822095912751</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1984106988602864</v>
+        <v>0.222098925019521</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1590839738967568</v>
+        <v>0.09732136962696222</v>
       </c>
       <c r="N165" t="n">
-        <v>0.3197441455138058</v>
+        <v>0.3440539497468059</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1592659007041751</v>
+        <v>0.0972153939556351</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04924357216300111</v>
+        <v>0.07041736098881946</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1603522053177353</v>
+        <v>0.0516079524306635</v>
       </c>
       <c r="J166" t="n">
-        <v>0.07940239439510074</v>
+        <v>0.07041736098881946</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1607531474889607</v>
+        <v>0.0516079524306635</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1994052745466346</v>
+        <v>0.2213974359848796</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1606748136357244</v>
+        <v>0.09829458332323185</v>
       </c>
       <c r="N166" t="n">
-        <v>0.322374863417104</v>
+        <v>0.3430708311954658</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1608585597112168</v>
+        <v>0.09818754789519143</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04966946820905131</v>
+        <v>0.06925454998120315</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1619398509149406</v>
+        <v>0.05160768390219948</v>
       </c>
       <c r="J167" t="n">
-        <v>0.08015699694845163</v>
+        <v>0.06925454998120315</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1623447628106335</v>
+        <v>0.05160768390219948</v>
       </c>
       <c r="L167" t="n">
-        <v>0.2014611802265138</v>
+        <v>0.2196842877533978</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1622656533746919</v>
+        <v>0.09926779701950146</v>
       </c>
       <c r="N167" t="n">
-        <v>0.3253428207488047</v>
+        <v>0.3433861212281745</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1624512187182586</v>
+        <v>0.0991597018347478</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04908631990718114</v>
+        <v>0.06810533381078834</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1635274965121459</v>
+        <v>0.05160741537373546</v>
       </c>
       <c r="J168" t="n">
-        <v>0.07989745196002618</v>
+        <v>0.06810533381078834</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1639363781323064</v>
+        <v>0.05160741537373546</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2031814190020959</v>
+        <v>0.2201604689795151</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1638564931136595</v>
+        <v>0.1002410107157711</v>
       </c>
       <c r="N168" t="n">
-        <v>0.3259528549491342</v>
+        <v>0.3455987870432123</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1640438777253003</v>
+        <v>0.1001318557743042</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05049489992001174</v>
+        <v>0.0669702943291027</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1651151421093512</v>
+        <v>0.05160714684527144</v>
       </c>
       <c r="J169" t="n">
-        <v>0.08052494648668387</v>
+        <v>0.0669702943291027</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1655279934539793</v>
+        <v>0.05160714684527144</v>
       </c>
       <c r="L169" t="n">
-        <v>0.2042689939755526</v>
+        <v>0.2193269683176708</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1654473328526271</v>
+        <v>0.1012142244120407</v>
       </c>
       <c r="N169" t="n">
-        <v>0.3299098034583196</v>
+        <v>0.3450077958388597</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1656365367323421</v>
+        <v>0.1011040097138605</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05089598091016424</v>
+        <v>0.06585001338777331</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1667027877065566</v>
+        <v>0.05160687831680742</v>
       </c>
       <c r="J170" t="n">
-        <v>0.08194066758528437</v>
+        <v>0.06585001338777331</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1671196087756522</v>
+        <v>0.05160687831680742</v>
       </c>
       <c r="L170" t="n">
-        <v>0.2070269082490556</v>
+        <v>0.2197847744223043</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1670381725915946</v>
+        <v>0.1021874381083103</v>
       </c>
       <c r="N170" t="n">
-        <v>0.3310185037165876</v>
+        <v>0.3455121148133973</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1672291957393839</v>
+        <v>0.1020761636534168</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05329033554025975</v>
+        <v>0.06474507283832905</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1682904333037618</v>
+        <v>0.0516066097883434</v>
       </c>
       <c r="J171" t="n">
-        <v>0.08194580231268717</v>
+        <v>0.06474507283832905</v>
       </c>
       <c r="K171" t="n">
-        <v>0.168711224097325</v>
+        <v>0.0516066097883434</v>
       </c>
       <c r="L171" t="n">
-        <v>0.2077581649247768</v>
+        <v>0.2201348759478552</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1686290123305622</v>
+        <v>0.10316065180458</v>
       </c>
       <c r="N171" t="n">
-        <v>0.335583793164165</v>
+        <v>0.3428107111651056</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1688218547464256</v>
+        <v>0.1030483175929732</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.05067873647291943</v>
+        <v>0.06365605453239566</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1698780789009671</v>
+        <v>0.05160634125987939</v>
       </c>
       <c r="J172" t="n">
-        <v>0.08274153772575191</v>
+        <v>0.06365605453239566</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1703028394189979</v>
+        <v>0.05160634125987939</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2088657671048877</v>
+        <v>0.2174782615487626</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1702198520695298</v>
+        <v>0.1041338655008496</v>
       </c>
       <c r="N172" t="n">
-        <v>0.3366105092412786</v>
+        <v>0.3426025520922646</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1704145137534673</v>
+        <v>0.1040204715325296</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.05506195637076437</v>
+        <v>0.06258354032150341</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1714657244981724</v>
+        <v>0.05160607273141537</v>
       </c>
       <c r="J173" t="n">
-        <v>0.08372906088133819</v>
+        <v>0.06258354032150341</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1718944547406708</v>
+        <v>0.05160607273141537</v>
       </c>
       <c r="L173" t="n">
-        <v>0.2112527178915601</v>
+        <v>0.2186159198794659</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1718106918084973</v>
+        <v>0.1051070791971192</v>
       </c>
       <c r="N173" t="n">
-        <v>0.3385034893881552</v>
+        <v>0.3442866047931553</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1720071727605091</v>
+        <v>0.1049926254720859</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04944076789641574</v>
+        <v>0.06152811205727669</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1730533700953777</v>
+        <v>0.05160580420295136</v>
       </c>
       <c r="J174" t="n">
-        <v>0.08370955883630551</v>
+        <v>0.06152811205727669</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1734860700623437</v>
+        <v>0.05160580420295136</v>
       </c>
       <c r="L174" t="n">
-        <v>0.2128220203869658</v>
+        <v>0.2177488395944045</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1734015315474649</v>
+        <v>0.1060802928933888</v>
       </c>
       <c r="N174" t="n">
-        <v>0.3395675710450214</v>
+        <v>0.3418618364660582</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1735998317675508</v>
+        <v>0.1059647794116422</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.05081594371249466</v>
+        <v>0.06049035159124717</v>
       </c>
       <c r="G175" t="n">
-        <v>0.174641015692583</v>
+        <v>0.05160553567448734</v>
       </c>
       <c r="J175" t="n">
-        <v>0.08428421864751356</v>
+        <v>0.06049035159124717</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1750776853840165</v>
+        <v>0.05160553567448734</v>
       </c>
       <c r="L175" t="n">
-        <v>0.2141766776932766</v>
+        <v>0.216378009348018</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1749923712864325</v>
+        <v>0.1070535065896585</v>
       </c>
       <c r="N175" t="n">
-        <v>0.3453075916521044</v>
+        <v>0.3414272143092532</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1751924907745926</v>
+        <v>0.1069369333511986</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.05019886964606972</v>
+        <v>0.05947084077503773</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1762286612897883</v>
+        <v>0.05160526714602332</v>
       </c>
       <c r="J176" t="n">
-        <v>0.08476315234574622</v>
+        <v>0.05947084077503773</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1766693007056894</v>
+        <v>0.05160526714602332</v>
       </c>
       <c r="L176" t="n">
-        <v>0.2157455162619707</v>
+        <v>0.2170044177947456</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1765832110254001</v>
+        <v>0.1080267202859281</v>
       </c>
       <c r="N176" t="n">
-        <v>0.347858243951887</v>
+        <v>0.3406817055210217</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1767851497816343</v>
+        <v>0.1079090872907549</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.05360320101041133</v>
+        <v>0.05847016146018162</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1778163068869937</v>
+        <v>0.0516049986175593</v>
       </c>
       <c r="J177" t="n">
-        <v>0.08527560772657741</v>
+        <v>0.05847016146018162</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1782609160273623</v>
+        <v>0.0516049986175593</v>
       </c>
       <c r="L177" t="n">
-        <v>0.2162994411040347</v>
+        <v>0.2169290535890267</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1781740507643676</v>
+        <v>0.1089999339821977</v>
       </c>
       <c r="N177" t="n">
-        <v>0.3471441417079272</v>
+        <v>0.3409242772996435</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1783778087886761</v>
+        <v>0.1088812412303113</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.05501627133762185</v>
+        <v>0.05748889549830007</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1794039524841989</v>
+        <v>0.05160473008909529</v>
       </c>
       <c r="J178" t="n">
-        <v>0.08640588024193899</v>
+        <v>0.05748889549830007</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1798525313490352</v>
+        <v>0.05160473008909529</v>
       </c>
       <c r="L178" t="n">
-        <v>0.2192962748828906</v>
+        <v>0.2147529053853007</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1797648905033352</v>
+        <v>0.1099731476784673</v>
       </c>
       <c r="N178" t="n">
-        <v>0.3518073370813762</v>
+        <v>0.3398538968433993</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1799704677957178</v>
+        <v>0.1098533951698677</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.05542480764663721</v>
+        <v>0.05652762474092804</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1809915980814042</v>
+        <v>0.05160446156063127</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0872335783486291</v>
+        <v>0.05652762474092804</v>
       </c>
       <c r="K179" t="n">
-        <v>0.181444146670708</v>
+        <v>0.05160446156063127</v>
       </c>
       <c r="L179" t="n">
-        <v>0.2198844295998842</v>
+        <v>0.215276961838007</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1813557302423028</v>
+        <v>0.1109463613747369</v>
       </c>
       <c r="N179" t="n">
-        <v>0.3529647313810677</v>
+        <v>0.3392695313505695</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1815631268027596</v>
+        <v>0.110825549109424</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.05181553695639336</v>
+        <v>0.05558693103968504</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1825792436786095</v>
+        <v>0.05160419303216725</v>
       </c>
       <c r="J180" t="n">
-        <v>0.08773831050344583</v>
+        <v>0.05558693103968504</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1830357619923809</v>
+        <v>0.05160419303216725</v>
       </c>
       <c r="L180" t="n">
-        <v>0.2213123172563611</v>
+        <v>0.2156022116015849</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1829465699812703</v>
+        <v>0.1119195750710066</v>
       </c>
       <c r="N180" t="n">
-        <v>0.3548332259158358</v>
+        <v>0.3387701480194349</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1831557858098014</v>
+        <v>0.1117977030489803</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.05717518628582619</v>
+        <v>0.05466739624610779</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1841668892758148</v>
+        <v>0.05160392450370323</v>
       </c>
       <c r="J181" t="n">
-        <v>0.08839968516318725</v>
+        <v>0.05466739624610779</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1846273773140538</v>
+        <v>0.05160392450370323</v>
       </c>
       <c r="L181" t="n">
-        <v>0.2234283498536675</v>
+        <v>0.214429643330474</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1845374097202379</v>
+        <v>0.1128927887672762</v>
       </c>
       <c r="N181" t="n">
-        <v>0.3601297219945145</v>
+        <v>0.3379547140482754</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1847484448168431</v>
+        <v>0.1127698569885367</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.05849048265387162</v>
+        <v>0.05376960221181395</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1857545348730201</v>
+        <v>0.05160365597523921</v>
       </c>
       <c r="J182" t="n">
-        <v>0.08889731078465149</v>
+        <v>0.05376960221181395</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1862189926357267</v>
+        <v>0.05160365597523921</v>
       </c>
       <c r="L182" t="n">
-        <v>0.2253809393931489</v>
+        <v>0.2136602456791134</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1861282494592054</v>
+        <v>0.1138660024635458</v>
       </c>
       <c r="N182" t="n">
-        <v>0.3591711209259379</v>
+        <v>0.3395221966353721</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1863411038238849</v>
+        <v>0.1137420109280931</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.05274815307946558</v>
+        <v>0.05289413078836094</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1873421804702254</v>
+        <v>0.0516033874467752</v>
       </c>
       <c r="J183" t="n">
-        <v>0.08941079582463671</v>
+        <v>0.05289413078836094</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1878106079573996</v>
+        <v>0.0516033874467752</v>
       </c>
       <c r="L183" t="n">
-        <v>0.2265184978761513</v>
+        <v>0.2138950073019427</v>
       </c>
       <c r="M183" t="n">
-        <v>0.187719089198173</v>
+        <v>0.1148392161598154</v>
       </c>
       <c r="N183" t="n">
-        <v>0.3626743240189399</v>
+        <v>0.3404715629790052</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1879337628309266</v>
+        <v>0.1147141648676494</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.05793505348392899</v>
+        <v>0.0520415638273081</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1889298260674307</v>
+        <v>0.05160311891831118</v>
       </c>
       <c r="J184" t="n">
-        <v>0.08941974873994094</v>
+        <v>0.0520415638273081</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1894022232790724</v>
+        <v>0.05160311891831118</v>
       </c>
       <c r="L184" t="n">
-        <v>0.2261894373040202</v>
+        <v>0.2127349168534012</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1893099289371406</v>
+        <v>0.115812429856085</v>
       </c>
       <c r="N184" t="n">
-        <v>0.3649562325823545</v>
+        <v>0.3381017802774549</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1895264218379683</v>
+        <v>0.1156863188072058</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0550849534605736</v>
+        <v>0.0512124831802702</v>
       </c>
       <c r="G185" t="n">
-        <v>0.190517471664636</v>
+        <v>0.05160285038984717</v>
       </c>
       <c r="J185" t="n">
-        <v>0.08985109647177839</v>
+        <v>0.0512124831802702</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1909938386007453</v>
+        <v>0.05160285038984717</v>
       </c>
       <c r="L185" t="n">
-        <v>0.2259733329915265</v>
+        <v>0.2125809629879283</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1909007686761082</v>
+        <v>0.1167856435523547</v>
       </c>
       <c r="N185" t="n">
-        <v>0.3645031709570459</v>
+        <v>0.3385118157290023</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1911190808450101</v>
+        <v>0.1166584727467621</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.05923169645844112</v>
+        <v>0.0504074706987888</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1921051172618413</v>
+        <v>0.05160258186138315</v>
       </c>
       <c r="J186" t="n">
-        <v>0.09027637057596744</v>
+        <v>0.0504074706987888</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1925854539224182</v>
+        <v>0.05160258186138315</v>
       </c>
       <c r="L186" t="n">
-        <v>0.2285433325408382</v>
+        <v>0.2120201179811256</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1924916084150757</v>
+        <v>0.1177588572486243</v>
       </c>
       <c r="N186" t="n">
-        <v>0.3666210128601443</v>
+        <v>0.338779766373818</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1927117398520519</v>
+        <v>0.1176306266863185</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.05337523363116513</v>
+        <v>0.04962710823447664</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1936927628590467</v>
+        <v>0.05160231333291913</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0898967463909793</v>
+        <v>0.04962710823447664</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1941770692440911</v>
+        <v>0.05160231333291913</v>
       </c>
       <c r="L187" t="n">
-        <v>0.2289009267834126</v>
+        <v>0.2122093445988195</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1940824481540433</v>
+        <v>0.1187320709448939</v>
       </c>
       <c r="N187" t="n">
-        <v>0.3650189221898331</v>
+        <v>0.3349579646126397</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1943043988590936</v>
+        <v>0.1186027806258748</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.05951551613237926</v>
+        <v>0.04887197763887739</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1952804084562519</v>
+        <v>0.05160204480445511</v>
       </c>
       <c r="J188" t="n">
-        <v>0.09031214887317562</v>
+        <v>0.04887197763887739</v>
       </c>
       <c r="K188" t="n">
-        <v>0.195768684565764</v>
+        <v>0.05160204480445511</v>
       </c>
       <c r="L188" t="n">
-        <v>0.229745925868434</v>
+        <v>0.2106490653091612</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1956732878930109</v>
+        <v>0.1197052846411635</v>
       </c>
       <c r="N188" t="n">
-        <v>0.3686965931316841</v>
+        <v>0.3371504727915148</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1958970578661353</v>
+        <v>0.1195749345654312</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.05965249511571716</v>
+        <v>0.04814266076360159</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1968680540534572</v>
+        <v>0.0516017762759911</v>
       </c>
       <c r="J189" t="n">
-        <v>0.09022250297891818</v>
+        <v>0.04814266076360159</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1973602998874368</v>
+        <v>0.0516017762759911</v>
       </c>
       <c r="L189" t="n">
-        <v>0.2301781399450867</v>
+        <v>0.2113432303235901</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1972641276319784</v>
+        <v>0.1206784983374331</v>
       </c>
       <c r="N189" t="n">
-        <v>0.3660537198712695</v>
+        <v>0.3337636641189094</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1974897168731771</v>
+        <v>0.1205470885049875</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.05778612173481243</v>
+        <v>0.04743736356625307</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1984556996506625</v>
+        <v>0.05160150774752708</v>
       </c>
       <c r="J190" t="n">
-        <v>0.09042773366456863</v>
+        <v>0.04743736356625307</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1989519152091097</v>
+        <v>0.05160150774752708</v>
       </c>
       <c r="L190" t="n">
-        <v>0.2286973791625548</v>
+        <v>0.2103957898535452</v>
       </c>
       <c r="M190" t="n">
-        <v>0.198854967370946</v>
+        <v>0.1216517120337028</v>
       </c>
       <c r="N190" t="n">
-        <v>0.369789996594161</v>
+        <v>0.3361039118032881</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1990823758802188</v>
+        <v>0.1215192424445439</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.05591634714329868</v>
+        <v>0.04674241253478764</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2000433452478678</v>
+        <v>0.05160123921906307</v>
       </c>
       <c r="J191" t="n">
-        <v>0.09112776588648858</v>
+        <v>0.04674241253478764</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2005435305307826</v>
+        <v>0.05160123921906307</v>
       </c>
       <c r="L191" t="n">
-        <v>0.2307034536700225</v>
+        <v>0.2080106941104663</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2004458071099136</v>
+        <v>0.1226249257299724</v>
       </c>
       <c r="N191" t="n">
-        <v>0.3705051174859302</v>
+        <v>0.3325775890531162</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2006750348872606</v>
+        <v>0.1224913963841002</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.05604312249480958</v>
+        <v>0.04605601362681044</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2016309908450731</v>
+        <v>0.05160097069059905</v>
       </c>
       <c r="J192" t="n">
-        <v>0.09092252460103986</v>
+        <v>0.04605601362681044</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2021351458524555</v>
+        <v>0.05160097069059905</v>
       </c>
       <c r="L192" t="n">
-        <v>0.2318961736166741</v>
+        <v>0.2075918933057925</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2020366468488811</v>
+        <v>0.123598139426242</v>
       </c>
       <c r="N192" t="n">
-        <v>0.3692987767321493</v>
+        <v>0.3330910690768591</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2022676938943024</v>
+        <v>0.1234635503236566</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.05916639894297872</v>
+        <v>0.04537874869392902</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2032186364422784</v>
+        <v>0.05160070216213503</v>
       </c>
       <c r="J193" t="n">
-        <v>0.09151193476458408</v>
+        <v>0.04537874869392902</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2037267611741283</v>
+        <v>0.05160070216213503</v>
       </c>
       <c r="L193" t="n">
-        <v>0.2303753491516937</v>
+        <v>0.2075433376509633</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2036274865878487</v>
+        <v>0.1245713531225116</v>
       </c>
       <c r="N193" t="n">
-        <v>0.3691706685183899</v>
+        <v>0.3296507250829818</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2038603529013441</v>
+        <v>0.1244357042632129</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.05628612764143973</v>
+        <v>0.04471119958769154</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2048062820394837</v>
+        <v>0.05160043363367101</v>
       </c>
       <c r="J194" t="n">
-        <v>0.09129592133348299</v>
+        <v>0.04471119958769154</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2053183764958012</v>
+        <v>0.05160043363367101</v>
       </c>
       <c r="L194" t="n">
-        <v>0.2314407904242655</v>
+        <v>0.2064689773574179</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2052183263268163</v>
+        <v>0.1255445668187813</v>
       </c>
       <c r="N194" t="n">
-        <v>0.372220487030224</v>
+        <v>0.3314629302799498</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2054530119083859</v>
+        <v>0.1254078582027693</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.05540225974382622</v>
+        <v>0.04405394815970474</v>
       </c>
       <c r="G195" t="n">
-        <v>0.206393927636689</v>
+        <v>0.05160016510520699</v>
       </c>
       <c r="J195" t="n">
-        <v>0.09127440926409819</v>
+        <v>0.04405394815970474</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2069099918174741</v>
+        <v>0.05160016510520699</v>
       </c>
       <c r="L195" t="n">
-        <v>0.232692307583574</v>
+        <v>0.2050727626365958</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2068091660657838</v>
+        <v>0.1265177805150509</v>
       </c>
       <c r="N195" t="n">
-        <v>0.3725479264532232</v>
+        <v>0.3297340578762283</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2070456709154276</v>
+        <v>0.1263800121423256</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.05651474640377184</v>
+        <v>0.04340757626151769</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2079815732338944</v>
+        <v>0.05159989657674297</v>
       </c>
       <c r="J196" t="n">
-        <v>0.09214732351279148</v>
+        <v>0.04340757626151769</v>
       </c>
       <c r="K196" t="n">
-        <v>0.208501607139147</v>
+        <v>0.05159989657674297</v>
       </c>
       <c r="L196" t="n">
-        <v>0.2323297107788032</v>
+        <v>0.2038586436999363</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2084000058047514</v>
+        <v>0.1274909942113205</v>
       </c>
       <c r="N196" t="n">
-        <v>0.3738526809729596</v>
+        <v>0.3272704810802822</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2086383299224694</v>
+        <v>0.127352166081882</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.05862353877491019</v>
+        <v>0.04277266574473612</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2095692188310997</v>
+        <v>0.05159962804827896</v>
       </c>
       <c r="J197" t="n">
-        <v>0.09221458903592447</v>
+        <v>0.04277266574473612</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2100932224608199</v>
+        <v>0.05159962804827896</v>
       </c>
       <c r="L197" t="n">
-        <v>0.2331528101591373</v>
+        <v>0.2047305707588787</v>
       </c>
       <c r="M197" t="n">
-        <v>0.209990845543719</v>
+        <v>0.1284642079075901</v>
       </c>
       <c r="N197" t="n">
-        <v>0.3733344447750048</v>
+        <v>0.3262785731005769</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2102309889295111</v>
+        <v>0.1283243200214383</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.05472858801087493</v>
+        <v>0.04214979846092358</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2111568644283049</v>
+        <v>0.05159935951981495</v>
       </c>
       <c r="J198" t="n">
-        <v>0.09207613078985893</v>
+        <v>0.04214979846092358</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2116848377824927</v>
+        <v>0.05159935951981495</v>
       </c>
       <c r="L198" t="n">
-        <v>0.2332614158737606</v>
+        <v>0.2042924940248624</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2115816852826865</v>
+        <v>0.1294374216038597</v>
       </c>
       <c r="N198" t="n">
-        <v>0.3759929120449308</v>
+        <v>0.3240647071455776</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2118236479365528</v>
+        <v>0.1292964739609947</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.05682984526529965</v>
+        <v>0.04153955626164452</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2127445100255103</v>
+        <v>0.05159909099135093</v>
       </c>
       <c r="J199" t="n">
-        <v>0.09183187373095647</v>
+        <v>0.04153955626164452</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2132764531041656</v>
+        <v>0.05159909099135093</v>
       </c>
       <c r="L199" t="n">
-        <v>0.2328553380718572</v>
+        <v>0.2022483637093267</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2131725250216541</v>
+        <v>0.1304106353001294</v>
       </c>
       <c r="N199" t="n">
-        <v>0.3747277769683097</v>
+        <v>0.3240352564237498</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2134163069435946</v>
+        <v>0.130268627900551</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.05592726169181798</v>
+        <v>0.04094252099850317</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2143321556227155</v>
+        <v>0.05159882246288691</v>
       </c>
       <c r="J200" t="n">
-        <v>0.09248174281557889</v>
+        <v>0.04094252099850317</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2148680684258385</v>
+        <v>0.05159882246288691</v>
       </c>
       <c r="L200" t="n">
-        <v>0.2344343869026115</v>
+        <v>0.2025021300237111</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2147633647606217</v>
+        <v>0.131383848996399</v>
       </c>
       <c r="N200" t="n">
-        <v>0.3766387337307127</v>
+        <v>0.3246965941435584</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2150089659506364</v>
+        <v>0.1312407818401074</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.06002078844406356</v>
+        <v>0.04035927452305121</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2159198012199209</v>
+        <v>0.05159855393442289</v>
       </c>
       <c r="J201" t="n">
-        <v>0.09242566300008781</v>
+        <v>0.04035927452305121</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2164596837475114</v>
+        <v>0.05159855393442289</v>
       </c>
       <c r="L201" t="n">
-        <v>0.2341983725152075</v>
+        <v>0.2013577431794547</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2163542044995893</v>
+        <v>0.1323570626926686</v>
       </c>
       <c r="N201" t="n">
-        <v>0.3750254765177122</v>
+        <v>0.3236550935134686</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2166016249576781</v>
+        <v>0.1322129357796637</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.06111037667567</v>
+        <v>0.03979039868689169</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2175074468171261</v>
+        <v>0.05159828540595888</v>
       </c>
       <c r="J202" t="n">
-        <v>0.09296355924084493</v>
+        <v>0.03979039868689169</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2180512990691842</v>
+        <v>0.05159828540595888</v>
       </c>
       <c r="L202" t="n">
-        <v>0.2355471050588296</v>
+        <v>0.1989191533879971</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2179450442385568</v>
+        <v>0.1333302763889382</v>
       </c>
       <c r="N202" t="n">
-        <v>0.3786876995148798</v>
+        <v>0.3214171277419457</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2181942839647199</v>
+        <v>0.1331850897192201</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0551959775402709</v>
+        <v>0.03923647534157752</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2190950924143314</v>
+        <v>0.05159801687749486</v>
       </c>
       <c r="J203" t="n">
-        <v>0.09329535649421192</v>
+        <v>0.03923647534157752</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2196429143908571</v>
+        <v>0.05159801687749486</v>
       </c>
       <c r="L203" t="n">
-        <v>0.235280394682662</v>
+        <v>0.1994903108607776</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2195358839775244</v>
+        <v>0.1343034900852079</v>
       </c>
       <c r="N203" t="n">
-        <v>0.3773250969077874</v>
+        <v>0.321489070037455</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2197869429717616</v>
+        <v>0.1341572436587764</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.06027754219149994</v>
+        <v>0.03869808633871048</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2206827380115367</v>
+        <v>0.05159774834903084</v>
       </c>
       <c r="J204" t="n">
-        <v>0.09262097971655056</v>
+        <v>0.03869808633871048</v>
       </c>
       <c r="K204" t="n">
-        <v>0.22123452971253</v>
+        <v>0.05159774834903084</v>
       </c>
       <c r="L204" t="n">
-        <v>0.2348980515358889</v>
+        <v>0.1984751658092355</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2211267237164919</v>
+        <v>0.1352767037814775</v>
       </c>
       <c r="N204" t="n">
-        <v>0.3782373628820068</v>
+        <v>0.3184772936084616</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2213796019788034</v>
+        <v>0.1351293975983328</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.05635502178299071</v>
+        <v>0.03817581352984478</v>
       </c>
       <c r="G205" t="n">
-        <v>0.222270383608742</v>
+        <v>0.05159747982056682</v>
       </c>
       <c r="J205" t="n">
-        <v>0.09334035386422246</v>
+        <v>0.03817581352984478</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2228261450342029</v>
+        <v>0.05159747982056682</v>
       </c>
       <c r="L205" t="n">
-        <v>0.2357998857676944</v>
+        <v>0.1975776684448101</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2227175634554595</v>
+        <v>0.1362499174777471</v>
       </c>
       <c r="N205" t="n">
-        <v>0.3766241916231097</v>
+        <v>0.317188171663431</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2229722609858451</v>
+        <v>0.1361015515378891</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.05642836746837683</v>
+        <v>0.03767023876658085</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2238580292059474</v>
+        <v>0.0515972112921028</v>
       </c>
       <c r="J206" t="n">
-        <v>0.09315340389358934</v>
+        <v>0.03767023876658085</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2244177603558758</v>
+        <v>0.0515972112921028</v>
       </c>
       <c r="L206" t="n">
-        <v>0.2353857075272628</v>
+        <v>0.1969017689789409</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2243084031944271</v>
+        <v>0.1372231311740167</v>
       </c>
       <c r="N206" t="n">
-        <v>0.3803852773166684</v>
+        <v>0.317028077410828</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2245649199928869</v>
+        <v>0.1370737054774455</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.06049753040129192</v>
+        <v>0.03718194390047432</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2254456748031526</v>
+        <v>0.05159694276363878</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0932600547610129</v>
+        <v>0.03718194390047432</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2260093756775486</v>
+        <v>0.05159694276363878</v>
       </c>
       <c r="L207" t="n">
-        <v>0.2371553269637783</v>
+        <v>0.1964514176230671</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2258992429333946</v>
+        <v>0.1381963448702864</v>
       </c>
       <c r="N207" t="n">
-        <v>0.3781203141482544</v>
+        <v>0.3148033840591182</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2261575789999286</v>
+        <v>0.1380458594170018</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.05556246173536963</v>
+        <v>0.03671151078312412</v>
       </c>
       <c r="G208" t="n">
-        <v>0.227033320400358</v>
+        <v>0.05159667423517477</v>
       </c>
       <c r="J208" t="n">
-        <v>0.09316023142285487</v>
+        <v>0.03671151078312412</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2276009909992215</v>
+        <v>0.05159667423517477</v>
       </c>
       <c r="L208" t="n">
-        <v>0.2365085542264252</v>
+        <v>0.1957305645886283</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2274900826723622</v>
+        <v>0.139169558566556</v>
       </c>
       <c r="N208" t="n">
-        <v>0.3800289963034395</v>
+        <v>0.3134204648167665</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2277502380069704</v>
+        <v>0.1390180133565582</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.05562311262424356</v>
+        <v>0.03625952126608743</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2286209659975632</v>
+        <v>0.05159640570671075</v>
       </c>
       <c r="J209" t="n">
-        <v>0.09345385883547688</v>
+        <v>0.03625952126608743</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2291926063208944</v>
+        <v>0.05159640570671075</v>
       </c>
       <c r="L209" t="n">
-        <v>0.2378451994643877</v>
+        <v>0.1949431600870636</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2290809224113298</v>
+        <v>0.1401427722628256</v>
       </c>
       <c r="N209" t="n">
-        <v>0.3799110179677957</v>
+        <v>0.3128856928922383</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2293428970140121</v>
+        <v>0.1399901672961145</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.05667943422154736</v>
+        <v>0.0358265572009616</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2302086115947686</v>
+        <v>0.05159613717824674</v>
       </c>
       <c r="J210" t="n">
-        <v>0.09354086195524064</v>
+        <v>0.0358265572009616</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2307842216425672</v>
+        <v>0.05159613717824674</v>
       </c>
       <c r="L210" t="n">
-        <v>0.23776507282685</v>
+        <v>0.1931931543298124</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2306717621502974</v>
+        <v>0.1411159859590952</v>
       </c>
       <c r="N210" t="n">
-        <v>0.3798660733268945</v>
+        <v>0.3108054414939989</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2309355560210539</v>
+        <v>0.1409623212356709</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.05873137768091462</v>
+        <v>0.03541320043930545</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2317962571919738</v>
+        <v>0.05159586864978272</v>
       </c>
       <c r="J211" t="n">
-        <v>0.09392116573850789</v>
+        <v>0.03541320043930545</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2323758369642401</v>
+        <v>0.05159586864978272</v>
       </c>
       <c r="L211" t="n">
-        <v>0.2362679844629962</v>
+        <v>0.1938844975283141</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2322626018892649</v>
+        <v>0.1420891996553648</v>
       </c>
       <c r="N211" t="n">
-        <v>0.3810938565663084</v>
+        <v>0.3113860838305133</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2325282150280956</v>
+        <v>0.1419344751752273</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.05777889415597899</v>
+        <v>0.03502003283271461</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2333839027891791</v>
+        <v>0.0515956001213187</v>
       </c>
       <c r="J212" t="n">
-        <v>0.09349469514164027</v>
+        <v>0.03502003283271461</v>
       </c>
       <c r="K212" t="n">
-        <v>0.233967452285913</v>
+        <v>0.0515956001213187</v>
       </c>
       <c r="L212" t="n">
-        <v>0.2364537445220107</v>
+        <v>0.192921139894008</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2338534416282325</v>
+        <v>0.1430624133516345</v>
       </c>
       <c r="N212" t="n">
-        <v>0.3828940618716087</v>
+        <v>0.308933993110247</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2341208740351374</v>
+        <v>0.1429066291147836</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.05782193480037408</v>
+        <v>0.03464763623274968</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2349715483863845</v>
+        <v>0.05159533159285468</v>
       </c>
       <c r="J213" t="n">
-        <v>0.09336137512099948</v>
+        <v>0.03464763623274968</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2355590676075859</v>
+        <v>0.05159533159285468</v>
       </c>
       <c r="L213" t="n">
-        <v>0.2365221631530775</v>
+        <v>0.1920070316383336</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2354442813672001</v>
+        <v>0.1440356270479041</v>
       </c>
       <c r="N213" t="n">
-        <v>0.3802663834283674</v>
+        <v>0.3085555425416648</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2357135330421791</v>
+        <v>0.1438787830543399</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.06186045076773353</v>
+        <v>0.0342965924910045</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2365591939835897</v>
+        <v>0.05159506306439067</v>
       </c>
       <c r="J214" t="n">
-        <v>0.09382113063294725</v>
+        <v>0.0342965924910045</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2371506829292588</v>
+        <v>0.05159506306439067</v>
       </c>
       <c r="L214" t="n">
-        <v>0.238673050505381</v>
+        <v>0.1925461229727301</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2370351211061676</v>
+        <v>0.1450088407441737</v>
       </c>
       <c r="N214" t="n">
-        <v>0.3821105154221565</v>
+        <v>0.3095571053332325</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2373061920492209</v>
+        <v>0.1448509369938963</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.06189439321169093</v>
+        <v>0.0342965924910045</v>
       </c>
       <c r="G215" t="n">
-        <v>0.238146839580795</v>
+        <v>0.05159506306439067</v>
       </c>
       <c r="J215" t="n">
-        <v>0.09437388663384524</v>
+        <v>0.0342965924910045</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2387422982509317</v>
+        <v>0.05159506306439067</v>
       </c>
       <c r="L215" t="n">
-        <v>0.2389062167281056</v>
+        <v>0.1920423641086369</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2386259608451352</v>
+        <v>0.1459820544404433</v>
       </c>
       <c r="N215" t="n">
-        <v>0.3834261520385474</v>
+        <v>0.3097450546934147</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2388988510562626</v>
+        <v>0.1458230909334526</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.06192371328587995</v>
+        <v>0.03341811322998593</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2397344851780003</v>
+        <v>0.05159018592468897</v>
       </c>
       <c r="J216" t="n">
-        <v>0.09371956808005516</v>
+        <v>0.03341811322998593</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2403339135726045</v>
+        <v>0.05159018592468897</v>
       </c>
       <c r="L216" t="n">
-        <v>0.236821471970435</v>
+        <v>0.1916997052574934</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2402168005841027</v>
+        <v>0.1469552681367129</v>
       </c>
       <c r="N216" t="n">
-        <v>0.3832129874631123</v>
+        <v>0.3076257638306769</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2404915100633044</v>
+        <v>0.146795244873009</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.06094836214393416</v>
+        <v>0.0325488354369385</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2413221307752057</v>
+        <v>0.05158530878498728</v>
       </c>
       <c r="J217" t="n">
-        <v>0.09425809992793874</v>
+        <v>0.0325488354369385</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2419255288942774</v>
+        <v>0.05158530878498728</v>
       </c>
       <c r="L217" t="n">
-        <v>0.2386186263815539</v>
+        <v>0.1907220966307389</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2418076403230703</v>
+        <v>0.1479284818329826</v>
       </c>
       <c r="N217" t="n">
-        <v>0.3832707158814231</v>
+        <v>0.3080056059534846</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2420841690703461</v>
+        <v>0.1477673988125653</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.05696829093948724</v>
+        <v>0.03168909878625563</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2429097763724109</v>
+        <v>0.05158043164528558</v>
       </c>
       <c r="J218" t="n">
-        <v>0.09418940713385759</v>
+        <v>0.03168909878625563</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2435171442159503</v>
+        <v>0.05158043164528558</v>
       </c>
       <c r="L218" t="n">
-        <v>0.2370974901106461</v>
+        <v>0.1911134884398128</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2433984800620379</v>
+        <v>0.1489016955292522</v>
       </c>
       <c r="N218" t="n">
-        <v>0.3834990314790515</v>
+        <v>0.3055909542703028</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2436768280773879</v>
+        <v>0.1487395527521217</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.06198345082617278</v>
+        <v>0.03083924295233173</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2444974219696163</v>
+        <v>0.0515755545055839</v>
       </c>
       <c r="J219" t="n">
-        <v>0.09381341465417342</v>
+        <v>0.03083924295233173</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2451087595376232</v>
+        <v>0.0515755545055839</v>
       </c>
       <c r="L219" t="n">
-        <v>0.2373578733068963</v>
+        <v>0.1916778308961544</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2449893198010055</v>
+        <v>0.1498749092255218</v>
       </c>
       <c r="N219" t="n">
-        <v>0.3814976284415693</v>
+        <v>0.3083881819895964</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2452694870844296</v>
+        <v>0.149711706691678</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.05699379295762441</v>
+        <v>0.02999960760955814</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2460850675668216</v>
+        <v>0.0515706773658822</v>
       </c>
       <c r="J220" t="n">
-        <v>0.09423004744524802</v>
+        <v>0.02999960760955814</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2467003748592961</v>
+        <v>0.0515706773658822</v>
       </c>
       <c r="L220" t="n">
-        <v>0.2377995861194883</v>
+        <v>0.191519074211203</v>
       </c>
       <c r="M220" t="n">
-        <v>0.246580159539973</v>
+        <v>0.1508481229217914</v>
       </c>
       <c r="N220" t="n">
-        <v>0.3820662009545483</v>
+        <v>0.3054036623198311</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2468621460914714</v>
+        <v>0.1506838606312344</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.05899926848747576</v>
+        <v>0.02917053243232927</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2476727131640268</v>
+        <v>0.05156580022618051</v>
       </c>
       <c r="J221" t="n">
-        <v>0.094339230463443</v>
+        <v>0.02917053243232927</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2482919901809689</v>
+        <v>0.05156580022618051</v>
       </c>
       <c r="L221" t="n">
-        <v>0.2395224386976066</v>
+        <v>0.1910168751031631</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2481709992789406</v>
+        <v>0.151821336618061</v>
       </c>
       <c r="N221" t="n">
-        <v>0.3822044432035605</v>
+        <v>0.3069015355170049</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2484548050985131</v>
+        <v>0.1516560145707907</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.05798866912471172</v>
+        <v>0.02835235709503851</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2492603587612321</v>
+        <v>0.05156092308647881</v>
       </c>
       <c r="J222" t="n">
-        <v>0.0940318347355838</v>
+        <v>0.02835235709503851</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2498836055026418</v>
+        <v>0.05156092308647881</v>
       </c>
       <c r="L222" t="n">
-        <v>0.237099851948277</v>
+        <v>0.1896171277238602</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2497618390179082</v>
+        <v>0.1527945503143307</v>
       </c>
       <c r="N222" t="n">
-        <v>0.3842820725009818</v>
+        <v>0.3063019240964769</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2500474641055549</v>
+        <v>0.1526281685103471</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.05985658544395299</v>
+        <v>0.02754542127207926</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2508480043584374</v>
+        <v>0.05155604594677712</v>
       </c>
       <c r="J223" t="n">
-        <v>0.09405273641823916</v>
+        <v>0.02754542127207926</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2514752208243147</v>
+        <v>0.05155604594677712</v>
       </c>
       <c r="L223" t="n">
-        <v>0.2376349772270608</v>
+        <v>0.1914179093027899</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2513526787568758</v>
+        <v>0.1537677640106003</v>
       </c>
       <c r="N223" t="n">
-        <v>0.380277755199409</v>
+        <v>0.3066030914618752</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2516401231125966</v>
+        <v>0.1536003224499034</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.05958911461902057</v>
+        <v>0.02675006463784489</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2524356499556428</v>
+        <v>0.05155116880707542</v>
       </c>
       <c r="J224" t="n">
-        <v>0.09386376662375451</v>
+        <v>0.02675006463784489</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2530668361459875</v>
+        <v>0.05155116880707542</v>
       </c>
       <c r="L224" t="n">
-        <v>0.2372400786615472</v>
+        <v>0.1916195192849607</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2529435184958433</v>
+        <v>0.1547409777068699</v>
       </c>
       <c r="N224" t="n">
-        <v>0.378916178191172</v>
+        <v>0.3079054668921061</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2532327821196384</v>
+        <v>0.1545724763894598</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.05620148418139176</v>
+        <v>0.02596662686672879</v>
       </c>
       <c r="G225" t="n">
-        <v>0.254023295552848</v>
+        <v>0.05154629166737373</v>
       </c>
       <c r="J225" t="n">
-        <v>0.09258831970977091</v>
+        <v>0.02596662686672879</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2546584514676604</v>
+        <v>0.05154629166737373</v>
       </c>
       <c r="L225" t="n">
-        <v>0.2343743409872202</v>
+        <v>0.1911222571153811</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2545343582348109</v>
+        <v>0.1557141914031396</v>
       </c>
       <c r="N225" t="n">
-        <v>0.3762926771005241</v>
+        <v>0.3053094796660756</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2548254411266802</v>
+        <v>0.1555446303290162</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.05670892166254382</v>
+        <v>0.02519544763312527</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2556109411500533</v>
+        <v>0.05154141452767205</v>
       </c>
       <c r="J226" t="n">
-        <v>0.09244979003392953</v>
+        <v>0.02519544763312527</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2562500667893333</v>
+        <v>0.05154141452767205</v>
       </c>
       <c r="L226" t="n">
-        <v>0.2343969489395629</v>
+        <v>0.1893264222390598</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2561251979737785</v>
+        <v>0.1566874050994091</v>
       </c>
       <c r="N226" t="n">
-        <v>0.3735025875517193</v>
+        <v>0.3069155590626901</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2564181001337219</v>
+        <v>0.1565167842685725</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.05912665459395404</v>
+        <v>0.0244368666114259</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2571985867472587</v>
+        <v>0.05153653738797035</v>
       </c>
       <c r="J227" t="n">
-        <v>0.09127157195387145</v>
+        <v>0.0244368666114259</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2578416821110062</v>
+        <v>0.05153653738797035</v>
       </c>
       <c r="L227" t="n">
-        <v>0.2311670872540595</v>
+        <v>0.1908323141010054</v>
       </c>
       <c r="M227" t="n">
-        <v>0.257716037712746</v>
+        <v>0.1576606187956788</v>
       </c>
       <c r="N227" t="n">
-        <v>0.372341245169011</v>
+        <v>0.3082241343608559</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2580107591407637</v>
+        <v>0.1574889382081289</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.05946991050709968</v>
+        <v>0.02369122347602494</v>
       </c>
       <c r="G228" t="n">
-        <v>0.258786232344464</v>
+        <v>0.05153166024826866</v>
       </c>
       <c r="J228" t="n">
-        <v>0.09037705982723787</v>
+        <v>0.02369122347602494</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2594332974326791</v>
+        <v>0.05153166024826866</v>
       </c>
       <c r="L228" t="n">
-        <v>0.2291439406661931</v>
+        <v>0.1913402321462264</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2593068774517136</v>
+        <v>0.1586338324919484</v>
       </c>
       <c r="N228" t="n">
-        <v>0.367803985576653</v>
+        <v>0.3066356348394788</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2596034181478054</v>
+        <v>0.1584610921476852</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.05575391693345803</v>
+        <v>0.02295885790131583</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2603738779416693</v>
+        <v>0.05152678310856696</v>
       </c>
       <c r="J229" t="n">
-        <v>0.08898964801166989</v>
+        <v>0.02295885790131583</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2610249127543519</v>
+        <v>0.05152678310856696</v>
       </c>
       <c r="L229" t="n">
-        <v>0.2266866939114476</v>
+        <v>0.1916504758197314</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2608977171906812</v>
+        <v>0.1596070461882181</v>
       </c>
       <c r="N229" t="n">
-        <v>0.3617861443988987</v>
+        <v>0.3051504897774657</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2611960771548471</v>
+        <v>0.1594332460872415</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.05199390140450637</v>
+        <v>0.02224010956169192</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2619615235388745</v>
+        <v>0.05152190596886527</v>
       </c>
       <c r="J230" t="n">
-        <v>0.08783273086480864</v>
+        <v>0.02224010956169192</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2626165280760248</v>
+        <v>0.05152190596886527</v>
       </c>
       <c r="L230" t="n">
-        <v>0.2241545317253066</v>
+        <v>0.191263344566529</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2624885569296487</v>
+        <v>0.1605802598844877</v>
       </c>
       <c r="N230" t="n">
-        <v>0.356483057260002</v>
+        <v>0.3067691284537221</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2627887361618889</v>
+        <v>0.1604054000267979</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.05720509145172198</v>
+        <v>0.02153531813154663</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2635491691360798</v>
+        <v>0.05151702882916357</v>
       </c>
       <c r="J231" t="n">
-        <v>0.08702970274429528</v>
+        <v>0.02153531813154663</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2642081433976977</v>
+        <v>0.05151702882916357</v>
       </c>
       <c r="L231" t="n">
-        <v>0.2195066388432537</v>
+        <v>0.1907791378316277</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2640793966686163</v>
+        <v>0.1615534735807573</v>
       </c>
       <c r="N231" t="n">
-        <v>0.3519900597842164</v>
+        <v>0.3067919801471546</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2643813951689307</v>
+        <v>0.1613775539663543</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.05240271460658213</v>
+        <v>0.02084482328527333</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2651368147332852</v>
+        <v>0.05151215168946188</v>
       </c>
       <c r="J232" t="n">
-        <v>0.08590395800777087</v>
+        <v>0.02084482328527333</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2657997587193706</v>
+        <v>0.05151215168946188</v>
       </c>
       <c r="L232" t="n">
-        <v>0.2176022000007723</v>
+        <v>0.1914981550600362</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2656702364075839</v>
+        <v>0.1625266872770269</v>
       </c>
       <c r="N232" t="n">
-        <v>0.3500024875957956</v>
+        <v>0.3046194741366696</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2659740541759724</v>
+        <v>0.1623497079059106</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.04960199840056409</v>
+        <v>0.02016896469726621</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2667244603304905</v>
+        <v>0.05150727454976019</v>
       </c>
       <c r="J233" t="n">
-        <v>0.08477889101287661</v>
+        <v>0.02016896469726621</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2673913740410435</v>
+        <v>0.05150727454976019</v>
       </c>
       <c r="L233" t="n">
-        <v>0.2144003999333465</v>
+        <v>0.1915206956967631</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2672610761465514</v>
+        <v>0.1634999009732965</v>
       </c>
       <c r="N233" t="n">
-        <v>0.3428156763189932</v>
+        <v>0.308352039701173</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2675667131830142</v>
+        <v>0.163321861845467</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.05081817036514517</v>
+        <v>0.01950808204191706</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2683121059276957</v>
+        <v>0.05150239741005849</v>
       </c>
       <c r="J234" t="n">
-        <v>0.0836778961172536</v>
+        <v>0.01950808204191706</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2689829893627163</v>
+        <v>0.05150239741005849</v>
       </c>
       <c r="L234" t="n">
-        <v>0.2115604233764594</v>
+        <v>0.1900470591868168</v>
       </c>
       <c r="M234" t="n">
-        <v>0.268851915885519</v>
+        <v>0.1644731146695662</v>
       </c>
       <c r="N234" t="n">
-        <v>0.3375249615780628</v>
+        <v>0.3047901061195711</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2691593721900559</v>
+        <v>0.1642940157850233</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.05206645803180261</v>
+        <v>0.01886251499362007</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2698997515249011</v>
+        <v>0.0514975202703568</v>
       </c>
       <c r="J235" t="n">
-        <v>0.08232436767854293</v>
+        <v>0.01886251499362007</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2705746046843892</v>
+        <v>0.0514975202703568</v>
       </c>
       <c r="L235" t="n">
-        <v>0.207541455065595</v>
+        <v>0.189577544975206</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2704427556244866</v>
+        <v>0.1654463283658358</v>
       </c>
       <c r="N235" t="n">
-        <v>0.3355256789972582</v>
+        <v>0.3075341026707702</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2707520311970977</v>
+        <v>0.1652661697245797</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.05136208893201373</v>
+        <v>0.01823260322676863</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2714873971221063</v>
+        <v>0.0514926431306551</v>
       </c>
       <c r="J236" t="n">
-        <v>0.08114170005438584</v>
+        <v>0.01823260322676863</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2721662200060621</v>
+        <v>0.0514926431306551</v>
       </c>
       <c r="L236" t="n">
-        <v>0.2050026797362367</v>
+        <v>0.1899124525069392</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2720335953634541</v>
+        <v>0.1664195420621054</v>
       </c>
       <c r="N236" t="n">
-        <v>0.3278131642008329</v>
+        <v>0.3068844586336765</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2723446902041394</v>
+        <v>0.166238323664136</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.04971640117257529</v>
+        <v>0.01761868641575612</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2730750427193117</v>
+        <v>0.05148776599095341</v>
       </c>
       <c r="J237" t="n">
-        <v>0.07954962317476513</v>
+        <v>0.01761868641575612</v>
       </c>
       <c r="K237" t="n">
-        <v>0.273757835327735</v>
+        <v>0.05148776599095341</v>
       </c>
       <c r="L237" t="n">
-        <v>0.2022929861617845</v>
+        <v>0.1903520812270252</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2736244351024217</v>
+        <v>0.167392755758375</v>
       </c>
       <c r="N237" t="n">
-        <v>0.3272699003060958</v>
+        <v>0.3052416032871961</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2739373492111811</v>
+        <v>0.1672104776036924</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.05208510620350779</v>
+        <v>0.01702110423497594</v>
       </c>
       <c r="G238" t="n">
-        <v>0.274662688316517</v>
+        <v>0.05148288885125172</v>
       </c>
       <c r="J238" t="n">
-        <v>0.07858481772422524</v>
+        <v>0.01702110423497594</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2753494506494079</v>
+        <v>0.05148288885125172</v>
       </c>
       <c r="L238" t="n">
-        <v>0.2001496556264396</v>
+        <v>0.1910967305804724</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2752152748413892</v>
+        <v>0.1683659694546446</v>
       </c>
       <c r="N238" t="n">
-        <v>0.3205435699525467</v>
+        <v>0.3072059659102355</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2755300082182229</v>
+        <v>0.1681826315432487</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.05045148642015328</v>
+        <v>0.01644019635882146</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2762503339137222</v>
+        <v>0.05147801171155002</v>
       </c>
       <c r="J239" t="n">
-        <v>0.07821645311778605</v>
+        <v>0.01644019635882146</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2769410659710807</v>
+        <v>0.05147801171155002</v>
       </c>
       <c r="L239" t="n">
-        <v>0.1974973147143519</v>
+        <v>0.1918467000122894</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2768061145803569</v>
+        <v>0.1693391831509143</v>
       </c>
       <c r="N239" t="n">
-        <v>0.3182027488412434</v>
+        <v>0.3053779757817005</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2771226672252646</v>
+        <v>0.169154785482805</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.05081550574792501</v>
+        <v>0.01587491545791377</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2778379795109275</v>
+        <v>0.05147313457184834</v>
       </c>
       <c r="J240" t="n">
-        <v>0.07664447393334659</v>
+        <v>0.01587491545791377</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2785326812927535</v>
+        <v>0.05147313457184834</v>
       </c>
       <c r="L240" t="n">
-        <v>0.1962358232146885</v>
+        <v>0.1919022889674848</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2783969543193244</v>
+        <v>0.1703123968471839</v>
       </c>
       <c r="N240" t="n">
-        <v>0.314047211118557</v>
+        <v>0.3060580621804976</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2787153262323064</v>
+        <v>0.1701269394223614</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.04717712811223623</v>
+        <v>0.01531727918400685</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2794256251081328</v>
+        <v>0.05146825743214664</v>
       </c>
       <c r="J241" t="n">
-        <v>0.07566882474880626</v>
+        <v>0.01531727918400685</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2801242966144264</v>
+        <v>0.05146825743214664</v>
       </c>
       <c r="L241" t="n">
-        <v>0.1921650409166162</v>
+        <v>0.1915637968910671</v>
       </c>
       <c r="M241" t="n">
-        <v>0.279987794058292</v>
+        <v>0.1712856105434535</v>
       </c>
       <c r="N241" t="n">
-        <v>0.310376730930858</v>
+        <v>0.3062466543855331</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2803079852393481</v>
+        <v>0.1710990933619178</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.04453631743850014</v>
+        <v>0.0147662402077218</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2810132707053382</v>
+        <v>0.05146338029244495</v>
       </c>
       <c r="J242" t="n">
-        <v>0.07488945014206411</v>
+        <v>0.0147662402077218</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2817159119360994</v>
+        <v>0.05146338029244495</v>
       </c>
       <c r="L242" t="n">
-        <v>0.1909848276093019</v>
+        <v>0.191131523228045</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2815786337972595</v>
+        <v>0.1722588242397231</v>
       </c>
       <c r="N242" t="n">
-        <v>0.3059910824245171</v>
+        <v>0.306344181675713</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2819006442463899</v>
+        <v>0.1720712473014741</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.04589303765213007</v>
+        <v>0.014222138203452</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2826009163025434</v>
+        <v>0.05145850315274325</v>
       </c>
       <c r="J243" t="n">
-        <v>0.07400629469101946</v>
+        <v>0.014222138203452</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2833075272577722</v>
+        <v>0.05145850315274325</v>
       </c>
       <c r="L243" t="n">
-        <v>0.1887950430819125</v>
+        <v>0.1910057674234271</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2831694735362271</v>
+        <v>0.1732320379359927</v>
       </c>
       <c r="N243" t="n">
-        <v>0.3034900397459053</v>
+        <v>0.3061510733299438</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2834933032534317</v>
+        <v>0.1730434012410305</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0442472526785392</v>
+        <v>0.01368531284559082</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2841885618997488</v>
+        <v>0.05145362601304156</v>
       </c>
       <c r="J244" t="n">
-        <v>0.07321930297357149</v>
+        <v>0.01368531284559082</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2848991425794451</v>
+        <v>0.05145362601304156</v>
       </c>
       <c r="L244" t="n">
-        <v>0.1858955471236148</v>
+        <v>0.1915868289222219</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2847603132751947</v>
+        <v>0.1742052516322624</v>
       </c>
       <c r="N244" t="n">
-        <v>0.2965733770413932</v>
+        <v>0.3064677586271314</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2850859622604734</v>
+        <v>0.1740155551805868</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.04159892644314077</v>
+        <v>0.01315610380853166</v>
       </c>
       <c r="G245" t="n">
-        <v>0.285776207496954</v>
+        <v>0.05144874887333986</v>
       </c>
       <c r="J245" t="n">
-        <v>0.07172841956761936</v>
+        <v>0.01315610380853166</v>
       </c>
       <c r="K245" t="n">
-        <v>0.286490757901118</v>
+        <v>0.05144874887333986</v>
       </c>
       <c r="L245" t="n">
-        <v>0.1835861995235755</v>
+        <v>0.1908750071694379</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2863511530141623</v>
+        <v>0.175178465328532</v>
       </c>
       <c r="N245" t="n">
-        <v>0.2924408684573519</v>
+        <v>0.3085946668461823</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2866786212675151</v>
+        <v>0.1749877091201432</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.04494802287134803</v>
+        <v>0.01263485076666794</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2873638530941593</v>
+        <v>0.05144387173363817</v>
       </c>
       <c r="J246" t="n">
-        <v>0.07083358905106228</v>
+        <v>0.01263485076666794</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2880823732227908</v>
+        <v>0.05144387173363817</v>
       </c>
       <c r="L246" t="n">
-        <v>0.1804668600709618</v>
+        <v>0.1902706016100839</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2879419927531298</v>
+        <v>0.1761516790248016</v>
       </c>
       <c r="N246" t="n">
-        <v>0.2883922881401518</v>
+        <v>0.3085322272660024</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2882712802745569</v>
+        <v>0.1759598630596995</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.04429450588857424</v>
+        <v>0.0121218933943936</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2889514986913647</v>
+        <v>0.05143899459393648</v>
       </c>
       <c r="J247" t="n">
-        <v>0.07043475600179951</v>
+        <v>0.0121218933943936</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2896739885444637</v>
+        <v>0.05143899459393648</v>
       </c>
       <c r="L247" t="n">
-        <v>0.1765373885549404</v>
+        <v>0.1925739116891683</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2895328324920974</v>
+        <v>0.1771248927210712</v>
       </c>
       <c r="N247" t="n">
-        <v>0.2854274102361637</v>
+        <v>0.3074808691654984</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2898639392815986</v>
+        <v>0.1769320169992559</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.04463833942023258</v>
+        <v>0.01161757136610084</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2905391442885699</v>
+        <v>0.05143411745423478</v>
       </c>
       <c r="J248" t="n">
-        <v>0.06883186499773017</v>
+        <v>0.01161757136610084</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2912656038661366</v>
+        <v>0.05143411745423478</v>
       </c>
       <c r="L248" t="n">
-        <v>0.1761976447646781</v>
+        <v>0.1906852368516998</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2911236722310649</v>
+        <v>0.1780981064173409</v>
       </c>
       <c r="N248" t="n">
-        <v>0.2803460088917587</v>
+        <v>0.308041021823576</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2914565982886404</v>
+        <v>0.1779041709388122</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.04097948739173637</v>
+        <v>0.01112222435618366</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2921267898857753</v>
+        <v>0.05142924031453309</v>
       </c>
       <c r="J249" t="n">
-        <v>0.06822486061675355</v>
+        <v>0.01112222435618366</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2928572191878095</v>
+        <v>0.05142924031453309</v>
       </c>
       <c r="L249" t="n">
-        <v>0.1714474884893417</v>
+        <v>0.1927048765426868</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2927145119700325</v>
+        <v>0.1790713201136105</v>
       </c>
       <c r="N249" t="n">
-        <v>0.2765478582533071</v>
+        <v>0.3096131145191418</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2930492572956822</v>
+        <v>0.1788763248783686</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.0413179137284988</v>
+        <v>0.01063619203903544</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2937144354829805</v>
+        <v>0.0514243631748314</v>
       </c>
       <c r="J250" t="n">
-        <v>0.0674136874367688</v>
+        <v>0.01063619203903544</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2944488345094824</v>
+        <v>0.0514243631748314</v>
       </c>
       <c r="L250" t="n">
-        <v>0.1702867795180984</v>
+        <v>0.1925331302071381</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2943053517090001</v>
+        <v>0.1800445338098801</v>
       </c>
       <c r="N250" t="n">
-        <v>0.2741327324671799</v>
+        <v>0.3092975765311017</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2946419163027239</v>
+        <v>0.1798484788179249</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0396535823559331</v>
+        <v>0.01015981408904957</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2953020810801859</v>
+        <v>0.05141948603512971</v>
       </c>
       <c r="J251" t="n">
-        <v>0.06659829003567513</v>
+        <v>0.01015981408904957</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2960404498311552</v>
+        <v>0.05141948603512971</v>
       </c>
       <c r="L251" t="n">
-        <v>0.1665153776401148</v>
+        <v>0.1913702972900622</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2958961914479676</v>
+        <v>0.1810177475061497</v>
       </c>
       <c r="N251" t="n">
-        <v>0.267400405679748</v>
+        <v>0.3081948371383623</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2962345753097657</v>
+        <v>0.1808206327574813</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03898645719945257</v>
+        <v>0.009693430180619446</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2968897266773912</v>
+        <v>0.05141460889542801</v>
       </c>
       <c r="J252" t="n">
-        <v>0.06467861299137176</v>
+        <v>0.009693430180619446</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2976320651528281</v>
+        <v>0.05141460889542801</v>
       </c>
       <c r="L252" t="n">
-        <v>0.1645331426445576</v>
+        <v>0.1909166772364676</v>
       </c>
       <c r="M252" t="n">
-        <v>0.2974870311869353</v>
+        <v>0.1819909612024194</v>
       </c>
       <c r="N252" t="n">
-        <v>0.2662506520373818</v>
+        <v>0.3073053256198297</v>
       </c>
       <c r="O252" t="n">
-        <v>0.2978272343168074</v>
+        <v>0.1817927866970376</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03631650218447037</v>
+        <v>0.00923737998813845</v>
       </c>
       <c r="G253" t="n">
-        <v>0.2984773722745965</v>
+        <v>0.05140973175572632</v>
       </c>
       <c r="J253" t="n">
-        <v>0.06425460088175788</v>
+        <v>0.00923737998813845</v>
       </c>
       <c r="K253" t="n">
-        <v>0.299223680474501</v>
+        <v>0.05140973175572632</v>
       </c>
       <c r="L253" t="n">
-        <v>0.1624399343205941</v>
+        <v>0.191272569491363</v>
       </c>
       <c r="M253" t="n">
-        <v>0.2990778709259028</v>
+        <v>0.182964174898689</v>
       </c>
       <c r="N253" t="n">
-        <v>0.2609832456864523</v>
+        <v>0.3093294712544098</v>
       </c>
       <c r="O253" t="n">
-        <v>0.2994198933238492</v>
+        <v>0.182764940636594</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03864368123639983</v>
+        <v>0.008792003186000506</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3000650178718017</v>
+        <v>0.05140485461602463</v>
       </c>
       <c r="J254" t="n">
-        <v>0.06292619828473273</v>
+        <v>0.008792003186000506</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3008152957961738</v>
+        <v>0.05140485461602463</v>
       </c>
       <c r="L254" t="n">
-        <v>0.1592356124573907</v>
+        <v>0.1912382734997569</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3006687106648704</v>
+        <v>0.1839373885949586</v>
       </c>
       <c r="N254" t="n">
-        <v>0.2576979607733303</v>
+        <v>0.3073677033210092</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3010125523308909</v>
+        <v>0.1837370945761503</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03796795828065409</v>
+        <v>0.008357639448597923</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3016526634690071</v>
+        <v>0.05139997747632293</v>
       </c>
       <c r="J255" t="n">
-        <v>0.06219334977819546</v>
+        <v>0.008357639448597923</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3024069111178467</v>
+        <v>0.05139997747632293</v>
       </c>
       <c r="L255" t="n">
-        <v>0.1565200368441147</v>
+        <v>0.193314088706658</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3022595504038379</v>
+        <v>0.1849106022912282</v>
       </c>
       <c r="N255" t="n">
-        <v>0.2534945714443865</v>
+        <v>0.3093204510985341</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3026052113379327</v>
+        <v>0.1847092485157067</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0352892972426465</v>
+        <v>0.007934628450324638</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3032403090662124</v>
+        <v>0.05139510033662124</v>
       </c>
       <c r="J256" t="n">
-        <v>0.06115599994004529</v>
+        <v>0.007934628450324638</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3039985264395196</v>
+        <v>0.05139510033662124</v>
       </c>
       <c r="L256" t="n">
-        <v>0.1552930672699327</v>
+        <v>0.1923003145570747</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3038503901428055</v>
+        <v>0.1858838159874978</v>
       </c>
       <c r="N256" t="n">
-        <v>0.2473728518459919</v>
+        <v>0.3096881438658904</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3041978703449744</v>
+        <v>0.185681402455263</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0336076620477902</v>
+        <v>0.007523309865574042</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3048279546634177</v>
+        <v>0.05139022319691954</v>
       </c>
       <c r="J257" t="n">
-        <v>0.06031409334818143</v>
+        <v>0.007523309865574042</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3055901417611925</v>
+        <v>0.05139022319691954</v>
       </c>
       <c r="L257" t="n">
-        <v>0.1516545635240116</v>
+        <v>0.1929972504960157</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3054412298817731</v>
+        <v>0.1868570296837675</v>
       </c>
       <c r="N257" t="n">
-        <v>0.2454325761245169</v>
+        <v>0.3101712109019847</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3057905293520162</v>
+        <v>0.1866535563948194</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03892301662149851</v>
+        <v>0.007124023368739511</v>
       </c>
       <c r="G258" t="n">
-        <v>0.306415600260623</v>
+        <v>0.05138534605721785</v>
       </c>
       <c r="J258" t="n">
-        <v>0.05846757458050308</v>
+        <v>0.007124023368739511</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3071817570828654</v>
+        <v>0.05138534605721785</v>
       </c>
       <c r="L258" t="n">
-        <v>0.1494043853955184</v>
+        <v>0.1943051959684896</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3070320696207406</v>
+        <v>0.1878302433800371</v>
       </c>
       <c r="N258" t="n">
-        <v>0.2394735184263322</v>
+        <v>0.3106700814857231</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3073831883590579</v>
+        <v>0.1876257103343757</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03523532488918461</v>
+        <v>0.006737108634214443</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3080032458578282</v>
+        <v>0.05138046891751615</v>
       </c>
       <c r="J259" t="n">
-        <v>0.05821638821490946</v>
+        <v>0.006737108634214443</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3087733724045383</v>
+        <v>0.05138046891751615</v>
       </c>
       <c r="L259" t="n">
-        <v>0.1455423926736198</v>
+        <v>0.1945244504195049</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3086229093597082</v>
+        <v>0.1888034570763067</v>
       </c>
       <c r="N259" t="n">
-        <v>0.2364954528978091</v>
+        <v>0.3108851848960116</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3089758473660997</v>
+        <v>0.1885978642739321</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03254455077626179</v>
+        <v>0.006362905336392229</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3095908914550335</v>
+        <v>0.05137559177781446</v>
       </c>
       <c r="J260" t="n">
-        <v>0.05646047882929976</v>
+        <v>0.006362905336392229</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3103649877262111</v>
+        <v>0.05137559177781446</v>
       </c>
       <c r="L260" t="n">
-        <v>0.1429684451474826</v>
+        <v>0.1937553132940702</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3102137490986758</v>
+        <v>0.1897766707725763</v>
       </c>
       <c r="N260" t="n">
-        <v>0.2303981536853179</v>
+        <v>0.3118169504117568</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3105685063731414</v>
+        <v>0.1895700182134884</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03685065820814323</v>
+        <v>0.006001753149666673</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3111785370522389</v>
+        <v>0.05137071463811277</v>
       </c>
       <c r="J261" t="n">
-        <v>0.05609979100157318</v>
+        <v>0.006001753149666673</v>
       </c>
       <c r="K261" t="n">
-        <v>0.311956603047884</v>
+        <v>0.05137071463811277</v>
       </c>
       <c r="L261" t="n">
-        <v>0.1411824026062739</v>
+        <v>0.1925980840371941</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3118045888376433</v>
+        <v>0.1907498844688459</v>
       </c>
       <c r="N261" t="n">
-        <v>0.2281813949352295</v>
+        <v>0.3104658073118646</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3121611653801832</v>
+        <v>0.1905421721530448</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03015361111024224</v>
+        <v>0.005653991748430301</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3127661826494442</v>
+        <v>0.05136583749841108</v>
       </c>
       <c r="J262" t="n">
-        <v>0.05513426930962895</v>
+        <v>0.005653991748430301</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3135482183695569</v>
+        <v>0.05136583749841108</v>
       </c>
       <c r="L262" t="n">
-        <v>0.1372841248391604</v>
+        <v>0.1932530620938851</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3133954285766109</v>
+        <v>0.1917230981651156</v>
       </c>
       <c r="N262" t="n">
-        <v>0.2209449507939146</v>
+        <v>0.3120321848752415</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3137538243872249</v>
+        <v>0.1915143260926011</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03345337340797201</v>
+        <v>0.005319960807076946</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3143538282466494</v>
+        <v>0.05136096035870939</v>
       </c>
       <c r="J263" t="n">
-        <v>0.05326385833136624</v>
+        <v>0.005319960807076946</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3151398336912298</v>
+        <v>0.05136096035870939</v>
       </c>
       <c r="L263" t="n">
-        <v>0.1345734716353089</v>
+        <v>0.194620546909152</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3149862683155785</v>
+        <v>0.1926963118613852</v>
       </c>
       <c r="N263" t="n">
-        <v>0.2183885954077441</v>
+        <v>0.3135165123807935</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3153464833942667</v>
+        <v>0.1924864800321575</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.0297499090267458</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3159414738438548</v>
+        <v>0.05135608321900769</v>
       </c>
       <c r="J264" t="n">
-        <v>0.05248850264468426</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3167314490129027</v>
+        <v>0.05135608321900769</v>
       </c>
       <c r="L264" t="n">
-        <v>0.1327503027838865</v>
+        <v>0.1935008379280031</v>
       </c>
       <c r="M264" t="n">
-        <v>0.316577108054546</v>
+        <v>0.1936695255576548</v>
       </c>
       <c r="N264" t="n">
-        <v>0.2141121029230886</v>
+        <v>0.3108192191074269</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3169391424013084</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1934586339717138</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05134292532427085</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.05134292532427085</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.00587944287847126</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05134319385273486</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.00587944287847126</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.05134319385273486</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006754306876291603</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05134346238119888</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.006754306876291603</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.05134346238119888</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007624544273137197</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.0513437309096629</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.007624544273137197</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.0513437309096629</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.008490107348760136</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05134399943812692</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.008490107348760136</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.05134399943812692</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.009350948382836996</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05134426796659093</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.009350948382836996</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.05134426796659093</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.01020701965511946</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05134453649505495</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.01020701965511946</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.05134453649505495</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01105827344528452</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05134480502351896</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.01105827344528452</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.05134480502351896</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01190466203308346</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05134507355198299</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.01190466203308346</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.05134507355198299</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01274613769819369</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.051345342080447</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.01274613769819369</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.051345342080447</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.013582652720366</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05134561060891102</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.013582652720366</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.05134561060891102</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01441415937927831</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05134587913737504</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.01441415937927831</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.05134587913737504</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01524060995468098</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05134614766583906</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.01524060995468098</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.05134614766583906</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01606195672625231</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05134641619430307</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.01606195672625231</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.05134641619430307</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01687815197374225</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05134668472276709</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.01687815197374225</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.05134668472276709</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01768914797682952</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05134695325123111</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.01768914797682952</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.05134695325123111</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01849489701526368</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05134722177969513</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.01849489701526368</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.05134722177969513</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01929535136872386</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05134749030815914</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.01929535136872386</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.05134749030815914</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.02009046331694191</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05134775883662315</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.02009046331694191</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.05134775883662315</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.02088018513964916</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05134802736508717</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.02088018513964916</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.05134802736508717</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.02166446911652552</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05134829589355119</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.02166446911652552</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.05134829589355119</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.02244326752731933</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05134856442201521</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.02244326752731933</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.05134856442201521</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.02321653265171095</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05134883295047923</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.02321653265171095</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.05134883295047923</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02398421676944822</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05134910147894325</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.02398421676944822</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.05134910147894325</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02474627216021202</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05134937000740726</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.02474627216021202</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.05134937000740726</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02550284596158327</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05134963853587128</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.02550284596158327</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.05134963853587128</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.0262550596002445</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05134990706433529</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.0262550596002445</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.05134990706433529</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02700306021377627</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05135017559279931</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.02700306021377627</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.05135017559279931</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02774680008186024</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05135044412126333</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.02774680008186024</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.05135044412126333</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02848623148424301</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05135071264972735</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.02848623148424301</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.05135071264972735</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02922130670060664</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05135098117819136</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.02922130670060664</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.05135098117819136</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02995197801069738</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05135124970665538</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.02995197801069738</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.05135124970665538</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.03067819769419762</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05135151823511939</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.03067819769419762</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.05135151823511939</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.03139991803083757</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05135178676358341</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.03139991803083757</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.05135178676358341</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.03211709130034701</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05135205529204743</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.03211709130034701</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.05135205529204743</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.03282966978240899</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05135232382051145</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.03282966978240899</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.05135232382051145</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.03353760575676872</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05135259234897547</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.03353760575676872</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.05135259234897547</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.03424085150310964</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05135286087743948</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.03424085150310964</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.05135286087743948</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03493935930117659</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.0513531294059035</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.03493935930117659</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.0513531294059035</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03563308143065341</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05135339793436752</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.03563308143065341</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.05135339793436752</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03632197017128451</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05135366646283154</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.03632197017128451</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.05135366646283154</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03700597780275416</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05135393499129555</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.03700597780275416</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.05135393499129555</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03768505660480635</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05135420351975957</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.03768505660480635</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.05135420351975957</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03835915885712578</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05135447204822358</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.03835915885712578</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.05135447204822358</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03902823683945598</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.0513547405766876</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.03902823683945598</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.0513547405766876</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03969224283148211</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05135500910515162</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.03969224283148211</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.05135500910515162</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.04035112911294729</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05135527763361564</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.04035112911294729</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.05135527763361564</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.04100484796353708</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05135554616207966</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.04100484796353708</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.05135554616207966</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.04165335166299415</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05135581469054368</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.04165335166299415</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.05135581469054368</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.04229659249100451</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05135608321900769</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.04229659249100451</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.05135608321900769</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.04229659249100451</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05134292532427085</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.04229659249100451</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.05134292532427085</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.04302394746864525</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05134833952090058</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.04302394746864525</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.05134833952090058</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04374519477554913</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05135375371753031</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.04374519477554913</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.05135375371753031</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04446019970268375</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05135916791416003</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.04446019970268375</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.05135916791416003</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04516882754101906</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05136458211078976</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.04516882754101906</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.05136458211078976</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04587094358152262</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05136999630741949</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.04587094358152262</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.05136999630741949</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.04656641311516285</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05137541050404922</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.04656641311516285</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.05137541050404922</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04725510143290808</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05138082470067894</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.04725510143290808</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.05138082470067894</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04793687382572599</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05138623889730867</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.04793687382572599</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.05138623889730867</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04861159558458641</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05139165309393839</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.04861159558458641</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.05139165309393839</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04927913200045698</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05139706729056812</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.04927913200045698</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.05139706729056812</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04993934836430609</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05140248148719786</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.04993934836430609</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.05140248148719786</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.0505921099671021</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05140789568382759</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.0505921099671021</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.05140789568382759</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.05123728209981269</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05141330988045731</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.05123728209981269</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.05141330988045731</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.05187473005340766</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05141872407708704</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.05187473005340766</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.05141872407708704</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.05250431911885468</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05142413827371677</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.05250431911885468</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.05142413827371677</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05312591458712208</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05142955247034649</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.05312591458712208</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.05142955247034649</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05373938174917831</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05143496666697622</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.05373938174917831</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.05143496666697622</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.05434458589599102</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05144038086360594</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.05434458589599102</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.05144038086360594</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05494139231852994</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05144579506023567</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.05494139231852994</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.05144579506023567</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05552966630776281</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.0514512092568654</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.05552966630776281</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.0514512092568654</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05610927315465794</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05145662345349513</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.05610927315465794</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.05145662345349513</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.05668007815018375</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05146203765012486</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.05668007815018375</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.05146203765012486</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05724194658530803</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05146745184675459</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.05724194658530803</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.05146745184675459</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05779474375100034</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05147286604338432</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.05779474375100034</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.05147286604338432</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05833888500010756</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05147828024001404</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.05833888500010756</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.05147828024001404</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05887753599487287</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05148369443664377</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.05887753599487287</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.05148369443664377</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.0594111120881432</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05148910863327349</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.0594111120881432</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.05148910863327349</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05993947857088809</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05149452282990322</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.05993947857088809</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.05149452282990322</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.06046250073407529</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05149993702653295</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.06046250073407529</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.05149993702653295</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.06098004386867321</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05150535122316268</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.06098004386867321</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.05150535122316268</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.06149197326565023</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05151076541979241</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.06149197326565023</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.05151076541979241</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06199815421597418</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05151617961642213</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.06199815421597418</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.05151617961642213</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06249845201061452</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05152159381305186</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.06249845201061452</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.05152159381305186</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.06299273194053907</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05152700800968159</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.06299273194053907</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.05152700800968159</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.06348085929671624</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05153242220631132</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.06348085929671624</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.05153242220631132</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06396269937011437</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05153783640294105</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.06396269937011437</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.05153783640294105</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06443811745170133</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05154325059957077</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.06443811745170133</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.05154325059957077</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06490697883244656</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.0515486647962005</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.06490697883244656</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.0515486647962005</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06536914880331789</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05155407899283023</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.06536914880331789</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.05155407899283023</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0658244926552837</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05155949318945996</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.0658244926552837</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.05155949318945996</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.06627287567931237</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05156490738608969</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.06627287567931237</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.05156490738608969</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.06671416316637178</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05157032158271941</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.06671416316637178</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.05157032158271941</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.06714822040743132</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05157573577934914</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.06714822040743132</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.05157573577934914</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.06757491269345883</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05158114997597887</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.06757491269345883</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.05158114997597887</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.06799410531542271</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.0515865641726086</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.06799410531542271</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.0515865641726086</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.06840566356429134</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05159197836923832</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.06840566356429134</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.05159197836923832</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.06880945273103264</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05159739256586805</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.06880945273103264</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.05159739256586805</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.06920533810661589</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05160280676249778</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.06920533810661589</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.05160280676249778</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.069593184982009</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05160822095912751</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.069593184982009</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.05160822095912751</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.069593184982009</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05160822095912751</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.069593184982009</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.05160822095912751</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.06852308079418751</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.0547886473077866</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.06852308079418751</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.0547886473077866</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.06759054788286337</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0579690736564457</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.06759054788286337</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.0579690736564457</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.0667862368695518</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06114950000510479</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.0667862368695518</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.06114950000510479</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.06610079837576809</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06432992635376389</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.06610079837576809</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.06432992635376389</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.06552488302302742</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06751035270242299</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.06552488302302742</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.06751035270242299</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.06504914143284504</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07069077905108209</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.06504914143284504</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.07069077905108209</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.06466422422673616</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07387120539974118</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.06466422422673616</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.07387120539974118</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.06436078202621605</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07705163174840028</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.06436078202621605</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.07705163174840028</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.06412946545279989</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08023205809705937</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.06412946545279989</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.08023205809705937</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.06396092512800296</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08341248444571846</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.06396092512800296</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.08341248444571846</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.06384581167334044</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08659291079437756</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.06384581167334044</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.08659291079437756</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.06377477571032759</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08977333714303666</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.06377477571032759</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.08977333714303666</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.06373846786047964</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.09295376349169575</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.06373846786047964</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.09295376349169575</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.0637275387453118</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09613418984035485</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.0637275387453118</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.09613418984035485</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.06393622180040785</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09931461618901395</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.06393622180040785</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.09931461618901395</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.0645606346746023</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1024950425376731</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.0645606346746023</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.1024950425376731</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.06546661323923157</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1056754688863321</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.06546661323923157</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.1056754688863321</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.06651799457976929</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1088558952349912</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.06651799457976929</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1088558952349912</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.06757861578168907</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1120363215836503</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.06757861578168907</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1120363215836503</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.06851231393046454</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1152167479323094</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.06851231393046454</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1152167479323094</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.06918292611156934</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1183971742809685</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.06918292611156934</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1183971742809685</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.06945428941047709</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1215776006296276</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.06945428941047709</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1215776006296276</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.06933339848138859</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1247580269782867</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.06933339848138859</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1247580269782867</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.06895827785368429</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1279384533269458</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.06895827785368429</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1279384533269458</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.06835258928637726</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1311188796756049</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.06835258928637726</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1311188796756049</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.06753967951259983</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.134299306024264</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.06753967951259983</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.134299306024264</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.06654289526548431</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1374797323729231</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.06654289526548431</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1374797323729231</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.06538558327816302</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1406601587215822</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.06538558327816302</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1406601587215822</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.06409109028376826</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1438405850702413</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.06409109028376826</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1438405850702413</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.06268276301543238</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1470210114189004</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.06268276301543238</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1470210114189004</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.06118394820628767</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.06118394820628767</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05961799258946644</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1533818641162186</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.05961799258946644</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1533818641162186</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05800824289810103</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1565622904648777</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.05800824289810103</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1565622904648777</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.05623588380378293</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1597427168135368</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.05623588380378293</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.1597427168135368</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05318339383218659</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1629231431621959</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.05318339383218659</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1629231431621959</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04977420508984697</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1661035695108549</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.04977420508984697</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1661035695108549</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.0474709246616105</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1692839958595141</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.0474709246616105</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1692839958595141</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04718716544541751</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1724644222081731</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.04718716544541751</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1724644222081731</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04720431347136354</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1756448485568322</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.04720431347136354</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1756448485568322</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04723876649839726</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1788252749054913</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.04723876649839726</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1788252749054913</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04729170373458266</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1820057012541504</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.04729170373458266</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1820057012541504</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04736430438798371</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1851861276028095</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.04736430438798371</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1851861276028095</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04745774766666438</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1883665539514686</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.04745774766666438</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1883665539514686</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04757321277868866</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1915469803001277</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.04757321277868866</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1915469803001277</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04771187893212051</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1947274066487868</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.04771187893212051</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.1947274066487868</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04796756915844597</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1979078329974459</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.04796756915844597</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1979078329974459</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04917537380933351</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.201088259346105</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.04917537380933351</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.201088259346105</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.05087012350201738</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2042686856947641</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.05087012350201738</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.2042686856947641</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.05222272890745616</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2074491120434232</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.05222272890745616</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.2074491120434232</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.05319227055757736</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2106295383920823</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.05319227055757736</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2106295383920823</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.0540666630759121</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2138099647407414</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.0540666630759121</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2138099647407414</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.05487234763995477</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2169903910894005</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.05487234763995477</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2169903910894005</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.05563576542719985</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2201708174380596</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.05563576542719985</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2201708174380596</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.05638335761514174</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2233512437867187</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.05638335761514174</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2233512437867187</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.05713159358922101</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2265316701353778</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.05713159358922101</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2265316701353778</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.05779876489977401</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2297120964840369</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.05779876489977401</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2297120964840369</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.05843134288606862</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.232892522832696</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.05843134288606862</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.232892522832696</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.05911900174039739</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2360729491813551</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.05911900174039739</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2360729491813551</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.05995141565505281</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2392533755300141</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.05995141565505281</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2392533755300141</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.06107546776261109</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2424338018786732</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.06107546776261109</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2424338018786732</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.06255784904433856</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2456142282273323</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.06255784904433856</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2456142282273323</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.06435000636521608</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2487946545759915</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.06435000636521608</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2487946545759915</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.06640327474821042</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2519750809246505</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.06640327474821042</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2519750809246505</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.06866898921628829</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2551555072733097</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.06866898921628829</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2551555072733097</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.07109848479241641</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2583359336219687</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.07109848479241641</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2583359336219687</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.07364309649956152</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2615163599706278</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.07364309649956152</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2615163599706278</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.07625415936069035</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2646967863192869</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.07625415936069035</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2646967863192869</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.07888300839876966</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.267877212667946</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.07888300839876966</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.267877212667946</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.08148097863676612</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2710576390166051</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.08148097863676612</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2710576390166051</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.0839994050976465</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2742380653652642</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.0839994050976465</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2742380653652642</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.08638962280437754</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2774184917139233</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.08638962280437754</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2774184917139233</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.08860296677992591</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2805989180625824</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.08860296677992591</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2805989180625824</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.09059077204725835</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2837793444112415</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.09059077204725835</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2837793444112415</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.09230437362934166</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2869597707599006</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.09230437362934166</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2869597707599006</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.09369510654914248</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2901401971085596</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.09369510654914248</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2901401971085596</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.09471430582962764</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2933206234572188</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.09471430582962764</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.2933206234572188</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.09545757997601201</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2965010498058779</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.09545757997601201</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2965010498058779</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.09535652661503755</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2996814761545369</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.09535652661503755</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.2996814761545369</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.09290425390497842</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3028619025031961</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.09290425390497842</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.3028619025031961</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.08784614123300999</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3060423288518552</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.08784614123300999</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.3060423288518552</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.08108027630539547</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3092227552005142</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.08108027630539547</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3092227552005142</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.073504746828398</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3124031815491733</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.073504746828398</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3124031815491733</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.06601764050828079</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3155836078978325</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.06601764050828079</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3155836078978325</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.059517045051307</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3187640342464915</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.059517045051307</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3187640342464915</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.05490104816373985</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3219444605951506</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.05490104816373985</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3219444605951506</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.05241500994610988</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3251248869438098</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.05241500994610988</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3251248869438098</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.05020939946593554</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3283053132924689</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.05020939946593554</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3283053132924689</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.04810484456257091</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3314857396411279</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.04810484456257091</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3314857396411279</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.04611446471309333</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.334666165989787</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.04611446471309333</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.334666165989787</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.04425137939458007</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3378465923384462</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.04425137939458007</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3378465923384462</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.04252870808410844</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3410270186871052</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.04252870808410844</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3410270186871052</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.04095957025875573</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3442074450357643</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.04095957025875573</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3442074450357643</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03955708539559925</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3473878713844235</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.03955708539559925</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3473878713844235</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.0383343729717163</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3505682977330825</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.0383343729717163</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3505682977330825</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03730455246418418</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3537487240817416</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.03730455246418418</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3537487240817416</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.0364807433500802</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3569291504304007</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.0364807433500802</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3569291504304007</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03587606510648166</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3601095767790598</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.03587606510648166</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3601095767790598</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03550363721046584</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3632900031277189</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.03550363721046584</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3632900031277189</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03537657913911006</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.366470429476378</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.03537657913911006</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.366470429476378</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
